--- a/R_files/Rresults/statsRelPos/stats_Oct1/zscoresStepwise_Oct1.xlsx
+++ b/R_files/Rresults/statsRelPos/stats_Oct1/zscoresStepwise_Oct1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="190" windowWidth="19140" windowHeight="7770" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="195" windowWidth="19140" windowHeight="7770" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main record" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="#-pred-v-auxy" sheetId="3" r:id="rId3"/>
     <sheet name="#-pred-v-adv-v" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="571">
   <si>
     <t>Aeschylus</t>
   </si>
@@ -1715,13 +1715,28 @@
   </si>
   <si>
     <t>#-pred-v-adv-v-obj-n-atr-a / #-pred-v-adv-v-obj-n</t>
+  </si>
+  <si>
+    <t>#-pred-v-coord-c-adv_co-v / #-pred-v</t>
+  </si>
+  <si>
+    <t>composit of #7 and #28</t>
+  </si>
+  <si>
+    <t>(#7 + #28 / # 2)</t>
+  </si>
+  <si>
+    <t>#80 / #2</t>
+  </si>
+  <si>
+    <t>#26 + #80 / #2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2039,7 +2054,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2154,6 +2169,86 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2199,11 +2294,24 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2334,7 +2442,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2369,7 +2476,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2545,579 +2651,575 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AOI15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="EY3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="FD1" sqref="FD1:FE15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.08984375" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.90625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="24.08984375" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="34" max="35" width="13" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="52" max="53" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="64" max="65" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="66" max="67" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="68" max="69" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="70" max="71" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="74" max="75" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="76" max="77" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="78" max="79" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="64" max="65" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="68" max="69" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="70" max="71" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="74" max="75" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="76" max="77" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="80" max="81" width="23" bestFit="1" customWidth="1"/>
-    <col min="82" max="83" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="84" max="85" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="86" max="87" width="24.90625" bestFit="1" customWidth="1"/>
-    <col min="88" max="89" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="86" max="87" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="88" max="89" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="90" max="91" width="23" bestFit="1" customWidth="1"/>
-    <col min="92" max="93" width="17.1796875" bestFit="1" customWidth="1"/>
-    <col min="94" max="95" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="96" max="97" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="98" max="99" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="100" max="101" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="102" max="103" width="12.90625" bestFit="1" customWidth="1"/>
-    <col min="104" max="105" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="106" max="107" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="92" max="93" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="94" max="95" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="96" max="97" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="98" max="99" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="100" max="101" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="102" max="103" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="104" max="105" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="106" max="107" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="108" max="109" width="17" bestFit="1" customWidth="1"/>
-    <col min="110" max="111" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="112" max="113" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="114" max="115" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="116" max="117" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="110" max="111" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="112" max="113" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="114" max="115" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="116" max="117" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="118" max="119" width="23" bestFit="1" customWidth="1"/>
-    <col min="120" max="121" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="122" max="123" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="124" max="125" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="126" max="127" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="128" max="129" width="28.26953125" bestFit="1" customWidth="1"/>
-    <col min="130" max="131" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="132" max="133" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="134" max="135" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="136" max="137" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="120" max="121" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="122" max="123" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="124" max="125" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="126" max="127" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="128" max="129" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="130" max="131" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="132" max="133" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="134" max="135" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="136" max="137" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="138" max="139" width="33" bestFit="1" customWidth="1"/>
-    <col min="140" max="141" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="142" max="143" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="144" max="145" width="26.90625" bestFit="1" customWidth="1"/>
-    <col min="146" max="147" width="30.08984375" bestFit="1" customWidth="1"/>
-    <col min="148" max="149" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="150" max="151" width="28.26953125" bestFit="1" customWidth="1"/>
-    <col min="152" max="153" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="154" max="155" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="156" max="157" width="23.90625" bestFit="1" customWidth="1"/>
-    <col min="158" max="159" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="160" max="161" width="28.26953125" bestFit="1" customWidth="1"/>
-    <col min="162" max="163" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="164" max="165" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="166" max="167" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="140" max="141" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="142" max="143" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="144" max="145" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="146" max="147" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="148" max="149" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="150" max="151" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="152" max="153" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="154" max="155" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="156" max="157" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="158" max="159" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="160" max="161" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="162" max="163" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="164" max="165" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="166" max="167" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="168" max="169" width="14" bestFit="1" customWidth="1"/>
     <col min="170" max="171" width="18" bestFit="1" customWidth="1"/>
-    <col min="172" max="173" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="174" max="175" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="176" max="177" width="22.90625" bestFit="1" customWidth="1"/>
-    <col min="178" max="179" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="180" max="181" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="182" max="183" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="172" max="173" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="174" max="175" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="176" max="177" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="178" max="179" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="180" max="181" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="182" max="183" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="184" max="185" width="19" bestFit="1" customWidth="1"/>
-    <col min="186" max="187" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="188" max="189" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="190" max="191" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="192" max="193" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="194" max="195" width="32.36328125" bestFit="1" customWidth="1"/>
-    <col min="196" max="197" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="198" max="199" width="29.453125" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="202" max="203" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="204" max="205" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="208" max="209" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="210" max="211" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="212" max="213" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="214" max="215" width="31.36328125" bestFit="1" customWidth="1"/>
-    <col min="216" max="217" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="218" max="219" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="220" max="221" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="186" max="187" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="188" max="189" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="190" max="191" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="192" max="193" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="194" max="195" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="196" max="197" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="198" max="199" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="202" max="203" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="204" max="205" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="208" max="209" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="210" max="211" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="212" max="213" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="214" max="215" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="216" max="217" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="218" max="219" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="220" max="221" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="222" max="223" width="14" bestFit="1" customWidth="1"/>
     <col min="224" max="225" width="24" bestFit="1" customWidth="1"/>
-    <col min="226" max="227" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="228" max="229" width="27.54296875" bestFit="1" customWidth="1"/>
-    <col min="230" max="231" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="232" max="233" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="234" max="235" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="226" max="227" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="228" max="229" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="230" max="231" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="232" max="233" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="234" max="235" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="236" max="237" width="24" bestFit="1" customWidth="1"/>
-    <col min="238" max="239" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="240" max="241" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="242" max="243" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="244" max="245" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="246" max="247" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="248" max="249" width="23.90625" bestFit="1" customWidth="1"/>
-    <col min="250" max="251" width="33.81640625" bestFit="1" customWidth="1"/>
-    <col min="252" max="253" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="254" max="255" width="30.26953125" bestFit="1" customWidth="1"/>
-    <col min="256" max="257" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="258" max="259" width="29.6328125" bestFit="1" customWidth="1"/>
-    <col min="260" max="261" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="262" max="263" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="264" max="265" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="266" max="267" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="268" max="269" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="270" max="271" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="272" max="273" width="23.08984375" bestFit="1" customWidth="1"/>
-    <col min="274" max="275" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="276" max="277" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="238" max="239" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="240" max="241" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="242" max="243" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="244" max="245" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="246" max="247" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="248" max="249" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="250" max="251" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="252" max="253" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="254" max="255" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="256" max="257" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="258" max="259" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="260" max="261" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="262" max="263" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="266" max="267" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="268" max="269" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="270" max="271" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="272" max="273" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="274" max="275" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="276" max="277" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="278" max="279" width="14" bestFit="1" customWidth="1"/>
-    <col min="280" max="281" width="34.36328125" bestFit="1" customWidth="1"/>
+    <col min="280" max="281" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="282" max="283" width="13" bestFit="1" customWidth="1"/>
-    <col min="284" max="285" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="286" max="287" width="27.08984375" bestFit="1" customWidth="1"/>
-    <col min="288" max="289" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="290" max="291" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="292" max="292" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="293" max="293" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="294" max="295" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="296" max="297" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="298" max="299" width="32.453125" bestFit="1" customWidth="1"/>
-    <col min="300" max="301" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="302" max="303" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="284" max="285" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="286" max="287" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="288" max="289" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="290" max="291" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="292" max="292" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="293" max="293" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="294" max="295" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="296" max="297" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="298" max="299" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="300" max="301" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="302" max="303" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="304" max="305" width="22" bestFit="1" customWidth="1"/>
-    <col min="306" max="307" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="308" max="309" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="310" max="311" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="312" max="313" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="314" max="315" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="316" max="317" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="318" max="319" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="320" max="321" width="26.6328125" bestFit="1" customWidth="1"/>
-    <col min="322" max="323" width="32.6328125" bestFit="1" customWidth="1"/>
-    <col min="324" max="324" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="325" max="325" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="306" max="307" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="308" max="309" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="310" max="311" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="312" max="313" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="314" max="315" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="316" max="317" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="318" max="319" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="320" max="321" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="322" max="323" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="324" max="324" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="325" max="325" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="326" max="327" width="20" bestFit="1" customWidth="1"/>
     <col min="328" max="329" width="29" bestFit="1" customWidth="1"/>
-    <col min="330" max="331" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="332" max="333" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="334" max="335" width="31.26953125" bestFit="1" customWidth="1"/>
-    <col min="336" max="337" width="25.6328125" bestFit="1" customWidth="1"/>
-    <col min="338" max="339" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="340" max="341" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="342" max="343" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="344" max="345" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="346" max="347" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="348" max="349" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="330" max="331" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="332" max="333" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="334" max="335" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="336" max="337" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="338" max="339" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="340" max="341" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="342" max="343" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="344" max="345" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="346" max="347" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="348" max="349" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="350" max="351" width="34" bestFit="1" customWidth="1"/>
-    <col min="352" max="353" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="354" max="354" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="355" max="355" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="356" max="357" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="358" max="359" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="360" max="361" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="362" max="363" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="364" max="365" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="366" max="367" width="21.54296875" bestFit="1" customWidth="1"/>
-    <col min="368" max="369" width="34.90625" bestFit="1" customWidth="1"/>
-    <col min="370" max="371" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="372" max="373" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="374" max="375" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="376" max="377" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="352" max="353" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="354" max="354" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="355" max="355" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="356" max="357" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="358" max="359" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="360" max="361" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="362" max="363" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="364" max="365" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="366" max="367" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="368" max="369" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="370" max="371" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="372" max="373" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="374" max="375" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="376" max="377" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="378" max="379" width="19" bestFit="1" customWidth="1"/>
-    <col min="380" max="381" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="382" max="383" width="36.6328125" bestFit="1" customWidth="1"/>
-    <col min="384" max="385" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="386" max="387" width="21.1796875" bestFit="1" customWidth="1"/>
-    <col min="388" max="389" width="33.453125" bestFit="1" customWidth="1"/>
+    <col min="380" max="381" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="382" max="383" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="384" max="385" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="386" max="387" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="388" max="389" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="390" max="390" width="12" bestFit="1" customWidth="1"/>
-    <col min="391" max="391" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="392" max="392" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="393" max="393" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="394" max="395" width="19.81640625" bestFit="1" customWidth="1"/>
-    <col min="396" max="397" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="398" max="399" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="400" max="401" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="402" max="403" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="404" max="405" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="406" max="407" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="391" max="393" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="394" max="395" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="396" max="397" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="398" max="399" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="400" max="401" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="402" max="403" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="404" max="405" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="406" max="407" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="408" max="409" width="33" bestFit="1" customWidth="1"/>
-    <col min="410" max="411" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="412" max="413" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="414" max="415" width="34.90625" bestFit="1" customWidth="1"/>
-    <col min="416" max="417" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="418" max="419" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="420" max="421" width="34.81640625" bestFit="1" customWidth="1"/>
-    <col min="422" max="423" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="424" max="425" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="426" max="427" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="428" max="429" width="25.36328125" bestFit="1" customWidth="1"/>
-    <col min="430" max="431" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="410" max="411" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="412" max="413" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="414" max="415" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="416" max="417" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="418" max="419" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="420" max="421" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="422" max="423" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="424" max="425" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="426" max="427" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="428" max="429" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="430" max="431" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="432" max="433" width="29" bestFit="1" customWidth="1"/>
-    <col min="434" max="435" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="434" max="435" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="436" max="437" width="29" bestFit="1" customWidth="1"/>
-    <col min="438" max="439" width="49.36328125" bestFit="1" customWidth="1"/>
-    <col min="440" max="441" width="34.54296875" bestFit="1" customWidth="1"/>
-    <col min="442" max="443" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="444" max="445" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="446" max="447" width="24.08984375" bestFit="1" customWidth="1"/>
-    <col min="448" max="449" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="438" max="439" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="440" max="441" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="442" max="443" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="444" max="445" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="446" max="447" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="448" max="449" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="450" max="451" width="13" bestFit="1" customWidth="1"/>
-    <col min="452" max="453" width="27.54296875" bestFit="1" customWidth="1"/>
-    <col min="454" max="455" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="452" max="453" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="454" max="455" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="456" max="457" width="19" bestFit="1" customWidth="1"/>
-    <col min="458" max="458" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="459" max="459" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="460" max="461" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="462" max="463" width="30.26953125" bestFit="1" customWidth="1"/>
-    <col min="464" max="465" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="466" max="467" width="27.54296875" bestFit="1" customWidth="1"/>
-    <col min="468" max="469" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="470" max="471" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="472" max="473" width="39.6328125" bestFit="1" customWidth="1"/>
-    <col min="474" max="475" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="476" max="477" width="20.1796875" bestFit="1" customWidth="1"/>
-    <col min="478" max="479" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="458" max="458" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="459" max="459" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="460" max="461" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="462" max="463" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="464" max="465" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="466" max="467" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="468" max="469" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="470" max="471" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="472" max="473" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="474" max="475" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="476" max="477" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="478" max="479" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="480" max="481" width="24" bestFit="1" customWidth="1"/>
-    <col min="482" max="483" width="27.08984375" bestFit="1" customWidth="1"/>
+    <col min="482" max="483" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="484" max="485" width="28" bestFit="1" customWidth="1"/>
-    <col min="486" max="487" width="37.81640625" bestFit="1" customWidth="1"/>
-    <col min="488" max="489" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="490" max="491" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="492" max="493" width="23.36328125" bestFit="1" customWidth="1"/>
+    <col min="486" max="487" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="488" max="489" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="490" max="491" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="492" max="493" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="494" max="495" width="33" bestFit="1" customWidth="1"/>
-    <col min="496" max="497" width="24.6328125" bestFit="1" customWidth="1"/>
-    <col min="498" max="499" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="500" max="501" width="27.54296875" bestFit="1" customWidth="1"/>
-    <col min="502" max="503" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="504" max="505" width="21.90625" bestFit="1" customWidth="1"/>
-    <col min="506" max="507" width="44.81640625" bestFit="1" customWidth="1"/>
+    <col min="496" max="497" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="498" max="499" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="500" max="501" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="502" max="503" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="504" max="505" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="506" max="507" width="44.85546875" bestFit="1" customWidth="1"/>
     <col min="508" max="509" width="29" bestFit="1" customWidth="1"/>
-    <col min="510" max="511" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="510" max="511" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="512" max="513" width="20" bestFit="1" customWidth="1"/>
-    <col min="514" max="515" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="516" max="517" width="29.54296875" bestFit="1" customWidth="1"/>
-    <col min="518" max="519" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="520" max="521" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="522" max="523" width="29.6328125" bestFit="1" customWidth="1"/>
-    <col min="524" max="525" width="21.7265625" bestFit="1" customWidth="1"/>
-    <col min="526" max="527" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="528" max="529" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="530" max="531" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="514" max="515" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="516" max="517" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="518" max="519" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="520" max="521" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="522" max="523" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="524" max="525" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="526" max="527" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="528" max="529" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="530" max="531" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="532" max="533" width="24" bestFit="1" customWidth="1"/>
     <col min="534" max="535" width="23" bestFit="1" customWidth="1"/>
-    <col min="536" max="537" width="34.36328125" bestFit="1" customWidth="1"/>
-    <col min="538" max="539" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="536" max="537" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="538" max="539" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="540" max="541" width="24" bestFit="1" customWidth="1"/>
-    <col min="542" max="543" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="542" max="543" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="544" max="545" width="28" bestFit="1" customWidth="1"/>
-    <col min="546" max="547" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="548" max="549" width="29.6328125" bestFit="1" customWidth="1"/>
-    <col min="550" max="551" width="22.81640625" bestFit="1" customWidth="1"/>
-    <col min="552" max="553" width="14.36328125" bestFit="1" customWidth="1"/>
-    <col min="554" max="555" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="556" max="557" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="558" max="559" width="34.36328125" bestFit="1" customWidth="1"/>
+    <col min="546" max="547" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="548" max="549" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="550" max="551" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="552" max="553" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="554" max="555" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="556" max="557" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="558" max="559" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="560" max="561" width="32" bestFit="1" customWidth="1"/>
-    <col min="562" max="563" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="564" max="565" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="566" max="567" width="22.08984375" bestFit="1" customWidth="1"/>
-    <col min="568" max="569" width="28.26953125" bestFit="1" customWidth="1"/>
-    <col min="570" max="571" width="30.26953125" bestFit="1" customWidth="1"/>
-    <col min="572" max="573" width="30.08984375" bestFit="1" customWidth="1"/>
-    <col min="574" max="575" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="576" max="577" width="23.81640625" bestFit="1" customWidth="1"/>
-    <col min="578" max="579" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="580" max="581" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="562" max="563" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="564" max="565" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="566" max="567" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="568" max="569" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="570" max="571" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="572" max="573" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="574" max="575" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="576" max="577" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="578" max="579" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="580" max="581" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="582" max="583" width="27" bestFit="1" customWidth="1"/>
-    <col min="584" max="585" width="24.36328125" bestFit="1" customWidth="1"/>
+    <col min="584" max="585" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="586" max="587" width="18" bestFit="1" customWidth="1"/>
-    <col min="588" max="589" width="38.36328125" bestFit="1" customWidth="1"/>
-    <col min="590" max="591" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="592" max="593" width="38.36328125" bestFit="1" customWidth="1"/>
-    <col min="594" max="595" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="596" max="597" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="598" max="599" width="29.90625" bestFit="1" customWidth="1"/>
-    <col min="600" max="601" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="602" max="603" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="604" max="605" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="606" max="607" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="608" max="609" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="610" max="611" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="588" max="589" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="590" max="591" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="592" max="593" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="594" max="595" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="596" max="597" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="598" max="599" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="600" max="601" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="602" max="603" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="604" max="605" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="606" max="607" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="608" max="609" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="610" max="611" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="612" max="613" width="32" bestFit="1" customWidth="1"/>
-    <col min="614" max="615" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="616" max="617" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="618" max="619" width="32.08984375" bestFit="1" customWidth="1"/>
-    <col min="620" max="621" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="622" max="623" width="16.7265625" bestFit="1" customWidth="1"/>
-    <col min="624" max="625" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="626" max="626" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="627" max="627" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="628" max="629" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="630" max="631" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="632" max="633" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="634" max="634" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="635" max="635" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="636" max="637" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="638" max="639" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="614" max="615" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="616" max="617" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="618" max="619" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="620" max="621" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="622" max="623" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="624" max="625" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="626" max="626" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="627" max="627" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="628" max="629" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="630" max="631" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="632" max="633" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="634" max="634" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="635" max="635" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="636" max="637" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="638" max="639" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="640" max="641" width="29" bestFit="1" customWidth="1"/>
     <col min="642" max="643" width="33" bestFit="1" customWidth="1"/>
-    <col min="644" max="645" width="36.26953125" bestFit="1" customWidth="1"/>
-    <col min="646" max="647" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="648" max="649" width="27.54296875" bestFit="1" customWidth="1"/>
-    <col min="650" max="651" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="652" max="653" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="654" max="655" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="656" max="657" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="658" max="659" width="33.453125" bestFit="1" customWidth="1"/>
-    <col min="660" max="661" width="27.1796875" bestFit="1" customWidth="1"/>
-    <col min="662" max="663" width="27.54296875" bestFit="1" customWidth="1"/>
-    <col min="664" max="665" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="666" max="667" width="39.26953125" bestFit="1" customWidth="1"/>
-    <col min="668" max="669" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="670" max="671" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="672" max="673" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="674" max="675" width="30.08984375" bestFit="1" customWidth="1"/>
+    <col min="644" max="645" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="646" max="647" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="648" max="649" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="650" max="651" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="652" max="653" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="654" max="655" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="656" max="657" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="658" max="659" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="660" max="661" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="662" max="663" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="664" max="665" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="666" max="667" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="668" max="669" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="670" max="671" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="672" max="673" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="674" max="675" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="676" max="677" width="30" bestFit="1" customWidth="1"/>
-    <col min="678" max="679" width="28.36328125" bestFit="1" customWidth="1"/>
-    <col min="680" max="681" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="682" max="683" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="684" max="685" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="686" max="687" width="18.90625" bestFit="1" customWidth="1"/>
-    <col min="688" max="689" width="29.90625" bestFit="1" customWidth="1"/>
-    <col min="690" max="691" width="30.90625" bestFit="1" customWidth="1"/>
-    <col min="692" max="693" width="22.90625" bestFit="1" customWidth="1"/>
-    <col min="694" max="695" width="18.81640625" bestFit="1" customWidth="1"/>
-    <col min="696" max="697" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="678" max="679" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="680" max="681" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="682" max="683" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="684" max="685" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="686" max="687" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="688" max="689" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="690" max="691" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="692" max="693" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="694" max="695" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="696" max="697" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="698" max="699" width="17" bestFit="1" customWidth="1"/>
-    <col min="700" max="701" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="702" max="703" width="30.26953125" bestFit="1" customWidth="1"/>
-    <col min="704" max="705" width="21.26953125" bestFit="1" customWidth="1"/>
-    <col min="706" max="707" width="26.90625" bestFit="1" customWidth="1"/>
-    <col min="708" max="708" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="709" max="709" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="710" max="711" width="39.08984375" bestFit="1" customWidth="1"/>
-    <col min="712" max="713" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="700" max="701" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="702" max="703" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="704" max="705" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="706" max="707" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="708" max="708" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="709" max="709" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="710" max="711" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="712" max="713" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="714" max="715" width="22" bestFit="1" customWidth="1"/>
-    <col min="716" max="717" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="718" max="719" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="720" max="721" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="722" max="723" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="724" max="725" width="28.26953125" bestFit="1" customWidth="1"/>
-    <col min="726" max="727" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="716" max="717" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="718" max="719" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="720" max="721" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="722" max="723" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="724" max="725" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="726" max="727" width="34.140625" bestFit="1" customWidth="1"/>
     <col min="728" max="729" width="23" bestFit="1" customWidth="1"/>
-    <col min="730" max="731" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="732" max="732" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="733" max="733" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="734" max="735" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="736" max="737" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="730" max="731" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="732" max="732" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="733" max="733" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="734" max="735" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="736" max="737" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="738" max="739" width="16" bestFit="1" customWidth="1"/>
-    <col min="740" max="741" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="742" max="743" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="744" max="745" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="746" max="747" width="35.36328125" bestFit="1" customWidth="1"/>
-    <col min="748" max="749" width="19.08984375" bestFit="1" customWidth="1"/>
-    <col min="750" max="751" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="752" max="753" width="29.54296875" bestFit="1" customWidth="1"/>
-    <col min="754" max="755" width="37.08984375" bestFit="1" customWidth="1"/>
-    <col min="756" max="757" width="34.54296875" bestFit="1" customWidth="1"/>
-    <col min="758" max="759" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="760" max="761" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="762" max="763" width="32.453125" bestFit="1" customWidth="1"/>
-    <col min="764" max="765" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="766" max="767" width="31.08984375" bestFit="1" customWidth="1"/>
-    <col min="768" max="769" width="32.6328125" bestFit="1" customWidth="1"/>
-    <col min="770" max="771" width="23.54296875" bestFit="1" customWidth="1"/>
-    <col min="772" max="773" width="34.36328125" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="776" max="777" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="778" max="779" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="780" max="781" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="782" max="783" width="28.54296875" bestFit="1" customWidth="1"/>
-    <col min="784" max="785" width="30.08984375" bestFit="1" customWidth="1"/>
-    <col min="786" max="787" width="28.08984375" bestFit="1" customWidth="1"/>
-    <col min="788" max="788" width="12.36328125" bestFit="1" customWidth="1"/>
-    <col min="789" max="789" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="790" max="790" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="791" max="791" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="792" max="793" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="794" max="795" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="796" max="797" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="798" max="799" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="800" max="801" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="802" max="803" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="804" max="805" width="35.453125" bestFit="1" customWidth="1"/>
-    <col min="806" max="807" width="30.26953125" bestFit="1" customWidth="1"/>
-    <col min="808" max="809" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="810" max="811" width="23.90625" bestFit="1" customWidth="1"/>
-    <col min="812" max="813" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="814" max="815" width="34.08984375" bestFit="1" customWidth="1"/>
-    <col min="816" max="817" width="34.54296875" bestFit="1" customWidth="1"/>
-    <col min="818" max="819" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="820" max="821" width="24.08984375" bestFit="1" customWidth="1"/>
-    <col min="822" max="823" width="39.08984375" bestFit="1" customWidth="1"/>
-    <col min="824" max="825" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="826" max="827" width="29.08984375" bestFit="1" customWidth="1"/>
-    <col min="828" max="829" width="28.26953125" bestFit="1" customWidth="1"/>
-    <col min="830" max="831" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="832" max="833" width="18.36328125" bestFit="1" customWidth="1"/>
-    <col min="834" max="835" width="30.54296875" bestFit="1" customWidth="1"/>
+    <col min="740" max="741" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="742" max="743" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="744" max="745" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="746" max="747" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="748" max="749" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="750" max="751" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="752" max="753" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="754" max="755" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="756" max="757" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="758" max="759" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="760" max="761" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="762" max="763" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="764" max="765" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="766" max="767" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="768" max="769" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="770" max="771" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="772" max="773" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="776" max="777" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="778" max="779" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="780" max="781" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="782" max="783" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="784" max="785" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="786" max="787" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="788" max="789" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="790" max="790" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="791" max="791" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="792" max="793" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="794" max="795" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="796" max="797" width="30.42578125" bestFit="1" customWidth="1"/>
+    <col min="798" max="799" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="800" max="801" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="802" max="803" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="804" max="805" width="35.42578125" bestFit="1" customWidth="1"/>
+    <col min="806" max="807" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="808" max="809" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="810" max="811" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="812" max="813" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="814" max="815" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="816" max="817" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="818" max="819" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="820" max="821" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="822" max="823" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="824" max="825" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="826" max="827" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="828" max="829" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="830" max="831" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="832" max="833" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="834" max="835" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="836" max="837" width="32" bestFit="1" customWidth="1"/>
-    <col min="838" max="839" width="28.7265625" bestFit="1" customWidth="1"/>
-    <col min="840" max="841" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="842" max="843" width="31.26953125" bestFit="1" customWidth="1"/>
-    <col min="844" max="845" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="846" max="847" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="848" max="849" width="37.6328125" bestFit="1" customWidth="1"/>
-    <col min="850" max="851" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="852" max="853" width="26.08984375" bestFit="1" customWidth="1"/>
-    <col min="854" max="855" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="856" max="857" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="858" max="859" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="860" max="861" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="862" max="863" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="864" max="865" width="23.6328125" bestFit="1" customWidth="1"/>
-    <col min="866" max="867" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="868" max="869" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="870" max="871" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="872" max="873" width="24.08984375" bestFit="1" customWidth="1"/>
-    <col min="874" max="875" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="876" max="877" width="33.08984375" bestFit="1" customWidth="1"/>
-    <col min="878" max="879" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="880" max="881" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="882" max="883" width="22.7265625" bestFit="1" customWidth="1"/>
-    <col min="884" max="885" width="24.26953125" bestFit="1" customWidth="1"/>
-    <col min="886" max="887" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="888" max="889" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="890" max="891" width="32.6328125" bestFit="1" customWidth="1"/>
-    <col min="892" max="893" width="17.6328125" bestFit="1" customWidth="1"/>
-    <col min="894" max="895" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="896" max="897" width="31.7265625" bestFit="1" customWidth="1"/>
-    <col min="898" max="899" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="900" max="901" width="39.453125" bestFit="1" customWidth="1"/>
-    <col min="902" max="903" width="37.1796875" bestFit="1" customWidth="1"/>
-    <col min="904" max="905" width="23.453125" bestFit="1" customWidth="1"/>
-    <col min="906" max="907" width="27.6328125" bestFit="1" customWidth="1"/>
+    <col min="838" max="839" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="840" max="841" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="842" max="843" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="844" max="845" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="846" max="847" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="848" max="849" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="850" max="851" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="852" max="853" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="854" max="855" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="856" max="857" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="858" max="859" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="860" max="861" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="862" max="863" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="864" max="865" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="866" max="867" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="868" max="869" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="870" max="871" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="872" max="873" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="874" max="875" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="876" max="877" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="878" max="881" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="882" max="883" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="884" max="885" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="886" max="887" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="888" max="889" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="890" max="891" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="892" max="893" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="894" max="895" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="896" max="897" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="898" max="899" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="900" max="901" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="902" max="903" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="904" max="905" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="906" max="907" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="908" max="909" width="26" bestFit="1" customWidth="1"/>
-    <col min="910" max="911" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="912" max="913" width="32.6328125" bestFit="1" customWidth="1"/>
-    <col min="914" max="915" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="916" max="917" width="17.36328125" bestFit="1" customWidth="1"/>
-    <col min="918" max="919" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="920" max="921" width="24.81640625" bestFit="1" customWidth="1"/>
-    <col min="922" max="923" width="37.81640625" bestFit="1" customWidth="1"/>
-    <col min="924" max="925" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="926" max="927" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="928" max="929" width="32.08984375" bestFit="1" customWidth="1"/>
-    <col min="930" max="931" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="932" max="933" width="27.90625" bestFit="1" customWidth="1"/>
-    <col min="934" max="935" width="34.54296875" bestFit="1" customWidth="1"/>
-    <col min="936" max="937" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="938" max="939" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="940" max="941" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="942" max="943" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="944" max="945" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="946" max="947" width="40.26953125" bestFit="1" customWidth="1"/>
-    <col min="948" max="949" width="29.54296875" bestFit="1" customWidth="1"/>
-    <col min="950" max="950" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="951" max="951" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="952" max="953" width="26.81640625" bestFit="1" customWidth="1"/>
-    <col min="954" max="955" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="956" max="957" width="35.26953125" bestFit="1" customWidth="1"/>
-    <col min="958" max="959" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="960" max="961" width="26.453125" bestFit="1" customWidth="1"/>
-    <col min="962" max="963" width="37.453125" bestFit="1" customWidth="1"/>
-    <col min="964" max="965" width="34.90625" bestFit="1" customWidth="1"/>
-    <col min="966" max="967" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="968" max="969" width="29.81640625" bestFit="1" customWidth="1"/>
-    <col min="970" max="971" width="17.26953125" bestFit="1" customWidth="1"/>
-    <col min="972" max="973" width="26.54296875" bestFit="1" customWidth="1"/>
-    <col min="974" max="975" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="976" max="977" width="42.54296875" bestFit="1" customWidth="1"/>
-    <col min="978" max="979" width="20.36328125" bestFit="1" customWidth="1"/>
-    <col min="980" max="981" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="982" max="983" width="37.1796875" bestFit="1" customWidth="1"/>
-    <col min="984" max="985" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="986" max="987" width="20.08984375" bestFit="1" customWidth="1"/>
-    <col min="988" max="989" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="990" max="991" width="34.54296875" bestFit="1" customWidth="1"/>
-    <col min="992" max="993" width="29.6328125" bestFit="1" customWidth="1"/>
-    <col min="994" max="995" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="996" max="997" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="998" max="999" width="28.6328125" bestFit="1" customWidth="1"/>
-    <col min="1000" max="1001" width="25.7265625" bestFit="1" customWidth="1"/>
-    <col min="1002" max="1003" width="32.1796875" bestFit="1" customWidth="1"/>
-    <col min="1004" max="1005" width="20.6328125" bestFit="1" customWidth="1"/>
-    <col min="1006" max="1007" width="27.54296875" bestFit="1" customWidth="1"/>
-    <col min="1008" max="1009" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="910" max="911" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="912" max="913" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="914" max="915" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="916" max="917" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="918" max="919" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="920" max="921" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="922" max="923" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="924" max="925" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="926" max="927" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="928" max="929" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="930" max="931" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="932" max="933" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="934" max="935" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="936" max="937" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="938" max="939" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="940" max="941" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="942" max="943" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="944" max="945" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="946" max="947" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="948" max="949" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="950" max="950" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="951" max="951" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="952" max="953" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="954" max="955" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="956" max="957" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="958" max="959" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="960" max="961" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="962" max="963" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="964" max="965" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="966" max="967" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="968" max="969" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="970" max="971" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="972" max="973" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="974" max="975" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="976" max="977" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="978" max="979" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="980" max="981" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="982" max="983" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="984" max="985" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="986" max="987" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="988" max="989" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="990" max="991" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="992" max="993" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="994" max="995" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="996" max="997" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="998" max="999" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="1000" max="1001" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="1002" max="1003" width="32.140625" bestFit="1" customWidth="1"/>
+    <col min="1004" max="1005" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1006" max="1007" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1008" max="1009" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="1010" max="1011" width="20" bestFit="1" customWidth="1"/>
-    <col min="1012" max="1013" width="27.6328125" bestFit="1" customWidth="1"/>
-    <col min="1014" max="1015" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="1016" max="1017" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="1018" max="1019" width="34.36328125" bestFit="1" customWidth="1"/>
-    <col min="1020" max="1021" width="22.54296875" bestFit="1" customWidth="1"/>
-    <col min="1022" max="1023" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="1012" max="1013" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="1014" max="1015" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="1016" max="1017" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1018" max="1019" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="1020" max="1021" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1022" max="1023" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="1024" max="1025" width="27" bestFit="1" customWidth="1"/>
-    <col min="1026" max="1027" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="1028" max="1029" width="24.54296875" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1031" width="25.36328125" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1027" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1029" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1031" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="1032" max="1033" width="18" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1035" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="1036" max="1037" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="1038" max="1039" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="1040" max="1041" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="1042" max="1043" width="30.08984375" bestFit="1" customWidth="1"/>
-    <col min="1044" max="1045" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="1046" max="1047" width="33.08984375" bestFit="1" customWidth="1"/>
-    <col min="1048" max="1049" width="36.453125" bestFit="1" customWidth="1"/>
-    <col min="1050" max="1051" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1035" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1037" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1038" max="1039" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1040" max="1041" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="1042" max="1043" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1044" max="1045" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="1046" max="1047" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="1048" max="1049" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="1050" max="1051" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="1052" max="1053" width="23" bestFit="1" customWidth="1"/>
-    <col min="1054" max="1055" width="22.90625" bestFit="1" customWidth="1"/>
-    <col min="1056" max="1057" width="23.36328125" bestFit="1" customWidth="1"/>
-    <col min="1058" max="1059" width="21.08984375" bestFit="1" customWidth="1"/>
-    <col min="1060" max="1061" width="41.36328125" bestFit="1" customWidth="1"/>
-    <col min="1062" max="1063" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="1064" max="1065" width="28.81640625" bestFit="1" customWidth="1"/>
-    <col min="1066" max="1067" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="1068" max="1069" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="1070" max="1071" width="37.90625" bestFit="1" customWidth="1"/>
+    <col min="1054" max="1055" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1056" max="1057" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1058" max="1059" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1060" max="1061" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="1062" max="1063" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1064" max="1065" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="1066" max="1067" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="1068" max="1069" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="1070" max="1071" width="37.85546875" bestFit="1" customWidth="1"/>
     <col min="1072" max="1073" width="24" bestFit="1" customWidth="1"/>
-    <col min="1074" max="1075" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="1074" max="1075" width="22.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1075" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1075">
       <c r="A1" t="s">
         <v>550</v>
       </c>
@@ -6344,7 +6446,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="2" spans="1:1075" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1075">
       <c r="A2" t="s">
         <v>551</v>
       </c>
@@ -9571,7 +9673,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="3" spans="1:1075" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1075">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -12798,7 +12900,7 @@
         <v>-0.50546538721438505</v>
       </c>
     </row>
-    <row r="4" spans="1:1075" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1075">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -16025,7 +16127,7 @@
         <v>-0.289929417069623</v>
       </c>
     </row>
-    <row r="5" spans="1:1075" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:1075">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -19252,7 +19354,7 @@
         <v>1.95115435301996</v>
       </c>
     </row>
-    <row r="6" spans="1:1075" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:1075">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -22479,7 +22581,7 @@
         <v>0.375907311729611</v>
       </c>
     </row>
-    <row r="7" spans="1:1075" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:1075">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -25706,7 +25808,7 @@
         <v>-0.75831096044082702</v>
       </c>
     </row>
-    <row r="8" spans="1:1075" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:1075">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -28933,7 +29035,7 @@
         <v>-0.75831096044082702</v>
       </c>
     </row>
-    <row r="9" spans="1:1075" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:1075">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -32160,7 +32262,7 @@
         <v>-0.75831096044082702</v>
       </c>
     </row>
-    <row r="10" spans="1:1075" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1075">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -35387,7 +35489,7 @@
         <v>-0.75831096044082702</v>
       </c>
     </row>
-    <row r="11" spans="1:1075" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1075">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -38614,7 +38716,7 @@
         <v>-0.75831096044082702</v>
       </c>
     </row>
-    <row r="12" spans="1:1075" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1075">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -41841,7 +41943,7 @@
         <v>0.95422891765020401</v>
       </c>
     </row>
-    <row r="13" spans="1:1075" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1075">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -45068,7 +45170,7 @@
         <v>1.8697825120278699</v>
       </c>
     </row>
-    <row r="14" spans="1:1075" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1075">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -48295,7 +48397,7 @@
         <v>-0.650301727617833</v>
       </c>
     </row>
-    <row r="15" spans="1:1075" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1075">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -51528,7 +51630,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -51538,18 +51640,18 @@
       <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="24.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>550</v>
       </c>
@@ -51578,7 +51680,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>551</v>
       </c>
@@ -51607,7 +51709,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -51636,7 +51738,7 @@
         <v>-1.06309691893796</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -51665,7 +51767,7 @@
         <v>-0.72317968880037697</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -51694,7 +51796,7 @@
         <v>2.11328667232877</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -51723,7 +51825,7 @@
         <v>0.700759640057529</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -51752,7 +51854,7 @@
         <v>0.914707585432042</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -51781,7 +51883,7 @@
         <v>-1.06309691893796</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -51810,7 +51912,7 @@
         <v>3.8160323125591498E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -51839,7 +51941,7 @@
         <v>-1.0038716432205199</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -51868,7 +51970,7 @@
         <v>-0.80200111311260902</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -51897,7 +51999,7 @@
         <v>0.71238420353995702</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -51926,7 +52028,7 @@
         <v>-0.79062849889293296</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -51955,7 +52057,7 @@
         <v>0.19106690609149901</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -51984,12 +52086,12 @@
         <v>0.77550945132696603</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12">
       <c r="E17" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12">
       <c r="A18" t="s">
         <v>552</v>
       </c>
@@ -52003,7 +52105,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12">
       <c r="B19" t="s">
         <v>553</v>
       </c>
@@ -52023,7 +52125,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -52060,7 +52162,7 @@
         <v>-1.006954640813686</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -52097,7 +52199,7 @@
         <v>-0.66413619954650049</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -52134,7 +52236,7 @@
         <v>2.2499414321982232</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -52171,7 +52273,7 @@
         <v>0.62529199505642363</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -52208,7 +52310,7 @@
         <v>0.52025390135922811</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -52245,7 +52347,7 @@
         <v>-1.006954640813686</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -52282,7 +52384,7 @@
         <v>-0.12903835309752071</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -52319,7 +52421,7 @@
         <v>-0.96786852509825017</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -52356,7 +52458,7 @@
         <v>-0.83261418662225961</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -52393,7 +52495,7 @@
         <v>1.0349954991389538</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -52430,7 +52532,7 @@
         <v>-0.64643328003844047</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -52467,7 +52569,7 @@
         <v>4.1627388318272512E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -52504,7 +52606,7 @@
         <v>0.81935425944568763</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>555</v>
       </c>
@@ -52525,7 +52627,7 @@
         <v>4.5787725566652998E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>556</v>
       </c>
@@ -52553,7 +52655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -52563,15 +52665,15 @@
       <selection pane="bottomRight" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>550</v>
       </c>
@@ -52582,7 +52684,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>551</v>
       </c>
@@ -52593,7 +52695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -52604,7 +52706,7 @@
         <v>1.67865891138622</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -52615,7 +52717,7 @@
         <v>0.318342770386637</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -52626,7 +52728,7 @@
         <v>-1.2721205520484899</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -52637,7 +52739,7 @@
         <v>-0.58346219982232606</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -52648,7 +52750,7 @@
         <v>0.75194369226602997</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -52659,7 +52761,7 @@
         <v>2.0837047852143201E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -52670,7 +52772,7 @@
         <v>0.44377047308142398</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -52681,7 +52783,7 @@
         <v>0.20505568648672901</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -52692,7 +52794,7 @@
         <v>0.33244028642537199</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -52703,7 +52805,7 @@
         <v>-0.987743164297326</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -52714,7 +52816,7 @@
         <v>-1.1524417709066199</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -52725,7 +52827,7 @@
         <v>1.5139396170824799</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -52736,7 +52838,7 @@
         <v>-1.26922079789228</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:22">
       <c r="E20" t="s">
         <v>558</v>
       </c>
@@ -52750,7 +52852,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>550</v>
       </c>
@@ -52791,7 +52893,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
         <v>551</v>
       </c>
@@ -52808,7 +52910,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -52849,15 +52951,15 @@
         <v>0.24375774740457481</v>
       </c>
       <c r="U24">
-        <f>(B24+H24)/B3</f>
+        <f t="shared" ref="U24:U36" si="1">(B24+H24)/B3</f>
         <v>0.65108372290692651</v>
       </c>
       <c r="V24">
-        <f>STANDARDIZE(U24,$U$38,$U$39)</f>
+        <f t="shared" ref="V24:V36" si="2">STANDARDIZE(U24,$U$38,$U$39)</f>
         <v>-1.9079786039820981</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -52872,7 +52974,7 @@
         <v>0.80952380952380831</v>
       </c>
       <c r="F25">
-        <f t="shared" ref="F25:F36" si="1">STANDARDIZE(E25,$E$38,$E$39)</f>
+        <f t="shared" ref="F25:F36" si="3">STANDARDIZE(E25,$E$38,$E$39)</f>
         <v>-0.74439886174433756</v>
       </c>
       <c r="H25">
@@ -52882,31 +52984,31 @@
         <v>-0.61498263991467295</v>
       </c>
       <c r="L25">
-        <f t="shared" ref="L25:L36" si="2">H25/B25</f>
+        <f t="shared" ref="L25:L36" si="4">H25/B25</f>
         <v>1.3218770654329162E-3</v>
       </c>
       <c r="M25">
-        <f t="shared" ref="M25:M36" si="3">STANDARDIZE(L25,$L$38,$L$39)</f>
+        <f t="shared" ref="M25:M36" si="5">STANDARDIZE(L25,$L$38,$L$39)</f>
         <v>-0.55647665007588187</v>
       </c>
       <c r="P25">
-        <f t="shared" ref="P25:P36" si="4">B25+H25</f>
+        <f t="shared" ref="P25:P36" si="6">B25+H25</f>
         <v>3.5138582859793543</v>
       </c>
       <c r="Q25">
-        <f t="shared" ref="Q25:Q36" si="5">STANDARDIZE(P25,$P$38,$P$39)</f>
+        <f t="shared" ref="Q25:Q36" si="7">STANDARDIZE(P25,$P$38,$P$39)</f>
         <v>-0.22037091888914842</v>
       </c>
       <c r="U25">
-        <f>(B25+H25)/B4</f>
+        <f t="shared" si="1"/>
         <v>0.81059390048153979</v>
       </c>
       <c r="V25">
-        <f>STANDARDIZE(U25,$U$38,$U$39)</f>
+        <f t="shared" si="2"/>
         <v>-0.92201226183314622</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -52921,7 +53023,7 @@
         <v>1.1674876847290614</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.2655454518030809</v>
       </c>
       <c r="H26">
@@ -52931,31 +53033,31 @@
         <v>-0.61874450648597101</v>
       </c>
       <c r="L26">
+        <f t="shared" si="4"/>
+        <v>1.406469760900142E-3</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="5"/>
+        <v>-0.55442104552595373</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="6"/>
+        <v>2.9393551583206001</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="7"/>
+        <v>-1.0472447338498765</v>
+      </c>
+      <c r="U26">
+        <f t="shared" si="1"/>
+        <v>1.1691297208538562</v>
+      </c>
+      <c r="V26">
         <f t="shared" si="2"/>
-        <v>1.406469760900142E-3</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="3"/>
-        <v>-0.55442104552595373</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="4"/>
-        <v>2.9393551583206001</v>
-      </c>
-      <c r="Q26">
-        <f t="shared" si="5"/>
-        <v>-1.0472447338498765</v>
-      </c>
-      <c r="U26">
-        <f>(B26+H26)/B5</f>
-        <v>1.1691297208538562</v>
-      </c>
-      <c r="V26">
-        <f>STANDARDIZE(U26,$U$38,$U$39)</f>
         <v>1.2941739196191917</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -52970,7 +53072,7 @@
         <v>0.94946550048590794</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.1364801743219395E-2</v>
       </c>
       <c r="H27">
@@ -52980,31 +53082,31 @@
         <v>-0.62551624200883305</v>
       </c>
       <c r="L27">
+        <f t="shared" si="4"/>
+        <v>1.0235414534288652E-3</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="5"/>
+        <v>-0.56372621267764011</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="6"/>
+        <v>3.1388407471596378</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="7"/>
+        <v>-0.76012809003762616</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="1"/>
+        <v>0.950437317784256</v>
+      </c>
+      <c r="V27">
         <f t="shared" si="2"/>
-        <v>1.0235414534288652E-3</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="3"/>
-        <v>-0.56372621267764011</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="4"/>
-        <v>3.1388407471596378</v>
-      </c>
-      <c r="Q27">
-        <f t="shared" si="5"/>
-        <v>-0.76012809003762616</v>
-      </c>
-      <c r="U27">
-        <f>(B27+H27)/B6</f>
-        <v>0.950437317784256</v>
-      </c>
-      <c r="V27">
-        <f>STANDARDIZE(U27,$U$38,$U$39)</f>
         <v>-5.7610348876383978E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -53019,7 +53121,7 @@
         <v>0.98324022346368678</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.23100771571575676</v>
       </c>
       <c r="H28">
@@ -53029,31 +53131,31 @@
         <v>0.34539520517323902</v>
       </c>
       <c r="L28">
+        <f t="shared" si="4"/>
+        <v>2.8409090909090929E-2</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="5"/>
+        <v>0.10174330277421514</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="6"/>
+        <v>4.8852901484480435</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="7"/>
+        <v>1.7535105823300412</v>
+      </c>
+      <c r="U28">
+        <f t="shared" si="1"/>
+        <v>1.0111731843575416</v>
+      </c>
+      <c r="V28">
         <f t="shared" si="2"/>
-        <v>2.8409090909090929E-2</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="3"/>
-        <v>0.10174330277421514</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="4"/>
-        <v>4.8852901484480435</v>
-      </c>
-      <c r="Q28">
-        <f t="shared" si="5"/>
-        <v>1.7535105823300412</v>
-      </c>
-      <c r="U28">
-        <f>(B28+H28)/B7</f>
-        <v>1.0111731843575416</v>
-      </c>
-      <c r="V28">
-        <f>STANDARDIZE(U28,$U$38,$U$39)</f>
         <v>0.31781096350036231</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -53068,7 +53170,7 @@
         <v>0.96129032258064451</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.10776042312930961</v>
       </c>
       <c r="H29">
@@ -53078,31 +53180,31 @@
         <v>0.77520686381026305</v>
       </c>
       <c r="L29">
+        <f t="shared" si="4"/>
+        <v>5.0335570469798571E-2</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="5"/>
+        <v>0.63455728748001761</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="6"/>
+        <v>4.0329854400206164</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="7"/>
+        <v>0.52680108008867643</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="1"/>
+        <v>1.0096774193548381</v>
+      </c>
+      <c r="V29">
         <f t="shared" si="2"/>
-        <v>5.0335570469798571E-2</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="3"/>
-        <v>0.63455728748001761</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="4"/>
-        <v>4.0329854400206164</v>
-      </c>
-      <c r="Q29">
-        <f t="shared" si="5"/>
-        <v>0.52680108008867643</v>
-      </c>
-      <c r="U29">
-        <f>(B29+H29)/B8</f>
-        <v>1.0096774193548381</v>
-      </c>
-      <c r="V29">
-        <f>STANDARDIZE(U29,$U$38,$U$39)</f>
         <v>0.30856532180618218</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -53117,7 +53219,7 @@
         <v>1.0033557046979886</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.34395485904962547</v>
       </c>
       <c r="H30">
@@ -53127,31 +53229,31 @@
         <v>-0.20614399672971501</v>
       </c>
       <c r="L30">
+        <f t="shared" si="4"/>
+        <v>1.3377926421404665E-2</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="5"/>
+        <v>-0.26351435855160499</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="6"/>
+        <v>4.5536519386835028</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="7"/>
+        <v>1.2761886349069176</v>
+      </c>
+      <c r="U30">
+        <f t="shared" si="1"/>
+        <v>1.0167785234899349</v>
+      </c>
+      <c r="V30">
         <f t="shared" si="2"/>
-        <v>1.3377926421404665E-2</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="3"/>
-        <v>-0.26351435855160499</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="4"/>
-        <v>4.5536519386835028</v>
-      </c>
-      <c r="Q30">
-        <f t="shared" si="5"/>
-        <v>1.2761886349069176</v>
-      </c>
-      <c r="U30">
-        <f>(B30+H30)/B9</f>
-        <v>1.0167785234899349</v>
-      </c>
-      <c r="V30">
-        <f>STANDARDIZE(U30,$U$38,$U$39)</f>
         <v>0.35245875717036229</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -53166,7 +53268,7 @@
         <v>0.98923697866615456</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.26467911345672956</v>
       </c>
       <c r="H31">
@@ -53176,31 +53278,31 @@
         <v>-0.31560851793121603</v>
       </c>
       <c r="L31">
+        <f t="shared" si="4"/>
+        <v>1.088012434427822E-2</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="5"/>
+        <v>-0.32421100955914228</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="6"/>
+        <v>4.2052260218060722</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="7"/>
+        <v>0.77470439008874148</v>
+      </c>
+      <c r="U31">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000004</v>
+      </c>
+      <c r="V31">
         <f t="shared" si="2"/>
-        <v>1.088012434427822E-2</v>
-      </c>
-      <c r="M31">
-        <f t="shared" si="3"/>
-        <v>-0.32421100955914228</v>
-      </c>
-      <c r="P31">
-        <f t="shared" si="4"/>
-        <v>4.2052260218060722</v>
-      </c>
-      <c r="Q31">
-        <f t="shared" si="5"/>
-        <v>0.77470439008874148</v>
-      </c>
-      <c r="U31">
-        <f>(B31+H31)/B10</f>
-        <v>1.0000000000000004</v>
-      </c>
-      <c r="V31">
-        <f>STANDARDIZE(U31,$U$38,$U$39)</f>
         <v>0.24874713397758708</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -53215,7 +53317,7 @@
         <v>0.96630790828264002</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.13593384661702893</v>
       </c>
       <c r="H32">
@@ -53225,31 +53327,31 @@
         <v>-0.386578278460462</v>
       </c>
       <c r="L32">
+        <f t="shared" si="4"/>
+        <v>8.4745762711864406E-3</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="5"/>
+        <v>-0.38266588603289348</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="6"/>
+        <v>4.2400920298486229</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="7"/>
+        <v>0.82488651738208452</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="1"/>
+        <v>0.9744969583528319</v>
+      </c>
+      <c r="V32">
         <f t="shared" si="2"/>
-        <v>8.4745762711864406E-3</v>
-      </c>
-      <c r="M32">
-        <f t="shared" si="3"/>
-        <v>-0.38266588603289348</v>
-      </c>
-      <c r="P32">
-        <f t="shared" si="4"/>
-        <v>4.2400920298486229</v>
-      </c>
-      <c r="Q32">
-        <f t="shared" si="5"/>
-        <v>0.82488651738208452</v>
-      </c>
-      <c r="U32">
-        <f>(B32+H32)/B11</f>
-        <v>0.9744969583528319</v>
-      </c>
-      <c r="V32">
-        <f>STANDARDIZE(U32,$U$38,$U$39)</f>
         <v>9.1107407980986405E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:22">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -53264,7 +53366,7 @@
         <v>1.0255972696245745</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.4688398266261834</v>
       </c>
       <c r="H33">
@@ -53274,31 +53376,31 @@
         <v>-0.61345604978430801</v>
       </c>
       <c r="L33">
+        <f t="shared" si="4"/>
+        <v>1.6638935108153059E-3</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="5"/>
+        <v>-0.54816564216444019</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="6"/>
+        <v>2.9172320217096384</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="7"/>
+        <v>-1.0790862356410889</v>
+      </c>
+      <c r="U33">
+        <f t="shared" si="1"/>
+        <v>1.0273037542662127</v>
+      </c>
+      <c r="V33">
         <f t="shared" si="2"/>
-        <v>1.6638935108153059E-3</v>
-      </c>
-      <c r="M33">
-        <f t="shared" si="3"/>
-        <v>-0.54816564216444019</v>
-      </c>
-      <c r="P33">
-        <f t="shared" si="4"/>
-        <v>2.9172320217096384</v>
-      </c>
-      <c r="Q33">
-        <f t="shared" si="5"/>
-        <v>-1.0790862356410889</v>
-      </c>
-      <c r="U33">
-        <f>(B33+H33)/B12</f>
-        <v>1.0273037542662127</v>
-      </c>
-      <c r="V33">
-        <f>STANDARDIZE(U33,$U$38,$U$39)</f>
         <v>0.41751744776022082</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:22">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -53313,7 +53415,7 @@
         <v>1.1122019635343623</v>
       </c>
       <c r="F34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.95511965570302026</v>
       </c>
       <c r="H34">
@@ -53323,31 +53425,31 @@
         <v>-0.64916898167290005</v>
       </c>
       <c r="L34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="5"/>
+        <v>-0.58859829480113268</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="6"/>
+        <v>2.9486130735480001</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="7"/>
+        <v>-1.0339199540286423</v>
+      </c>
+      <c r="U34">
+        <f t="shared" si="1"/>
+        <v>1.1122019635343623</v>
+      </c>
+      <c r="V34">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="3"/>
-        <v>-0.58859829480113268</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="4"/>
-        <v>2.9486130735480001</v>
-      </c>
-      <c r="Q34">
-        <f t="shared" si="5"/>
-        <v>-1.0339199540286423</v>
-      </c>
-      <c r="U34">
-        <f>(B34+H34)/B13</f>
-        <v>1.1122019635343623</v>
-      </c>
-      <c r="V34">
-        <f>STANDARDIZE(U34,$U$38,$U$39)</f>
         <v>0.94229134068601006</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:22">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -53362,7 +53464,7 @@
         <v>0.56564141035258697</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2.1137829681920279</v>
       </c>
       <c r="H35">
@@ -53372,31 +53474,31 @@
         <v>2.86682883457408</v>
       </c>
       <c r="L35">
+        <f t="shared" si="4"/>
+        <v>0.14787798408488073</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="5"/>
+        <v>3.0048403022329855</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="6"/>
+        <v>3.703307517864014</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="7"/>
+        <v>5.2300545491278987E-2</v>
+      </c>
+      <c r="U35">
+        <f t="shared" si="1"/>
+        <v>0.64928732183045634</v>
+      </c>
+      <c r="V35">
         <f t="shared" si="2"/>
-        <v>0.14787798408488073</v>
-      </c>
-      <c r="M35">
-        <f t="shared" si="3"/>
-        <v>3.0048403022329855</v>
-      </c>
-      <c r="P35">
-        <f t="shared" si="4"/>
-        <v>3.703307517864014</v>
-      </c>
-      <c r="Q35">
-        <f t="shared" si="5"/>
-        <v>5.2300545491278987E-2</v>
-      </c>
-      <c r="U35">
-        <f>(B35+H35)/B14</f>
-        <v>0.64928732183045634</v>
-      </c>
-      <c r="V35">
-        <f>STANDARDIZE(U35,$U$38,$U$39)</f>
         <v>-1.9190825412062369</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -53411,7 +53513,7 @@
         <v>1.093023255813955</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.84743243586353922</v>
       </c>
       <c r="H36">
@@ -53421,31 +53523,31 @@
         <v>-0.61835009393597895</v>
       </c>
       <c r="L36">
+        <f t="shared" si="4"/>
+        <v>1.5197568389057727E-3</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="5"/>
+        <v>-0.55166816678494401</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="6"/>
+        <v>2.7558231924058076</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="7"/>
+        <v>-1.3113995652459354</v>
+      </c>
+      <c r="U36">
+        <f t="shared" si="1"/>
+        <v>1.0946843853820611</v>
+      </c>
+      <c r="V36">
         <f t="shared" si="2"/>
-        <v>1.5197568389057727E-3</v>
-      </c>
-      <c r="M36">
-        <f t="shared" si="3"/>
-        <v>-0.55166816678494401</v>
-      </c>
-      <c r="P36">
-        <f t="shared" si="4"/>
-        <v>2.7558231924058076</v>
-      </c>
-      <c r="Q36">
-        <f t="shared" si="5"/>
-        <v>-1.3113995652459354</v>
-      </c>
-      <c r="U36">
-        <f>(B36+H36)/B15</f>
-        <v>1.0946843853820611</v>
-      </c>
-      <c r="V36">
-        <f>STANDARDIZE(U36,$U$38,$U$39)</f>
         <v>0.83401146339696586</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:22">
       <c r="B38">
         <f>AVERAGE(B24:B36)</f>
         <v>3.5788836865084619</v>
@@ -53471,7 +53573,7 @@
         <v>0.95975755173806288</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:22">
       <c r="B39">
         <f>_xlfn.STDEV.S(B24:B36)</f>
         <v>0.6632027787867012</v>
@@ -53497,13 +53599,13 @@
         <v>0.16178055046681883</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:22">
       <c r="E41" s="1" t="s">
         <v>560</v>
       </c>
       <c r="F41" s="1"/>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:22">
       <c r="A42" t="s">
         <v>550</v>
       </c>
@@ -53514,7 +53616,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:22">
       <c r="A43" t="s">
         <v>551</v>
       </c>
@@ -53525,7 +53627,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:22">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -53544,7 +53646,7 @@
         <v>1.751339001380636</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:22">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -53555,15 +53657,15 @@
         <v>-0.91290579332641897</v>
       </c>
       <c r="E45">
-        <f t="shared" ref="E45:E56" si="6">B45/B25</f>
+        <f t="shared" ref="E45:E56" si="8">B45/B25</f>
         <v>1.9828155981493727E-3</v>
       </c>
       <c r="F45">
-        <f t="shared" ref="F45:F56" si="7">STANDARDIZE(E45,$E$58,$E$59)</f>
+        <f t="shared" ref="F45:F56" si="9">STANDARDIZE(E45,$E$58,$E$59)</f>
         <v>-0.89366995376574232</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:22">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -53574,15 +53676,15 @@
         <v>-0.88392758390440895</v>
       </c>
       <c r="E46">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.8129395218002839E-3</v>
       </c>
       <c r="F46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.82698203412858595</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:22">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -53593,15 +53695,15 @@
         <v>-0.85331465645855398</v>
       </c>
       <c r="E47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.0706243602865923E-3</v>
       </c>
       <c r="F47">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.80628094925307636</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:22">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -53612,15 +53714,15 @@
         <v>1.3412039641850899</v>
       </c>
       <c r="E48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.27272727272727E-2</v>
       </c>
       <c r="F48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.77283386636168427</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -53631,15 +53733,15 @@
         <v>8.2022876274273099E-2</v>
       </c>
       <c r="E49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3422818791946295E-2</v>
       </c>
       <c r="F49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.5361520813907069E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -53650,15 +53752,15 @@
         <v>-0.397405606586618</v>
       </c>
       <c r="E50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.6889632107023323E-3</v>
       </c>
       <c r="F50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.51560207155577686</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -53669,15 +53771,15 @@
         <v>-0.50903413855223001</v>
       </c>
       <c r="E51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.0229259762968725E-3</v>
       </c>
       <c r="F51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.56910810396602163</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -53688,15 +53790,15 @@
         <v>-0.136696140479</v>
       </c>
       <c r="E52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.9273607748183931E-3</v>
       </c>
       <c r="F52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-0.2554457378374001</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -53707,15 +53809,15 @@
         <v>-0.20302227817002999</v>
       </c>
       <c r="E53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.3311148086522433E-2</v>
       </c>
       <c r="F53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1.6390466231624354E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -53726,15 +53828,15 @@
         <v>1.0567563018254801E-2</v>
       </c>
       <c r="E54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.6393442622950852E-2</v>
       </c>
       <c r="F54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.26400627934945514</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -53745,15 +53847,15 @@
         <v>1.7487706196269399</v>
       </c>
       <c r="E55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.9124668435013422E-2</v>
       </c>
       <c r="F55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.0901169563456259</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -53764,15 +53866,15 @@
         <v>-1.0681906174904201</v>
       </c>
       <c r="E56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>-1.0529592399763292</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6">
       <c r="B58">
         <f>AVERAGE(B44:B56)</f>
         <v>4.7864398836094398E-2</v>
@@ -53782,7 +53884,7 @@
         <v>1.3107121357053384E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6">
       <c r="B59">
         <f>_xlfn.STDEV.S(B44:B56)</f>
         <v>4.4808855322607088E-2</v>
@@ -53802,25 +53904,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AF98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B63" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K65" sqref="K65"/>
+      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7265625" customWidth="1"/>
-    <col min="5" max="5" width="13.36328125" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>550</v>
       </c>
@@ -53837,7 +53942,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>551</v>
       </c>
@@ -53848,7 +53953,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -53859,7 +53964,7 @@
         <v>1.67865891138622</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -53870,7 +53975,7 @@
         <v>0.318342770386637</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -53881,7 +53986,7 @@
         <v>-1.2721205520484899</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -53892,7 +53997,7 @@
         <v>-0.58346219982232606</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -53903,7 +54008,7 @@
         <v>0.75194369226602997</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -53914,7 +54019,7 @@
         <v>2.0837047852143201E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -53925,7 +54030,7 @@
         <v>0.44377047308142398</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -53936,7 +54041,7 @@
         <v>0.20505568648672901</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -53947,7 +54052,7 @@
         <v>0.33244028642537199</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -53958,7 +54063,7 @@
         <v>-0.987743164297326</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -53969,7 +54074,7 @@
         <v>-1.1524417709066199</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -53980,7 +54085,7 @@
         <v>1.5139396170824799</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -53991,324 +54096,1064 @@
         <v>-1.26922079789228</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24">
       <c r="B17">
         <f>AVERAGE(B3:B15)</f>
         <v>3.9704761605673937</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" ht="15.75" thickBot="1">
       <c r="B18">
-        <f>_xlfn.STDEV.S(B3:B15)</f>
+        <f>STDEV(B3:B15)</f>
         <v>1.1448102964648721</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E20" t="s">
+    <row r="19" spans="1:24">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="4"/>
+    </row>
+    <row r="20" spans="1:24" ht="15" customHeight="1">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
         <v>563</v>
       </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="M20" s="7"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="T20" s="6"/>
+      <c r="X20" s="8"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="21" spans="1:24">
+      <c r="A21" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="6">
         <v>7</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="6">
         <v>7</v>
       </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6">
+        <v>28</v>
+      </c>
+      <c r="J21" s="6">
+        <v>28</v>
+      </c>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+      <c r="T21" s="6"/>
+      <c r="X21" s="8"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="22" spans="1:24" ht="30">
+      <c r="A22" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E22" t="s">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="6" t="s">
         <v>554</v>
       </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="T22" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="X22" s="8"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23">
+    <row r="23" spans="1:24">
+      <c r="A23" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="6">
         <v>1.4323633996093601</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="6">
         <v>0.24394860989301401</v>
       </c>
-      <c r="E23">
+      <c r="D23" s="6"/>
+      <c r="E23" s="6">
         <f>B23/B3</f>
         <v>0.24309392265193441</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="6">
         <f>STANDARDIZE(E23,$E$37,$E$38)</f>
         <v>-0.96878296439432199</v>
       </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6">
+        <v>0.14023138177993699</v>
+      </c>
+      <c r="J23" s="6">
+        <v>-0.695015725653373</v>
+      </c>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6">
+        <f>I23/B3</f>
+        <v>2.3799405014874639E-2</v>
+      </c>
+      <c r="M23" s="6">
+        <f>STANDARDIZE(L23,$L$37,$L$38)</f>
+        <v>-0.72891619279882403</v>
+      </c>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6">
+        <f>B23+I23</f>
+        <v>1.5725947813892971</v>
+      </c>
+      <c r="Q23" s="6">
+        <f>STANDARDIZE(P23,$P$37,$P$38)</f>
+        <v>-0.37385556631300465</v>
+      </c>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6">
+        <f>P23/B3</f>
+        <v>0.26689332766680907</v>
+      </c>
+      <c r="T23" s="6">
+        <f>STANDARDIZE(S23,$S$37,$S$38)</f>
+        <v>-0.87455943062409036</v>
+      </c>
+      <c r="X23" s="8"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="24" spans="1:24">
+      <c r="A24" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="6">
         <v>1.3058100429085</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="6">
         <v>-0.212636475773854</v>
       </c>
-      <c r="E24">
+      <c r="D24" s="6"/>
+      <c r="E24" s="6">
         <f t="shared" ref="E24:E35" si="0">B24/B4</f>
         <v>0.30123060460139084</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="6">
         <f t="shared" ref="F24:F35" si="1">STANDARDIZE(E24,$E$37,$E$38)</f>
         <v>-0.52185913864462707</v>
       </c>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6">
+        <v>0.43372376203177498</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0.138203132574856</v>
+      </c>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6">
+        <f t="shared" ref="L24:L35" si="2">I24/B4</f>
+        <v>0.1000535045478864</v>
+      </c>
+      <c r="M24" s="6">
+        <f t="shared" ref="M24:M35" si="3">STANDARDIZE(L24,$L$37,$L$38)</f>
+        <v>-0.19383788928152798</v>
+      </c>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6">
+        <f>B24+I24</f>
+        <v>1.7395338049402751</v>
+      </c>
+      <c r="Q24" s="6">
+        <f>STANDARDIZE(P24,$P$37,$P$38)</f>
+        <v>-2.163997519815887E-2</v>
+      </c>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6">
+        <f>P24/B4</f>
+        <v>0.40128410914927726</v>
+      </c>
+      <c r="T24" s="6">
+        <f>STANDARDIZE(S24,$S$37,$S$38)</f>
+        <v>-0.36332321221738823</v>
+      </c>
+      <c r="X24" s="8"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="25" spans="1:24">
+      <c r="A25" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="6">
         <v>1.4614209635470401</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="6">
         <v>0.348783840388876</v>
       </c>
-      <c r="E25">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
         <f t="shared" si="0"/>
         <v>0.58128078817733875</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="6">
         <f t="shared" si="1"/>
         <v>1.6310174144837588</v>
       </c>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6">
+        <v>0.92886925649176399</v>
+      </c>
+      <c r="J25" s="6">
+        <v>1.5439110531579801</v>
+      </c>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6">
+        <f t="shared" si="2"/>
+        <v>0.36945812807881745</v>
+      </c>
+      <c r="M25" s="6">
+        <f t="shared" si="3"/>
+        <v>1.6965859672908019</v>
+      </c>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6">
+        <f>B25+I25</f>
+        <v>2.3902902200388043</v>
+      </c>
+      <c r="Q25" s="6">
+        <f>STANDARDIZE(P25,$P$37,$P$38)</f>
+        <v>1.3513556883694662</v>
+      </c>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6">
+        <f>P25/B5</f>
+        <v>0.95073891625615625</v>
+      </c>
+      <c r="T25" s="6">
+        <f>STANDARDIZE(S25,$S$37,$S$38)</f>
+        <v>1.7268588275927563</v>
+      </c>
+      <c r="X25" s="8"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="26" spans="1:24">
+      <c r="A26" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="6">
         <v>1.4025290455099799</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="6">
         <v>0.13631083972720401</v>
       </c>
-      <c r="E26">
+      <c r="D26" s="6"/>
+      <c r="E26" s="6">
         <f t="shared" si="0"/>
         <v>0.42468415937803622</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="6">
         <f t="shared" si="1"/>
         <v>0.42718599350010039</v>
       </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6">
+        <v>0.41080942294113898</v>
+      </c>
+      <c r="J26" s="6">
+        <v>7.3149793071554906E-2</v>
+      </c>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6">
+        <f t="shared" si="2"/>
+        <v>0.12439261418853256</v>
+      </c>
+      <c r="M26" s="6">
+        <f t="shared" si="3"/>
+        <v>-2.3049307744342846E-2</v>
+      </c>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6">
+        <f>B26+I26</f>
+        <v>1.8133384684511189</v>
+      </c>
+      <c r="Q26" s="6">
+        <f>STANDARDIZE(P26,$P$37,$P$38)</f>
+        <v>0.13407648122142732</v>
+      </c>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6">
+        <f>P26/B6</f>
+        <v>0.54907677356656881</v>
+      </c>
+      <c r="T26" s="6">
+        <f>STANDARDIZE(S26,$S$37,$S$38)</f>
+        <v>0.19889513365035719</v>
+      </c>
+      <c r="X26" s="8"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="27" spans="1:24">
+      <c r="A27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="6">
         <v>1.88933873144399</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="6">
         <v>1.89264546371542</v>
       </c>
-      <c r="E27">
+      <c r="D27" s="6"/>
+      <c r="E27" s="6">
         <f t="shared" si="0"/>
         <v>0.39106145251396535</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="6">
         <f t="shared" si="1"/>
         <v>0.16871254300605171</v>
       </c>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6">
+        <v>0.13495276653171401</v>
+      </c>
+      <c r="J27" s="6">
+        <v>-0.71000160626252695</v>
+      </c>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6">
+        <f t="shared" si="2"/>
+        <v>2.7932960893854757E-2</v>
+      </c>
+      <c r="M27" s="6">
+        <f t="shared" si="3"/>
+        <v>-0.69991085301035649</v>
+      </c>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6">
+        <f>B27+I27</f>
+        <v>2.0242914979757041</v>
+      </c>
+      <c r="Q27" s="6">
+        <f>STANDARDIZE(P27,$P$37,$P$38)</f>
+        <v>0.57915483624594966</v>
+      </c>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6">
+        <f>P27/B7</f>
+        <v>0.41899441340782007</v>
+      </c>
+      <c r="T27" s="6">
+        <f>STANDARDIZE(S27,$S$37,$S$38)</f>
+        <v>-0.29595141129404373</v>
+      </c>
+      <c r="X27" s="8"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+    <row r="28" spans="1:24">
+      <c r="A28" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="6">
         <v>1.4946527509341601</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="6">
         <v>0.46867902836777398</v>
       </c>
-      <c r="E28">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6">
         <f t="shared" si="0"/>
         <v>0.37419354838709701</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="6">
         <f t="shared" si="1"/>
         <v>3.9041086156946986E-2</v>
       </c>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6">
+        <v>0.103079500064425</v>
+      </c>
+      <c r="J28" s="6">
+        <v>-0.80048915715257196</v>
+      </c>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6">
+        <f t="shared" si="2"/>
+        <v>2.5806451612903281E-2</v>
+      </c>
+      <c r="M28" s="6">
+        <f t="shared" si="3"/>
+        <v>-0.71483266030247083</v>
+      </c>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6">
+        <f>B28+I28</f>
+        <v>1.597732250998585</v>
+      </c>
+      <c r="Q28" s="6">
+        <f>STANDARDIZE(P28,$P$37,$P$38)</f>
+        <v>-0.32081938262607229</v>
+      </c>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6">
+        <f>P28/B8</f>
+        <v>0.40000000000000024</v>
+      </c>
+      <c r="T28" s="6">
+        <f>STANDARDIZE(S28,$S$37,$S$38)</f>
+        <v>-0.36820809418813166</v>
+      </c>
+      <c r="X28" s="8"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+    <row r="29" spans="1:24">
+      <c r="A29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="6">
         <v>1.4277126540426801</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="6">
         <v>0.22716943375472901</v>
       </c>
-      <c r="E29">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6">
         <f t="shared" si="0"/>
         <v>0.31879194630872493</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="6">
         <f t="shared" si="1"/>
         <v>-0.38685690325797528</v>
       </c>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6">
+        <v>0.210399759543132</v>
+      </c>
+      <c r="J29" s="6">
+        <v>-0.49580913789321202</v>
+      </c>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6">
+        <f t="shared" si="2"/>
+        <v>4.6979865771812138E-2</v>
+      </c>
+      <c r="M29" s="6">
+        <f t="shared" si="3"/>
+        <v>-0.56625790042463198</v>
+      </c>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6">
+        <f>B29+I29</f>
+        <v>1.6381124135858121</v>
+      </c>
+      <c r="Q29" s="6">
+        <f>STANDARDIZE(P29,$P$37,$P$38)</f>
+        <v>-0.23562346777977122</v>
+      </c>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6">
+        <f>P29/B9</f>
+        <v>0.36577181208053705</v>
+      </c>
+      <c r="T29" s="6">
+        <f>STANDARDIZE(S29,$S$37,$S$38)</f>
+        <v>-0.49841560665164908</v>
+      </c>
+      <c r="X29" s="8"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
+    <row r="30" spans="1:24">
+      <c r="A30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="6">
         <v>1.3085260290801499</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="6">
         <v>-0.20283761455688201</v>
       </c>
-      <c r="E30">
+      <c r="D30" s="6"/>
+      <c r="E30" s="6">
         <f t="shared" si="0"/>
         <v>0.31116663463386474</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="6">
         <f t="shared" si="1"/>
         <v>-0.44547623535582637</v>
       </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6">
+        <v>8.4864257599392201E-2</v>
+      </c>
+      <c r="J30" s="6">
+        <v>-0.85220185755059097</v>
+      </c>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6">
+        <f t="shared" si="2"/>
+        <v>2.0180665000960996E-2</v>
+      </c>
+      <c r="M30" s="6">
+        <f t="shared" si="3"/>
+        <v>-0.75430904746989391</v>
+      </c>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6">
+        <f>B30+I30</f>
+        <v>1.393390286679542</v>
+      </c>
+      <c r="Q30" s="6">
+        <f>STANDARDIZE(P30,$P$37,$P$38)</f>
+        <v>-0.75194940975374558</v>
+      </c>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6">
+        <f>P30/B10</f>
+        <v>0.33134729963482568</v>
+      </c>
+      <c r="T30" s="6">
+        <f>STANDARDIZE(S30,$S$37,$S$38)</f>
+        <v>-0.6293699576056675</v>
+      </c>
+      <c r="X30" s="8"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+    <row r="31" spans="1:24">
+      <c r="A31" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="6">
         <v>1.14019281474921</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="6">
         <v>-0.81015801355309602</v>
       </c>
-      <c r="E31">
+      <c r="D31" s="6"/>
+      <c r="E31" s="6">
         <f t="shared" si="0"/>
         <v>0.26204960224613977</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="6">
         <f t="shared" si="1"/>
         <v>-0.82306180247295624</v>
       </c>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6">
+        <v>6.8207963025175899E-2</v>
+      </c>
+      <c r="J31" s="6">
+        <v>-0.89948873680630703</v>
+      </c>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6">
+        <f t="shared" si="2"/>
+        <v>1.5676181562938707E-2</v>
+      </c>
+      <c r="M31" s="6">
+        <f t="shared" si="3"/>
+        <v>-0.78591720192977688</v>
+      </c>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6">
+        <f>B31+I31</f>
+        <v>1.2084007777743859</v>
+      </c>
+      <c r="Q31" s="6">
+        <f>STANDARDIZE(P31,$P$37,$P$38)</f>
+        <v>-1.1422487408695641</v>
+      </c>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6">
+        <f>P31/B11</f>
+        <v>0.27772578380907853</v>
+      </c>
+      <c r="T31" s="6">
+        <f>STANDARDIZE(S31,$S$37,$S$38)</f>
+        <v>-0.83335166433877605</v>
+      </c>
+      <c r="X31" s="8"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="32" spans="1:24">
+      <c r="A32" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="6">
         <v>1.13878658654778</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="6">
         <v>-0.81523146905482302</v>
       </c>
-      <c r="E32">
+      <c r="D32" s="6"/>
+      <c r="E32" s="6">
         <f t="shared" si="0"/>
         <v>0.40102389078498252</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="6">
         <f t="shared" si="1"/>
         <v>0.24529845875798773</v>
       </c>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6">
+        <v>0.77049815855785997</v>
+      </c>
+      <c r="J32" s="6">
+        <v>1.0942987487989699</v>
+      </c>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6">
+        <f t="shared" si="2"/>
+        <v>0.27133105802047763</v>
+      </c>
+      <c r="M32" s="6">
+        <f t="shared" si="3"/>
+        <v>1.0080240867166474</v>
+      </c>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6">
+        <f>B32+I32</f>
+        <v>1.9092847451056398</v>
+      </c>
+      <c r="Q32" s="6">
+        <f>STANDARDIZE(P32,$P$37,$P$38)</f>
+        <v>0.33650832626466282</v>
+      </c>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6">
+        <f>P32/B12</f>
+        <v>0.6723549488054601</v>
+      </c>
+      <c r="T32" s="6">
+        <f>STANDARDIZE(S32,$S$37,$S$38)</f>
+        <v>0.66785786625736476</v>
+      </c>
+      <c r="X32" s="8"/>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
+    <row r="33" spans="1:32">
+      <c r="A33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="6">
         <v>1.75875659998513</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="6">
         <v>1.4215251771185</v>
       </c>
-      <c r="E33">
+      <c r="D33" s="6"/>
+      <c r="E33" s="6">
         <f t="shared" si="0"/>
         <v>0.66339410939691668</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="6">
         <f t="shared" si="1"/>
         <v>2.2622608641249449</v>
       </c>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6">
+        <v>1.1192087454450801</v>
+      </c>
+      <c r="J33" s="6">
+        <v>2.08428096506282</v>
+      </c>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6">
+        <f t="shared" si="2"/>
+        <v>0.42215988779803693</v>
+      </c>
+      <c r="M33" s="6">
+        <f t="shared" si="3"/>
+        <v>2.0663964870613225</v>
+      </c>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6">
+        <f>B33+I33</f>
+        <v>2.8779653454302103</v>
+      </c>
+      <c r="Q33" s="6">
+        <f>STANDARDIZE(P33,$P$37,$P$38)</f>
+        <v>2.380274984218159</v>
+      </c>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6">
+        <f>P33/B13</f>
+        <v>1.0855539971949537</v>
+      </c>
+      <c r="T33" s="6">
+        <f>STANDARDIZE(S33,$S$37,$S$38)</f>
+        <v>2.2397091243397504</v>
+      </c>
+      <c r="X33" s="8"/>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
+    <row r="34" spans="1:32">
+      <c r="A34" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="6">
         <v>1.17453254032776</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="6">
         <v>-0.68626555464250305</v>
       </c>
-      <c r="E34">
+      <c r="D34" s="6"/>
+      <c r="E34" s="6">
         <f t="shared" si="0"/>
         <v>0.20592648162040558</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="6">
         <f t="shared" si="1"/>
         <v>-1.2545064419326262</v>
       </c>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6">
+        <v>0.1198065979205</v>
+      </c>
+      <c r="J34" s="6">
+        <v>-0.75300126882936802</v>
+      </c>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6">
+        <f t="shared" si="2"/>
+        <v>2.1005251312828235E-2</v>
+      </c>
+      <c r="M34" s="6">
+        <f t="shared" si="3"/>
+        <v>-0.74852288977398551</v>
+      </c>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6">
+        <f>B34+I34</f>
+        <v>1.2943391382482601</v>
+      </c>
+      <c r="Q34" s="6">
+        <f>STANDARDIZE(P34,$P$37,$P$38)</f>
+        <v>-0.96093205535233317</v>
+      </c>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6">
+        <f>P34/B14</f>
+        <v>0.22693173293323382</v>
+      </c>
+      <c r="T34" s="6">
+        <f>STANDARDIZE(S34,$S$37,$S$38)</f>
+        <v>-1.0265774064683586</v>
+      </c>
+      <c r="X34" s="8"/>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
+    <row r="35" spans="1:32">
+      <c r="A35" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="6">
         <v>0.80709237653159405</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="6">
         <v>-2.01193326538435</v>
       </c>
-      <c r="E35">
+      <c r="D35" s="6"/>
+      <c r="E35" s="6">
         <f t="shared" si="0"/>
         <v>0.32059800664451843</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="6">
         <f t="shared" si="1"/>
         <v>-0.37297287397145085</v>
       </c>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6">
+        <v>0.48090996529084601</v>
+      </c>
+      <c r="J35" s="6">
+        <v>0.272163797481766</v>
+      </c>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6">
+        <f t="shared" si="2"/>
+        <v>0.19102990033222594</v>
+      </c>
+      <c r="M35" s="6">
+        <f t="shared" si="3"/>
+        <v>0.44454740166703616</v>
+      </c>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6">
+        <f>B35+I35</f>
+        <v>1.28800234182244</v>
+      </c>
+      <c r="Q35" s="6">
+        <f>STANDARDIZE(P35,$P$37,$P$38)</f>
+        <v>-0.97430171842702529</v>
+      </c>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6">
+        <f>P35/B15</f>
+        <v>0.51162790697674432</v>
+      </c>
+      <c r="T35" s="6">
+        <f>STANDARDIZE(S35,$S$37,$S$38)</f>
+        <v>5.6435831547879768E-2</v>
+      </c>
+      <c r="X35" s="8"/>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B37">
+    <row r="36" spans="1:32">
+      <c r="A36" s="5"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="X36" s="8"/>
+    </row>
+    <row r="37" spans="1:32">
+      <c r="A37" s="5"/>
+      <c r="B37" s="6">
         <f>AVERAGE(B23:B35)</f>
         <v>1.3647472719397948</v>
       </c>
-      <c r="E37">
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6">
         <f>AVERAGE(E23:E35)</f>
         <v>0.36911501133425495</v>
       </c>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6">
+        <f>AVERAGE(I23:I35)</f>
+        <v>0.38504319517098001</v>
+      </c>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6">
+        <f>AVERAGE(L23:L35)</f>
+        <v>0.12767737493355</v>
+      </c>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6">
+        <f>AVERAGE(P23:P35)</f>
+        <v>1.7497904671107753</v>
+      </c>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6">
+        <f>AVERAGE(S23:S35)</f>
+        <v>0.49679238626780492</v>
+      </c>
+      <c r="T37" s="6"/>
+      <c r="X37" s="8"/>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="B38">
-        <f>_xlfn.STDEV.S(B23:B35)</f>
+    <row r="38" spans="1:32">
+      <c r="A38" s="5"/>
+      <c r="B38" s="6">
+        <f>STDEV(B23:B35)</f>
         <v>0.27717365431684315</v>
       </c>
-      <c r="E38">
-        <f>_xlfn.STDEV.S(E23:E35)</f>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6">
+        <f t="shared" ref="E38:I38" si="4">STDEV(E23:E35)</f>
         <v>0.13008185869691491</v>
       </c>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6">
+        <f t="shared" si="4"/>
+        <v>0.35223924345150537</v>
+      </c>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6">
+        <f>STDEV(L23:L35)</f>
+        <v>0.14251016913180989</v>
+      </c>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6">
+        <f>STDEV(P23:P35)</f>
+        <v>0.47396829601601803</v>
+      </c>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6">
+        <f>STDEV(S23:S35)</f>
+        <v>0.26287414045371238</v>
+      </c>
+      <c r="T38" s="6"/>
+      <c r="X38" s="8"/>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:32">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="X39" s="8"/>
+    </row>
+    <row r="40" spans="1:32" ht="15.75" thickBot="1">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
+      <c r="X40" s="12"/>
+    </row>
+    <row r="43" spans="1:32">
       <c r="E43" t="s">
         <v>564</v>
       </c>
+      <c r="M43" t="s">
+        <v>569</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>570</v>
+      </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:32">
       <c r="A44" t="s">
         <v>550</v>
       </c>
@@ -54318,8 +55163,14 @@
       <c r="C44">
         <v>26</v>
       </c>
+      <c r="I44">
+        <v>80</v>
+      </c>
+      <c r="J44">
+        <v>80</v>
+      </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:32">
       <c r="A45" t="s">
         <v>551</v>
       </c>
@@ -54335,26 +55186,38 @@
       <c r="F45" t="s">
         <v>554</v>
       </c>
-      <c r="O45">
+      <c r="I45" t="s">
+        <v>92</v>
+      </c>
+      <c r="J45" t="s">
+        <v>92</v>
+      </c>
+      <c r="M45" t="s">
+        <v>553</v>
+      </c>
+      <c r="N45" t="s">
+        <v>554</v>
+      </c>
+      <c r="W45">
         <v>32</v>
       </c>
-      <c r="P45">
+      <c r="X45">
         <v>32</v>
       </c>
-      <c r="S45">
+      <c r="AA45">
         <v>53</v>
       </c>
-      <c r="T45">
+      <c r="AB45">
         <v>53</v>
       </c>
-      <c r="W45">
+      <c r="AE45">
         <v>85</v>
       </c>
-      <c r="X45">
+      <c r="AF45">
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:32">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -54372,26 +55235,48 @@
         <f>STANDARDIZE(E46,$E$60,$E$61)</f>
         <v>2.0370195454999562</v>
       </c>
-      <c r="O46" t="s">
+      <c r="I46">
+        <v>6.2603295437471798E-2</v>
+      </c>
+      <c r="J46">
+        <v>-0.467944389743843</v>
+      </c>
+      <c r="M46">
+        <f>I46/B3</f>
+        <v>1.062473438164045E-2</v>
+      </c>
+      <c r="N46">
+        <f>STANDARDIZE(M46,$M$60,$M$61)</f>
+        <v>-0.61220244803057255</v>
+      </c>
+      <c r="Q46">
+        <f>I46+B46</f>
+        <v>0.71117343616967976</v>
+      </c>
+      <c r="R46">
+        <f>STANDARDIZE(Q46,$Q$60,$Q$61)</f>
+        <v>0.98216107820081133</v>
+      </c>
+      <c r="W46" t="s">
         <v>44</v>
       </c>
-      <c r="P46" t="s">
+      <c r="X46" t="s">
         <v>44</v>
       </c>
-      <c r="S46" t="s">
+      <c r="AA46" t="s">
         <v>65</v>
       </c>
-      <c r="T46" t="s">
+      <c r="AB46" t="s">
         <v>65</v>
       </c>
-      <c r="W46" t="s">
+      <c r="AE46" t="s">
         <v>97</v>
       </c>
-      <c r="X46" t="s">
+      <c r="AF46" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:32">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -54402,33 +55287,55 @@
         <v>-0.214380627505111</v>
       </c>
       <c r="E47">
-        <f t="shared" ref="E47:E58" si="2">B47/B24</f>
+        <f t="shared" ref="E47:E58" si="5">B47/B24</f>
         <v>0.29484902309058647</v>
       </c>
       <c r="F47">
-        <f t="shared" ref="F47:F58" si="3">STANDARDIZE(E47,$E$60,$E$61)</f>
+        <f t="shared" ref="F47:F58" si="6">STANDARDIZE(E47,$E$60,$E$61)</f>
         <v>-6.1147383036993568E-2</v>
       </c>
-      <c r="O47">
+      <c r="I47">
+        <v>0.14148208280180899</v>
+      </c>
+      <c r="J47">
+        <v>0.224395300697696</v>
+      </c>
+      <c r="M47">
+        <f t="shared" ref="M47:M58" si="7">I47/B4</f>
+        <v>3.2637774210807872E-2</v>
+      </c>
+      <c r="N47">
+        <f t="shared" ref="N47:N58" si="8">STANDARDIZE(M47,$M$60,$M$61)</f>
+        <v>-0.12924099825448521</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" ref="Q47:Q58" si="9">I47+B47</f>
+        <v>0.52649889829525698</v>
+      </c>
+      <c r="R47">
+        <f t="shared" ref="R47:R58" si="10">STANDARDIZE(Q47,$Q$60,$Q$61)</f>
+        <v>-5.3868536135872301E-2</v>
+      </c>
+      <c r="W47">
         <v>0.202834677217409</v>
       </c>
-      <c r="P47">
+      <c r="X47">
         <v>-0.69888054425045498</v>
       </c>
-      <c r="S47">
+      <c r="AA47">
         <v>0.12520659087494401</v>
       </c>
-      <c r="T47">
+      <c r="AB47">
         <v>-0.56309510667684304</v>
       </c>
-      <c r="W47">
+      <c r="AE47">
         <v>6.2603295437471798E-2</v>
       </c>
-      <c r="X47">
+      <c r="AF47">
         <v>-0.57072185077953097</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:32">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -54439,33 +55346,55 @@
         <v>-0.17065787271862801</v>
       </c>
       <c r="E48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.26836158192090437</v>
       </c>
       <c r="F48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.41300375255656968</v>
       </c>
-      <c r="O48">
+      <c r="I48">
+        <v>0.32200800891714498</v>
+      </c>
+      <c r="J48">
+        <v>1.8089184403101599</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="7"/>
+        <v>0.1280788177339901</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="8"/>
+        <v>1.9647153615129391</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="9"/>
+        <v>0.71419725054700101</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="10"/>
+        <v>0.9991247662068542</v>
+      </c>
+      <c r="W48">
         <v>0.419807491592253</v>
       </c>
-      <c r="P48">
+      <c r="X48">
         <v>0.79885843728886397</v>
       </c>
-      <c r="S48">
+      <c r="AA48">
         <v>0.14380146120839599</v>
       </c>
-      <c r="T48">
+      <c r="AB48">
         <v>-0.38154081293761399</v>
       </c>
-      <c r="W48">
+      <c r="AE48">
         <v>0.10437202829641699</v>
       </c>
-      <c r="X48">
+      <c r="AF48">
         <v>-6.0592310210559899E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:32">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -54476,33 +55405,55 @@
         <v>-0.42887832779680701</v>
       </c>
       <c r="E49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.24942791762013725</v>
       </c>
       <c r="F49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.66451654837150342</v>
       </c>
-      <c r="O49">
+      <c r="I49">
+        <v>0.121959047435651</v>
+      </c>
+      <c r="J49">
+        <v>5.3036527147425003E-2</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="7"/>
+        <v>3.6929057337220718E-2</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="8"/>
+        <v>-3.5091151790031902E-2</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="9"/>
+        <v>0.47178894665896398</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="10"/>
+        <v>-0.36079298141413785</v>
+      </c>
+      <c r="W49">
         <v>0.44172893530941698</v>
       </c>
-      <c r="P49">
+      <c r="X49">
         <v>0.95017970249628203</v>
       </c>
-      <c r="S49">
+      <c r="AA49">
         <v>0.16926062007183301</v>
       </c>
-      <c r="T49">
+      <c r="AB49">
         <v>-0.13296582834465601</v>
       </c>
-      <c r="W49">
+      <c r="AE49">
         <v>0.30962308549725498</v>
       </c>
-      <c r="X49">
+      <c r="AF49">
         <v>2.4461781935715998</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:32">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -54513,33 +55464,55 @@
         <v>2.0455020822855898</v>
       </c>
       <c r="E50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.40000000000000102</v>
       </c>
       <c r="F50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.3356670827231745</v>
       </c>
-      <c r="O50">
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>-1.01742984244992</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <f t="shared" si="8"/>
+        <v>-0.84530687887087197</v>
+      </c>
+      <c r="Q50">
+        <f t="shared" si="9"/>
+        <v>0.75573549257759798</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="10"/>
+        <v>1.232155531392505</v>
+      </c>
+      <c r="W50">
         <v>0.33699210475640301</v>
       </c>
-      <c r="P50">
+      <c r="X50">
         <v>0.22719311832855499</v>
       </c>
-      <c r="S50">
+      <c r="AA50">
         <v>8.9864561268374096E-2</v>
       </c>
-      <c r="T50">
+      <c r="AB50">
         <v>-0.90816324156930595</v>
       </c>
-      <c r="W50">
+      <c r="AE50">
         <v>0.16047243083638199</v>
       </c>
-      <c r="X50">
+      <c r="AF50">
         <v>0.62457265924382099</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:32">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -54550,33 +55523,55 @@
         <v>0.42332169224870803</v>
       </c>
       <c r="E51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.3275862068965511</v>
       </c>
       <c r="F51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.37372990724072269</v>
       </c>
-      <c r="O51">
+      <c r="I51">
+        <v>1.28849375080531E-2</v>
+      </c>
+      <c r="J51">
+        <v>-0.90433538519768897</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="7"/>
+        <v>3.2258064516129041E-3</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="8"/>
+        <v>-0.77453336586864929</v>
+      </c>
+      <c r="Q51">
+        <f t="shared" si="9"/>
+        <v>0.50251256281407009</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="10"/>
+        <v>-0.18843258694629073</v>
+      </c>
+      <c r="W51">
         <v>0.215924426450742</v>
       </c>
-      <c r="P51">
+      <c r="X51">
         <v>-0.60852347467090795</v>
       </c>
-      <c r="S51">
+      <c r="AA51">
         <v>0.107962213225371</v>
       </c>
-      <c r="T51">
+      <c r="AB51">
         <v>-0.73146362708046997</v>
       </c>
-      <c r="W51">
+      <c r="AE51">
         <v>5.3981106612685598E-2</v>
       </c>
-      <c r="X51">
+      <c r="AF51">
         <v>-0.67602629558375504</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:32">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -54587,33 +55582,55 @@
         <v>0.82826886991536297</v>
       </c>
       <c r="E52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.38947368421052692</v>
       </c>
       <c r="F52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>1.1958366161116878</v>
       </c>
-      <c r="O52">
+      <c r="I52">
+        <v>9.0171325518485099E-2</v>
+      </c>
+      <c r="J52">
+        <v>-0.22597259922667301</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="7"/>
+        <v>2.0134228187919479E-2</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="8"/>
+        <v>-0.40356616013216701</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="9"/>
+        <v>0.64622783288247709</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="10"/>
+        <v>0.61781432471247999</v>
+      </c>
+      <c r="W52">
         <v>0.38654812524159299</v>
       </c>
-      <c r="P52">
+      <c r="X52">
         <v>0.56927276487083101</v>
       </c>
-      <c r="S52">
+      <c r="AA52">
         <v>0.18038912511274299</v>
       </c>
-      <c r="T52">
+      <c r="AB52">
         <v>-2.4310708042946001E-2</v>
       </c>
-      <c r="W52">
+      <c r="AE52">
         <v>7.7309625048318495E-2</v>
       </c>
-      <c r="X52">
+      <c r="AF52">
         <v>-0.39111062835695498</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:32">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -54624,33 +55641,55 @@
         <v>-0.29503336963458099</v>
       </c>
       <c r="E53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.2841260037059915</v>
       </c>
       <c r="F53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.20359083942002126</v>
       </c>
-      <c r="O53">
+      <c r="I53">
+        <v>2.9904547915976298E-2</v>
+      </c>
+      <c r="J53">
+        <v>-0.75494982546753697</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="7"/>
+        <v>7.1112819527195887E-3</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="8"/>
+        <v>-0.68928685309045812</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="9"/>
+        <v>0.4016908193037893</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="10"/>
+        <v>-0.75404554717330552</v>
+      </c>
+      <c r="W53">
         <v>0.300571085061617</v>
       </c>
-      <c r="P53">
+      <c r="X53">
         <v>-2.4217092215389899E-2</v>
       </c>
-      <c r="S53">
+      <c r="AA53">
         <v>0.48091373609858701</v>
       </c>
-      <c r="T53">
+      <c r="AB53">
         <v>2.90991429704538</v>
       </c>
-      <c r="W53">
+      <c r="AE53">
         <v>0.165314096783889</v>
       </c>
-      <c r="X53">
+      <c r="AF53">
         <v>0.68370485350336696</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:32">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -54661,33 +55700,55 @@
         <v>-0.82999019416660003</v>
       </c>
       <c r="E54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.24910714285714261</v>
       </c>
       <c r="F54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.66877768642624247</v>
       </c>
-      <c r="O54">
+      <c r="I54">
+        <v>2.44327031731973E-2</v>
+      </c>
+      <c r="J54">
+        <v>-0.80297763398164901</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="7"/>
+        <v>5.6153486195601255E-3</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="8"/>
+        <v>-0.72210731482395207</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="9"/>
+        <v>0.30846287756161628</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="10"/>
+        <v>-1.2770570550955544</v>
+      </c>
+      <c r="W54">
         <v>0.20933183541183401</v>
       </c>
-      <c r="P54">
+      <c r="X54">
         <v>-0.65403139056704895</v>
       </c>
-      <c r="S54">
+      <c r="AA54">
         <v>0.24085284537732299</v>
       </c>
-      <c r="T54">
+      <c r="AB54">
         <v>0.56603748114197106</v>
       </c>
-      <c r="W54">
+      <c r="AE54">
         <v>3.7178627138781402E-2</v>
       </c>
-      <c r="X54">
+      <c r="AF54">
         <v>-0.88123819807044401</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:32">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -54698,33 +55759,55 @@
         <v>-0.93670379545828297</v>
       </c>
       <c r="E55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.23404255319148987</v>
       </c>
       <c r="F55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.86889410364082076</v>
       </c>
-      <c r="O55">
+      <c r="I55">
+        <v>0.198681915099826</v>
+      </c>
+      <c r="J55">
+        <v>0.72645314805782601</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="7"/>
+        <v>6.996587030716736E-2</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="8"/>
+        <v>0.68972955501692734</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="9"/>
+        <v>0.46520643535568995</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="10"/>
+        <v>-0.39772106432903959</v>
+      </c>
+      <c r="W55">
         <v>0.182227244500097</v>
       </c>
-      <c r="P55">
+      <c r="X55">
         <v>-0.84113133902903503</v>
       </c>
-      <c r="S55">
+      <c r="AA55">
         <v>0.15677651202801601</v>
       </c>
-      <c r="T55">
+      <c r="AB55">
         <v>-0.25485661748243998</v>
       </c>
-      <c r="W55">
+      <c r="AE55">
         <v>1.8324527379897999E-2</v>
       </c>
-      <c r="X55">
+      <c r="AF55">
         <v>-1.11150693234882</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:32">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -54735,33 +55818,55 @@
         <v>0.31723180893460901</v>
       </c>
       <c r="E56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.26849894291754728</v>
       </c>
       <c r="F56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-0.41117906359236406</v>
       </c>
-      <c r="O56">
+      <c r="I56">
+        <v>0.34952033910909502</v>
+      </c>
+      <c r="J56">
+        <v>2.05040133837297</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="7"/>
+        <v>0.13183730715287539</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="8"/>
+        <v>2.0471758264373592</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="9"/>
+        <v>0.82174462705436202</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="10"/>
+        <v>1.6024687262800592</v>
+      </c>
+      <c r="W56">
         <v>0.27137042062415201</v>
       </c>
-      <c r="P56">
+      <c r="X56">
         <v>-0.22578600093260501</v>
       </c>
-      <c r="S56">
+      <c r="AA56">
         <v>0.15991471215351799</v>
       </c>
-      <c r="T56">
+      <c r="AB56">
         <v>-0.22421624746744401</v>
       </c>
-      <c r="W56">
+      <c r="AE56">
         <v>0.111455708470634</v>
       </c>
-      <c r="X56">
+      <c r="AF56">
         <v>2.59220335454333E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:32">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -54772,33 +55877,55 @@
         <v>-0.46171069177451302</v>
       </c>
       <c r="E57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.29326047358834173</v>
       </c>
       <c r="F57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-8.2249506759753774E-2</v>
       </c>
-      <c r="O57">
+      <c r="I57">
+        <v>2.7812245945830299E-2</v>
+      </c>
+      <c r="J57">
+        <v>-0.77331450558907799</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="7"/>
+        <v>4.8762190547636877E-3</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="8"/>
+        <v>-0.73832366154193096</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="9"/>
+        <v>0.3722562149672673</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="10"/>
+        <v>-0.91917454725049119</v>
+      </c>
+      <c r="W57">
         <v>0.66185766341935004</v>
       </c>
-      <c r="P57">
+      <c r="X57">
         <v>2.4697036022846302</v>
       </c>
-      <c r="S57">
+      <c r="AA57">
         <v>0.263999405071763</v>
       </c>
-      <c r="T57">
+      <c r="AB57">
         <v>0.79203299616618394</v>
       </c>
-      <c r="W57">
+      <c r="AE57">
         <v>0.20078827991373499</v>
       </c>
-      <c r="X57">
+      <c r="AF57">
         <v>1.1169578517018199</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:32">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -54809,33 +55936,55 @@
         <v>-1.66919697504579</v>
       </c>
       <c r="E58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.18134715025906767</v>
       </c>
       <c r="F58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>-1.5688942677712781</v>
       </c>
-      <c r="O58">
+      <c r="I58">
+        <v>0.12545477355413401</v>
+      </c>
+      <c r="J58">
+        <v>8.3719427070317196E-2</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="7"/>
+        <v>4.983388704318948E-2</v>
+      </c>
+      <c r="N58">
+        <f t="shared" si="8"/>
+        <v>0.24803808943589103</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="9"/>
+        <v>0.27181867603395704</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="10"/>
+        <v>-1.4826321084480207</v>
+      </c>
+      <c r="W58">
         <v>0.17329168627786601</v>
       </c>
-      <c r="P58">
+      <c r="X58">
         <v>-0.90281249438395805</v>
       </c>
-      <c r="S58">
+      <c r="AA58">
         <v>0.14975824740062499</v>
       </c>
-      <c r="T58">
+      <c r="AB58">
         <v>-0.32338068110060803</v>
       </c>
-      <c r="W58">
+      <c r="AE58">
         <v>3.2091053014419599E-2</v>
       </c>
-      <c r="X58">
+      <c r="AF58">
         <v>-0.94337371602919595</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:32">
       <c r="B60">
         <f>AVERAGE(B46:B58)</f>
         <v>0.42018452675423507</v>
@@ -54844,41 +55993,53 @@
         <f>AVERAGE(E46:E58)</f>
         <v>0.29945214485042226</v>
       </c>
+      <c r="I60">
+        <f>AVERAGE(I46:I58)</f>
+        <v>0.11591655557051338</v>
+      </c>
+      <c r="M60">
+        <f>AVERAGE(M46:M58)</f>
+        <v>3.8528487110266713E-2</v>
+      </c>
+      <c r="Q60">
+        <f>AVERAGE(Q46:Q58)</f>
+        <v>0.5361010823247484</v>
+      </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:32">
       <c r="B61">
-        <f>_xlfn.STDEV.S(B46:B58)</f>
+        <f>STDEV(B46:B58)</f>
         <v>0.16404332644258474</v>
       </c>
       <c r="E61">
-        <f>_xlfn.STDEV.S(E46:E58)</f>
+        <f>STDEV(E46:E58)</f>
         <v>7.5279129395463246E-2</v>
       </c>
-      <c r="O61">
-        <v>0.15054572826495999</v>
-      </c>
-      <c r="P61">
-        <v>-1.0598252892197599</v>
-      </c>
-      <c r="S61">
-        <v>0.10872747041358299</v>
-      </c>
-      <c r="T61">
-        <v>-0.72399190365120503</v>
-      </c>
-      <c r="W61">
+      <c r="I61">
+        <f>STDEV(I46:I58)</f>
+        <v>0.11393076036711473</v>
+      </c>
+      <c r="M61">
+        <f>STDEV(M46:M59)</f>
+        <v>4.5579289691492358E-2</v>
+      </c>
+      <c r="Q61">
+        <f>STDEV(Q46:Q58)</f>
+        <v>0.17825218055437572</v>
+      </c>
+      <c r="AB61">
         <v>8.7818341487893595E-2</v>
       </c>
-      <c r="X61">
+      <c r="AC61">
         <v>-0.262765660186775</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:32">
       <c r="E64" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:23">
       <c r="A65" t="s">
         <v>550</v>
       </c>
@@ -54891,17 +56052,17 @@
       <c r="O65">
         <v>67</v>
       </c>
-      <c r="P65">
+      <c r="S65">
         <v>67</v>
       </c>
-      <c r="S65">
+      <c r="V65">
         <v>81</v>
       </c>
-      <c r="T65">
+      <c r="W65">
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:23">
       <c r="A66" t="s">
         <v>551</v>
       </c>
@@ -54920,17 +56081,17 @@
       <c r="O66" t="s">
         <v>79</v>
       </c>
-      <c r="P66" t="s">
+      <c r="S66" t="s">
         <v>79</v>
       </c>
-      <c r="S66" t="s">
+      <c r="V66" t="s">
         <v>93</v>
       </c>
-      <c r="T66" t="s">
+      <c r="W66" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:23">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -54951,17 +56112,17 @@
       <c r="O67">
         <v>8.7644613612460606E-2</v>
       </c>
-      <c r="P67">
+      <c r="S67">
         <v>-0.60028070313509097</v>
       </c>
-      <c r="S67">
+      <c r="V67">
         <v>6.0099163619973001E-2</v>
       </c>
-      <c r="T67">
+      <c r="W67">
         <v>-0.77610519292684399</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:23">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -54972,27 +56133,27 @@
         <v>-0.57217731769117597</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E79" si="4">B68/B47</f>
+        <f t="shared" ref="E68:E79" si="11">B68/B47</f>
         <v>0.26506024096385644</v>
       </c>
       <c r="F68">
-        <f t="shared" ref="F68:F79" si="5">STANDARDIZE(E68,$E$81,$E$82)</f>
+        <f t="shared" ref="F68:F79" si="12">STANDARDIZE(E68,$E$81,$E$82)</f>
         <v>-0.90594435724765543</v>
       </c>
       <c r="O68">
         <v>0.21106343499942001</v>
       </c>
-      <c r="P68">
+      <c r="S68">
         <v>0.70731130438353595</v>
       </c>
-      <c r="S68">
+      <c r="V68">
         <v>8.5817001043720295E-2</v>
       </c>
-      <c r="T68">
+      <c r="W68">
         <v>-0.38738730453743098</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:23">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -55003,27 +56164,27 @@
         <v>-0.48414175308164897</v>
       </c>
       <c r="E69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0.28421052631579025</v>
       </c>
       <c r="F69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>-0.72650967353331908</v>
       </c>
       <c r="O69">
         <v>0.23531354497791401</v>
       </c>
-      <c r="P69">
+      <c r="S69">
         <v>0.96423524542415195</v>
       </c>
-      <c r="S69">
+      <c r="V69">
         <v>0.17751723568509301</v>
       </c>
-      <c r="T69">
+      <c r="W69">
         <v>0.99863598300748702</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:23">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -55034,27 +56195,27 @@
         <v>-0.59612084931407405</v>
       </c>
       <c r="E70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0.28440366972477094</v>
       </c>
       <c r="F70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>-0.72469995499048501</v>
       </c>
       <c r="O70">
         <v>0.134796841902561</v>
       </c>
-      <c r="P70">
+      <c r="S70">
         <v>-0.10071446067749</v>
       </c>
-      <c r="S70">
+      <c r="V70">
         <v>6.4188972334552896E-2</v>
       </c>
-      <c r="T70">
+      <c r="W70">
         <v>-0.71428888305390903</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:23">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -55065,27 +56226,27 @@
         <v>2.5126974222796301</v>
       </c>
       <c r="E71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0.57142857142857073</v>
       </c>
       <c r="F71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1.9646710652778412</v>
       </c>
       <c r="O71">
         <v>0.107962213225371</v>
       </c>
-      <c r="P71">
+      <c r="S71">
         <v>-0.38502074061682601</v>
       </c>
-      <c r="S71">
+      <c r="V71">
         <v>0.13495276653171401</v>
       </c>
-      <c r="T71">
+      <c r="W71">
         <v>0.35528598832870201</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:23">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -55096,27 +56257,27 @@
         <v>0.40162118935699997</v>
       </c>
       <c r="E72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0.42105263157894685</v>
       </c>
       <c r="F72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.55567591406780403</v>
       </c>
       <c r="O72">
         <v>0.25769875016106197</v>
       </c>
-      <c r="P72">
+      <c r="S72">
         <v>1.2014009795902201</v>
       </c>
-      <c r="S72">
+      <c r="V72">
         <v>0.14173431258858399</v>
       </c>
-      <c r="T72">
+      <c r="W72">
         <v>0.45778715200772602</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:23">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -55127,27 +56288,27 @@
         <v>0.58186407404213003</v>
       </c>
       <c r="E73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0.40540540540540543</v>
       </c>
       <c r="F73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.4090642564418997</v>
       </c>
       <c r="O73">
         <v>0.165314096783889</v>
       </c>
-      <c r="P73">
+      <c r="S73">
         <v>0.22260833665437499</v>
       </c>
-      <c r="S73">
+      <c r="V73">
         <v>4.5085662759242598E-2</v>
       </c>
-      <c r="T73">
+      <c r="W73">
         <v>-1.0030300410685</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:23">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -55158,27 +56319,27 @@
         <v>-0.27934965545468898</v>
       </c>
       <c r="E74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0.35869565217391303</v>
       </c>
       <c r="F74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>-2.8597618743745348E-2</v>
       </c>
       <c r="O74">
         <v>7.6781947351831095E-2</v>
       </c>
-      <c r="P74">
+      <c r="S74">
         <v>-0.71536797607385305</v>
       </c>
-      <c r="S74">
+      <c r="V74">
         <v>6.3850250955733198E-2</v>
       </c>
-      <c r="T74">
+      <c r="W74">
         <v>-0.71940856154622101</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:23">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -55189,27 +56350,27 @@
         <v>-0.498332962291413</v>
       </c>
       <c r="E75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0.38709677419354838</v>
       </c>
       <c r="F75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>0.23751571863328394</v>
       </c>
       <c r="O75">
         <v>5.5991611438577199E-2</v>
       </c>
-      <c r="P75">
+      <c r="S75">
         <v>-0.93563646323241401</v>
       </c>
-      <c r="S75">
+      <c r="V75">
         <v>5.8027670036343598E-2</v>
       </c>
-      <c r="T75">
+      <c r="W75">
         <v>-0.80741523655038305</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:23">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -55220,27 +56381,27 @@
         <v>-0.98282999620262401</v>
       </c>
       <c r="E76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0.21818181818181767</v>
       </c>
       <c r="F76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>-1.3451866353828299</v>
       </c>
       <c r="O76">
         <v>8.2380306260903299E-2</v>
       </c>
-      <c r="P76">
+      <c r="S76">
         <v>-0.656054742626487</v>
       </c>
-      <c r="S76">
+      <c r="V76">
         <v>0.188990114363249</v>
       </c>
-      <c r="T76">
+      <c r="W76">
         <v>1.1720453214382001</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:23">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -55251,27 +56412,27 @@
         <v>-0.23988529398087099</v>
       </c>
       <c r="E77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0.291338582677166</v>
       </c>
       <c r="F77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>-0.65972108447596256</v>
       </c>
       <c r="O77">
         <v>0.35323864058897902</v>
       </c>
-      <c r="P77">
+      <c r="S77">
         <v>2.2136225817643398</v>
       </c>
-      <c r="S77">
+      <c r="V77">
         <v>0.263999405071763</v>
       </c>
-      <c r="T77">
+      <c r="W77">
         <v>2.3057896800084898</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:23">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -55282,27 +56443,27 @@
         <v>9.4184216633547493E-2</v>
       </c>
       <c r="E78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0.50310559006211242</v>
       </c>
       <c r="F78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>1.3244971813585098</v>
       </c>
       <c r="O78">
         <v>4.9206281288776701E-2</v>
       </c>
-      <c r="P78">
+      <c r="S78">
         <v>-1.0075253645567599</v>
       </c>
-      <c r="S78">
+      <c r="V78">
         <v>6.4182106028839198E-2</v>
       </c>
-      <c r="T78">
+      <c r="W78">
         <v>-0.71439266533599199</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:23">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -55313,27 +56474,27 @@
         <v>-1.1747190128162299</v>
       </c>
       <c r="E79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>0.25714285714285645</v>
       </c>
       <c r="F79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="12"/>
         <v>-0.98012880075113973</v>
       </c>
       <c r="O79">
         <v>5.8545560991929098E-2</v>
       </c>
-      <c r="P79">
+      <c r="S79">
         <v>-0.90857799689770402</v>
       </c>
-      <c r="S79">
+      <c r="V79">
         <v>0.100363818843307</v>
       </c>
-      <c r="T79">
+      <c r="W79">
         <v>-0.16751623977132701</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:10">
       <c r="B81">
         <f>AVERAGE(B67:B79)</f>
         <v>0.16322268845863341</v>
@@ -55343,17 +56504,17 @@
         <v>0.36174775195747777</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:10">
       <c r="B82">
-        <f>_xlfn.STDEV.S(B67:B79)</f>
+        <f>STDEV(B67:B79)</f>
         <v>0.10690748597940644</v>
       </c>
       <c r="E82">
-        <f>_xlfn.STDEV.S(E67:E79)</f>
+        <f>STDEV(E67:E79)</f>
         <v>0.10672566170329392</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10">
       <c r="A84" t="s">
         <v>550</v>
       </c>
@@ -55364,7 +56525,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:10">
       <c r="A85" t="s">
         <v>551</v>
       </c>
@@ -55375,7 +56536,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:10">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -55386,7 +56547,7 @@
         <v>-0.19215574377137901</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:10">
       <c r="A87" t="s">
         <v>1</v>
       </c>
@@ -55397,7 +56558,7 @@
         <v>-0.19840263952690901</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:10">
       <c r="A88" t="s">
         <v>2</v>
       </c>
@@ -55408,7 +56569,7 @@
         <v>-0.22851779432469899</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:10">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -55419,7 +56580,7 @@
         <v>-0.87447744530157301</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:10">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -55430,7 +56591,7 @@
         <v>0.40820938272351398</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:10">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -55441,7 +56602,7 @@
         <v>2.9441685119327299</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:10">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -55452,7 +56613,7 @@
         <v>-0.92762074627900504</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:10">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -55463,7 +56624,7 @@
         <v>-0.16784060032501899</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:10">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -55474,7 +56635,7 @@
         <v>-0.48964750117146699</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:10">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -55485,7 +56646,7 @@
         <v>9.31675513602922E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:10">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -55496,7 +56657,7 @@
         <v>0.68867244416726403</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:10">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -55507,7 +56668,7 @@
         <v>-0.75533463676217305</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:10">
       <c r="A98" t="s">
         <v>12</v>
       </c>

--- a/R_files/Rresults/statsRelPos/stats_Oct1/zscoresStepwise_Oct1.xlsx
+++ b/R_files/Rresults/statsRelPos/stats_Oct1/zscoresStepwise_Oct1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="195" windowWidth="19140" windowHeight="7770" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="200" windowWidth="19140" windowHeight="7770" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="main record" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="#-pred-v-auxy" sheetId="3" r:id="rId3"/>
     <sheet name="#-pred-v-adv-v" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1330" uniqueCount="572">
   <si>
     <t>Aeschylus</t>
   </si>
@@ -1730,13 +1730,16 @@
   </si>
   <si>
     <t>#26 + #80 / #2</t>
+  </si>
+  <si>
+    <t>#-pred-v-adv-v-obj-n-atr-a / #-pred-v</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2296,9 +2299,6 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
@@ -2312,6 +2312,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2442,6 +2445,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2476,6 +2480,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2651,575 +2656,575 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AOI15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="EY3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="XP3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="FD1" sqref="FD1:FE15"/>
+      <selection pane="bottomRight" activeCell="XR1" sqref="XR1:XS15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="13.453125" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="23" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="22.7265625" bestFit="1" customWidth="1"/>
     <col min="34" max="35" width="13" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="40" max="41" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="45" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="48" max="49" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="52" max="53" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="60" max="61" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="64" max="65" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="66" max="67" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="68" max="69" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="70" max="71" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="74" max="75" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="76" max="77" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="78" max="79" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="40" max="41" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="44" max="45" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="48" max="49" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="52" max="53" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="54" max="55" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="60" max="61" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="64" max="65" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="66" max="67" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="68" max="69" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="70" max="71" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="74" max="75" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="76" max="77" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="29.54296875" bestFit="1" customWidth="1"/>
     <col min="80" max="81" width="23" bestFit="1" customWidth="1"/>
-    <col min="82" max="83" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="84" max="85" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="86" max="87" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="88" max="89" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="82" max="83" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="84" max="85" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="86" max="87" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="88" max="89" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="90" max="91" width="23" bestFit="1" customWidth="1"/>
-    <col min="92" max="93" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="94" max="95" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="96" max="97" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="98" max="99" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="100" max="101" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="102" max="103" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="104" max="105" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="106" max="107" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="92" max="93" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="94" max="95" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="96" max="97" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="98" max="99" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="100" max="101" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="102" max="103" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="104" max="105" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="106" max="107" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="108" max="109" width="17" bestFit="1" customWidth="1"/>
-    <col min="110" max="111" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="112" max="113" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="114" max="115" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="116" max="117" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="110" max="111" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="112" max="113" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="114" max="115" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="116" max="117" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="118" max="119" width="23" bestFit="1" customWidth="1"/>
-    <col min="120" max="121" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="122" max="123" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="124" max="125" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="126" max="127" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="128" max="129" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="130" max="131" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="132" max="133" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="134" max="135" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="136" max="137" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="120" max="121" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="122" max="123" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="124" max="125" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="126" max="127" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="128" max="129" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="130" max="131" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="132" max="133" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="134" max="135" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="136" max="137" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="138" max="139" width="33" bestFit="1" customWidth="1"/>
-    <col min="140" max="141" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="142" max="143" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="144" max="145" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="146" max="147" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="148" max="149" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="150" max="151" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="152" max="153" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="154" max="155" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="156" max="157" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="158" max="159" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="160" max="161" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="162" max="163" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="164" max="165" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="166" max="167" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="140" max="141" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="142" max="143" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="144" max="145" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="146" max="147" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="148" max="149" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="150" max="151" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="152" max="153" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="154" max="155" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="156" max="157" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="158" max="159" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="160" max="161" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="162" max="163" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="164" max="165" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="166" max="167" width="29.26953125" bestFit="1" customWidth="1"/>
     <col min="168" max="169" width="14" bestFit="1" customWidth="1"/>
     <col min="170" max="171" width="18" bestFit="1" customWidth="1"/>
-    <col min="172" max="173" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="174" max="175" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="176" max="177" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="178" max="179" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="180" max="181" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="182" max="183" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="172" max="173" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="174" max="175" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="176" max="177" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="178" max="179" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="180" max="181" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="182" max="183" width="23.26953125" bestFit="1" customWidth="1"/>
     <col min="184" max="185" width="19" bestFit="1" customWidth="1"/>
-    <col min="186" max="187" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="188" max="189" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="190" max="191" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="192" max="193" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="194" max="195" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="196" max="197" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="198" max="199" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="200" max="200" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="201" max="201" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="202" max="203" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="204" max="205" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="206" max="206" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="207" max="207" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="208" max="209" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="210" max="211" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="212" max="213" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="214" max="215" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="216" max="217" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="218" max="219" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="220" max="221" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="186" max="187" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="188" max="189" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="190" max="191" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="192" max="193" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="194" max="195" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="196" max="197" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="198" max="199" width="29.453125" bestFit="1" customWidth="1"/>
+    <col min="200" max="200" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="201" max="201" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="202" max="203" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="204" max="205" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="206" max="206" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="207" max="207" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="208" max="209" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="210" max="211" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="212" max="213" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="214" max="215" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="216" max="217" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="218" max="219" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="220" max="221" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="222" max="223" width="14" bestFit="1" customWidth="1"/>
     <col min="224" max="225" width="24" bestFit="1" customWidth="1"/>
-    <col min="226" max="227" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="228" max="229" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="230" max="231" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="232" max="233" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="234" max="235" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="226" max="227" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="228" max="229" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="230" max="231" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="232" max="233" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="234" max="235" width="18.1796875" bestFit="1" customWidth="1"/>
     <col min="236" max="237" width="24" bestFit="1" customWidth="1"/>
-    <col min="238" max="239" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="240" max="241" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="242" max="243" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="244" max="245" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="246" max="247" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="248" max="249" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="250" max="251" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="252" max="253" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="254" max="255" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="256" max="257" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="258" max="259" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="260" max="261" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="262" max="263" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="264" max="265" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="266" max="267" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="268" max="269" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="270" max="271" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="272" max="273" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="274" max="275" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="276" max="277" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="238" max="239" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="240" max="241" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="242" max="243" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="244" max="245" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="246" max="247" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="248" max="249" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="250" max="251" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="252" max="253" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="254" max="255" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="256" max="257" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="258" max="259" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="260" max="261" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="262" max="263" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="264" max="265" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="266" max="267" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="268" max="269" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="270" max="271" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="272" max="273" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="274" max="275" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="276" max="277" width="21.26953125" bestFit="1" customWidth="1"/>
     <col min="278" max="279" width="14" bestFit="1" customWidth="1"/>
-    <col min="280" max="281" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="280" max="281" width="34.453125" bestFit="1" customWidth="1"/>
     <col min="282" max="283" width="13" bestFit="1" customWidth="1"/>
-    <col min="284" max="285" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="286" max="287" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="288" max="289" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="290" max="291" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="292" max="292" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="293" max="293" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="294" max="295" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="296" max="297" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="298" max="299" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="300" max="301" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="302" max="303" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="284" max="285" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="286" max="287" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="288" max="289" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="290" max="291" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="292" max="292" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="293" max="293" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="294" max="295" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="296" max="297" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="298" max="299" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="300" max="301" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="302" max="303" width="17.81640625" bestFit="1" customWidth="1"/>
     <col min="304" max="305" width="22" bestFit="1" customWidth="1"/>
-    <col min="306" max="307" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="308" max="309" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="310" max="311" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="312" max="313" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="314" max="315" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="316" max="317" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="318" max="319" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="320" max="321" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="322" max="323" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="324" max="324" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="325" max="325" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="306" max="307" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="308" max="309" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="310" max="311" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="312" max="313" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="314" max="315" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="316" max="317" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="318" max="319" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="320" max="321" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="322" max="323" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="324" max="324" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="325" max="325" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="326" max="327" width="20" bestFit="1" customWidth="1"/>
     <col min="328" max="329" width="29" bestFit="1" customWidth="1"/>
-    <col min="330" max="331" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="332" max="333" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="334" max="335" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="336" max="337" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="338" max="339" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="340" max="341" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="342" max="343" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="344" max="345" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="346" max="347" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="348" max="349" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="330" max="331" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="332" max="333" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="334" max="335" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="336" max="337" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="338" max="339" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="340" max="341" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="342" max="343" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="344" max="345" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="346" max="347" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="348" max="349" width="32.453125" bestFit="1" customWidth="1"/>
     <col min="350" max="351" width="34" bestFit="1" customWidth="1"/>
-    <col min="352" max="353" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="354" max="354" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="355" max="355" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="356" max="357" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="358" max="359" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="360" max="361" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="362" max="363" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="364" max="365" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="366" max="367" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="368" max="369" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="370" max="371" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="372" max="373" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="374" max="375" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="376" max="377" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="352" max="353" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="354" max="354" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="355" max="355" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="356" max="357" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="358" max="359" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="360" max="361" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="362" max="363" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="364" max="365" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="366" max="367" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="368" max="369" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="370" max="371" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="372" max="373" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="374" max="375" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="376" max="377" width="27.81640625" bestFit="1" customWidth="1"/>
     <col min="378" max="379" width="19" bestFit="1" customWidth="1"/>
-    <col min="380" max="381" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="382" max="383" width="36.5703125" bestFit="1" customWidth="1"/>
-    <col min="384" max="385" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="386" max="387" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="388" max="389" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="380" max="381" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="382" max="383" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="384" max="385" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="386" max="387" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="388" max="389" width="33.453125" bestFit="1" customWidth="1"/>
     <col min="390" max="390" width="12" bestFit="1" customWidth="1"/>
-    <col min="391" max="393" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="394" max="395" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="396" max="397" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="398" max="399" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="400" max="401" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="402" max="403" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="404" max="405" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="406" max="407" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="391" max="393" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="394" max="395" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="396" max="397" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="398" max="399" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="400" max="401" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="402" max="403" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="404" max="405" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="406" max="407" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="408" max="409" width="33" bestFit="1" customWidth="1"/>
-    <col min="410" max="411" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="412" max="413" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="414" max="415" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="416" max="417" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="418" max="419" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="420" max="421" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="422" max="423" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="424" max="425" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="426" max="427" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="428" max="429" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="430" max="431" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="410" max="411" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="412" max="413" width="32.81640625" bestFit="1" customWidth="1"/>
+    <col min="414" max="415" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="416" max="417" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="418" max="419" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="420" max="421" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="422" max="423" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="424" max="425" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="426" max="427" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="428" max="429" width="25.453125" bestFit="1" customWidth="1"/>
+    <col min="430" max="431" width="22.54296875" bestFit="1" customWidth="1"/>
     <col min="432" max="433" width="29" bestFit="1" customWidth="1"/>
-    <col min="434" max="435" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="434" max="435" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="436" max="437" width="29" bestFit="1" customWidth="1"/>
-    <col min="438" max="439" width="49.42578125" bestFit="1" customWidth="1"/>
-    <col min="440" max="441" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="442" max="443" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="444" max="445" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="446" max="447" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="448" max="449" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="438" max="439" width="49.453125" bestFit="1" customWidth="1"/>
+    <col min="440" max="441" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="442" max="443" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="444" max="445" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="446" max="447" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="448" max="449" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="450" max="451" width="13" bestFit="1" customWidth="1"/>
-    <col min="452" max="453" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="454" max="455" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="452" max="453" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="454" max="455" width="34.26953125" bestFit="1" customWidth="1"/>
     <col min="456" max="457" width="19" bestFit="1" customWidth="1"/>
-    <col min="458" max="458" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="459" max="459" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="460" max="461" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="462" max="463" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="464" max="465" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="466" max="467" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="468" max="469" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="470" max="471" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="472" max="473" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="474" max="475" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="476" max="477" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="478" max="479" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="458" max="458" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="459" max="459" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="460" max="461" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="462" max="463" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="464" max="465" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="466" max="467" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="468" max="469" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="470" max="471" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="472" max="473" width="39.54296875" bestFit="1" customWidth="1"/>
+    <col min="474" max="475" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="476" max="477" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="478" max="479" width="15.1796875" bestFit="1" customWidth="1"/>
     <col min="480" max="481" width="24" bestFit="1" customWidth="1"/>
-    <col min="482" max="483" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="482" max="483" width="27.1796875" bestFit="1" customWidth="1"/>
     <col min="484" max="485" width="28" bestFit="1" customWidth="1"/>
-    <col min="486" max="487" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="488" max="489" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="490" max="491" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="492" max="493" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="486" max="487" width="37.81640625" bestFit="1" customWidth="1"/>
+    <col min="488" max="489" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="490" max="491" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="492" max="493" width="23.453125" bestFit="1" customWidth="1"/>
     <col min="494" max="495" width="33" bestFit="1" customWidth="1"/>
-    <col min="496" max="497" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="498" max="499" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="500" max="501" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="502" max="503" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="504" max="505" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="506" max="507" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="496" max="497" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="498" max="499" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="500" max="501" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="502" max="503" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="504" max="505" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="506" max="507" width="44.81640625" bestFit="1" customWidth="1"/>
     <col min="508" max="509" width="29" bestFit="1" customWidth="1"/>
-    <col min="510" max="511" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="510" max="511" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="512" max="513" width="20" bestFit="1" customWidth="1"/>
-    <col min="514" max="515" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="516" max="517" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="518" max="519" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="520" max="521" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="522" max="523" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="524" max="525" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="526" max="527" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="528" max="529" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="530" max="531" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="514" max="515" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="516" max="517" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="518" max="519" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="520" max="521" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="522" max="523" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="524" max="525" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="526" max="527" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="528" max="529" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="530" max="531" width="22.26953125" bestFit="1" customWidth="1"/>
     <col min="532" max="533" width="24" bestFit="1" customWidth="1"/>
     <col min="534" max="535" width="23" bestFit="1" customWidth="1"/>
-    <col min="536" max="537" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="538" max="539" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="536" max="537" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="538" max="539" width="13.1796875" bestFit="1" customWidth="1"/>
     <col min="540" max="541" width="24" bestFit="1" customWidth="1"/>
-    <col min="542" max="543" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="542" max="543" width="19.1796875" bestFit="1" customWidth="1"/>
     <col min="544" max="545" width="28" bestFit="1" customWidth="1"/>
-    <col min="546" max="547" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="548" max="549" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="550" max="551" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="552" max="553" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="554" max="555" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="556" max="557" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="558" max="559" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="546" max="547" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="548" max="549" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="550" max="551" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="552" max="553" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="554" max="555" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="556" max="557" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="558" max="559" width="34.453125" bestFit="1" customWidth="1"/>
     <col min="560" max="561" width="32" bestFit="1" customWidth="1"/>
-    <col min="562" max="563" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="564" max="565" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="566" max="567" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="568" max="569" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="570" max="571" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="572" max="573" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="574" max="575" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="576" max="577" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="578" max="579" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="580" max="581" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="562" max="563" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="564" max="565" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="566" max="567" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="568" max="569" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="570" max="571" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="572" max="573" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="574" max="575" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="576" max="577" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="578" max="579" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="580" max="581" width="27.7265625" bestFit="1" customWidth="1"/>
     <col min="582" max="583" width="27" bestFit="1" customWidth="1"/>
-    <col min="584" max="585" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="584" max="585" width="24.453125" bestFit="1" customWidth="1"/>
     <col min="586" max="587" width="18" bestFit="1" customWidth="1"/>
-    <col min="588" max="589" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="590" max="591" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="592" max="593" width="38.42578125" bestFit="1" customWidth="1"/>
-    <col min="594" max="595" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="596" max="597" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="598" max="599" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="600" max="601" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="602" max="603" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="604" max="605" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="606" max="607" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="608" max="609" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="610" max="611" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="588" max="589" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="590" max="591" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="592" max="593" width="38.453125" bestFit="1" customWidth="1"/>
+    <col min="594" max="595" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="596" max="597" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="598" max="599" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="600" max="601" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="602" max="603" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="604" max="605" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="606" max="607" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="608" max="609" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="610" max="611" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="612" max="613" width="32" bestFit="1" customWidth="1"/>
-    <col min="614" max="615" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="616" max="617" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="618" max="619" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="620" max="621" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="622" max="623" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="624" max="625" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="626" max="626" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="627" max="627" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="628" max="629" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="630" max="631" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="632" max="633" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="634" max="634" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="635" max="635" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="636" max="637" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="638" max="639" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="614" max="615" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="616" max="617" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="618" max="619" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="620" max="621" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="622" max="623" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="624" max="625" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="626" max="626" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="627" max="627" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="628" max="629" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="630" max="631" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="632" max="633" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="634" max="634" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="635" max="635" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="636" max="637" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="638" max="639" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="640" max="641" width="29" bestFit="1" customWidth="1"/>
     <col min="642" max="643" width="33" bestFit="1" customWidth="1"/>
-    <col min="644" max="645" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="646" max="647" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="648" max="649" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="650" max="651" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="652" max="653" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="654" max="655" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="656" max="657" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="658" max="659" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="660" max="661" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="662" max="663" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="664" max="665" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="666" max="667" width="39.28515625" bestFit="1" customWidth="1"/>
-    <col min="668" max="669" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="670" max="671" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="672" max="673" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="674" max="675" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="644" max="645" width="36.26953125" bestFit="1" customWidth="1"/>
+    <col min="646" max="647" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="648" max="649" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="650" max="651" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="652" max="653" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="654" max="655" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="656" max="657" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="658" max="659" width="33.453125" bestFit="1" customWidth="1"/>
+    <col min="660" max="661" width="27.1796875" bestFit="1" customWidth="1"/>
+    <col min="662" max="663" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="664" max="665" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="666" max="667" width="39.26953125" bestFit="1" customWidth="1"/>
+    <col min="668" max="669" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="670" max="671" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="672" max="673" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="674" max="675" width="30.1796875" bestFit="1" customWidth="1"/>
     <col min="676" max="677" width="30" bestFit="1" customWidth="1"/>
-    <col min="678" max="679" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="680" max="681" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="682" max="683" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="684" max="685" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="686" max="687" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="688" max="689" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="690" max="691" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="692" max="693" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="694" max="695" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="696" max="697" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="678" max="679" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="680" max="681" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="682" max="683" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="684" max="685" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="686" max="687" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="688" max="689" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="690" max="691" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="692" max="693" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="694" max="695" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="696" max="697" width="28.26953125" bestFit="1" customWidth="1"/>
     <col min="698" max="699" width="17" bestFit="1" customWidth="1"/>
-    <col min="700" max="701" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="702" max="703" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="704" max="705" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="706" max="707" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="708" max="708" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="709" max="709" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="710" max="711" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="712" max="713" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="700" max="701" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="702" max="703" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="704" max="705" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="706" max="707" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="708" max="708" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="709" max="709" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="710" max="711" width="39.1796875" bestFit="1" customWidth="1"/>
+    <col min="712" max="713" width="34.453125" bestFit="1" customWidth="1"/>
     <col min="714" max="715" width="22" bestFit="1" customWidth="1"/>
-    <col min="716" max="717" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="718" max="719" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="720" max="721" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="722" max="723" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="724" max="725" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="726" max="727" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="716" max="717" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="718" max="719" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="720" max="721" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="722" max="723" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="724" max="725" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="726" max="727" width="34.1796875" bestFit="1" customWidth="1"/>
     <col min="728" max="729" width="23" bestFit="1" customWidth="1"/>
-    <col min="730" max="731" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="732" max="732" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="733" max="733" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="734" max="735" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="736" max="737" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="730" max="731" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="732" max="732" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="733" max="733" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="734" max="735" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="736" max="737" width="22.7265625" bestFit="1" customWidth="1"/>
     <col min="738" max="739" width="16" bestFit="1" customWidth="1"/>
-    <col min="740" max="741" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="742" max="743" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="744" max="745" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="746" max="747" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="748" max="749" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="750" max="751" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="752" max="753" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="754" max="755" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="756" max="757" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="758" max="759" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="760" max="761" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="762" max="763" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="764" max="765" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="766" max="767" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="768" max="769" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="770" max="771" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="772" max="773" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="776" max="777" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="778" max="779" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="780" max="781" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="782" max="783" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="784" max="785" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="786" max="787" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="788" max="789" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="790" max="790" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="791" max="791" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="792" max="793" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="794" max="795" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="796" max="797" width="30.42578125" bestFit="1" customWidth="1"/>
-    <col min="798" max="799" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="800" max="801" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="802" max="803" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="804" max="805" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="806" max="807" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="808" max="809" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="810" max="811" width="23.85546875" bestFit="1" customWidth="1"/>
-    <col min="812" max="813" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="814" max="815" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="816" max="817" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="818" max="819" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="820" max="821" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="822" max="823" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="824" max="825" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="826" max="827" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="828" max="829" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="830" max="831" width="23.140625" bestFit="1" customWidth="1"/>
-    <col min="832" max="833" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="834" max="835" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="740" max="741" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="742" max="743" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="744" max="745" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="746" max="747" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="748" max="749" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="750" max="751" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="752" max="753" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="754" max="755" width="37.1796875" bestFit="1" customWidth="1"/>
+    <col min="756" max="757" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="758" max="759" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="760" max="761" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="762" max="763" width="32.453125" bestFit="1" customWidth="1"/>
+    <col min="764" max="765" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="766" max="767" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="768" max="769" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="770" max="771" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="772" max="773" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="776" max="777" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="778" max="779" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="780" max="781" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="782" max="783" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="784" max="785" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="786" max="787" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="788" max="789" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="790" max="790" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="791" max="791" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="792" max="793" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="794" max="795" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="796" max="797" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="798" max="799" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="800" max="801" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="802" max="803" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="804" max="805" width="35.453125" bestFit="1" customWidth="1"/>
+    <col min="806" max="807" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="808" max="809" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="810" max="811" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="812" max="813" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="814" max="815" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="816" max="817" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="818" max="819" width="27.453125" bestFit="1" customWidth="1"/>
+    <col min="820" max="821" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="822" max="823" width="39.1796875" bestFit="1" customWidth="1"/>
+    <col min="824" max="825" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="826" max="827" width="29.1796875" bestFit="1" customWidth="1"/>
+    <col min="828" max="829" width="28.26953125" bestFit="1" customWidth="1"/>
+    <col min="830" max="831" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="832" max="833" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="834" max="835" width="30.54296875" bestFit="1" customWidth="1"/>
     <col min="836" max="837" width="32" bestFit="1" customWidth="1"/>
-    <col min="838" max="839" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="840" max="841" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="842" max="843" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="844" max="845" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="846" max="847" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="848" max="849" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="850" max="851" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="852" max="853" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="854" max="855" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="856" max="857" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="858" max="859" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="860" max="861" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="862" max="863" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="864" max="865" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="866" max="867" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="868" max="869" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="870" max="871" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="872" max="873" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="874" max="875" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="876" max="877" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="878" max="881" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="882" max="883" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="884" max="885" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="886" max="887" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="888" max="889" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="890" max="891" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="892" max="893" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="894" max="895" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="896" max="897" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="898" max="899" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="900" max="901" width="39.42578125" bestFit="1" customWidth="1"/>
-    <col min="902" max="903" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="904" max="905" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="906" max="907" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="838" max="839" width="28.7265625" bestFit="1" customWidth="1"/>
+    <col min="840" max="841" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="842" max="843" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="844" max="845" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="846" max="847" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="848" max="849" width="37.54296875" bestFit="1" customWidth="1"/>
+    <col min="850" max="851" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="852" max="853" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="854" max="855" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="856" max="857" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="858" max="859" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="860" max="861" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="862" max="863" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="864" max="865" width="23.54296875" bestFit="1" customWidth="1"/>
+    <col min="866" max="867" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="868" max="869" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="870" max="871" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="872" max="873" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="874" max="875" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="876" max="877" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="878" max="881" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="882" max="883" width="22.7265625" bestFit="1" customWidth="1"/>
+    <col min="884" max="885" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="886" max="887" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="888" max="889" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="890" max="891" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="892" max="893" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="894" max="895" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="896" max="897" width="31.7265625" bestFit="1" customWidth="1"/>
+    <col min="898" max="899" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="900" max="901" width="39.453125" bestFit="1" customWidth="1"/>
+    <col min="902" max="903" width="37.1796875" bestFit="1" customWidth="1"/>
+    <col min="904" max="905" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="906" max="907" width="27.54296875" bestFit="1" customWidth="1"/>
     <col min="908" max="909" width="26" bestFit="1" customWidth="1"/>
-    <col min="910" max="911" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="912" max="913" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="914" max="915" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="916" max="917" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="918" max="919" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="920" max="921" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="922" max="923" width="37.85546875" bestFit="1" customWidth="1"/>
-    <col min="924" max="925" width="24.140625" bestFit="1" customWidth="1"/>
-    <col min="926" max="927" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="928" max="929" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="930" max="931" width="28.42578125" bestFit="1" customWidth="1"/>
-    <col min="932" max="933" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="934" max="935" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="936" max="937" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="938" max="939" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="940" max="941" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="942" max="943" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="944" max="945" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="946" max="947" width="40.28515625" bestFit="1" customWidth="1"/>
-    <col min="948" max="949" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="950" max="950" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="951" max="951" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="952" max="953" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="954" max="955" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="956" max="957" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="958" max="959" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="960" max="961" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="962" max="963" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="964" max="965" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="966" max="967" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="968" max="969" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="970" max="971" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="972" max="973" width="26.5703125" bestFit="1" customWidth="1"/>
-    <col min="974" max="975" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="976" max="977" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="978" max="979" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="980" max="981" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="982" max="983" width="37.140625" bestFit="1" customWidth="1"/>
-    <col min="984" max="985" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="986" max="987" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="988" max="989" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="990" max="991" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="992" max="993" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="994" max="995" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="996" max="997" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="998" max="999" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="1000" max="1001" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="1002" max="1003" width="32.140625" bestFit="1" customWidth="1"/>
-    <col min="1004" max="1005" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="1006" max="1007" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="1008" max="1009" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="910" max="911" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="912" max="913" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="914" max="915" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="916" max="917" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="918" max="919" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="920" max="921" width="24.81640625" bestFit="1" customWidth="1"/>
+    <col min="922" max="923" width="37.81640625" bestFit="1" customWidth="1"/>
+    <col min="924" max="925" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="926" max="927" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="928" max="929" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="930" max="931" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="932" max="933" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="934" max="935" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="936" max="937" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="938" max="939" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="940" max="941" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="942" max="943" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="944" max="945" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="946" max="947" width="40.26953125" bestFit="1" customWidth="1"/>
+    <col min="948" max="949" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="950" max="950" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="951" max="951" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="952" max="953" width="26.81640625" bestFit="1" customWidth="1"/>
+    <col min="954" max="955" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="956" max="957" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="958" max="959" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="960" max="961" width="26.453125" bestFit="1" customWidth="1"/>
+    <col min="962" max="963" width="37.453125" bestFit="1" customWidth="1"/>
+    <col min="964" max="965" width="34.81640625" bestFit="1" customWidth="1"/>
+    <col min="966" max="967" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="968" max="969" width="29.81640625" bestFit="1" customWidth="1"/>
+    <col min="970" max="971" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="972" max="973" width="26.54296875" bestFit="1" customWidth="1"/>
+    <col min="974" max="975" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="976" max="977" width="42.54296875" bestFit="1" customWidth="1"/>
+    <col min="978" max="979" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="980" max="981" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="982" max="983" width="37.1796875" bestFit="1" customWidth="1"/>
+    <col min="984" max="985" width="25.1796875" bestFit="1" customWidth="1"/>
+    <col min="986" max="987" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="988" max="989" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="990" max="991" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="992" max="993" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="994" max="995" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="996" max="997" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="998" max="999" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="1000" max="1001" width="25.7265625" bestFit="1" customWidth="1"/>
+    <col min="1002" max="1003" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="1004" max="1005" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="1006" max="1007" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="1008" max="1009" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="1010" max="1011" width="20" bestFit="1" customWidth="1"/>
-    <col min="1012" max="1013" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="1014" max="1015" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="1016" max="1017" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="1018" max="1019" width="34.42578125" bestFit="1" customWidth="1"/>
-    <col min="1020" max="1021" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="1022" max="1023" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="1012" max="1013" width="27.54296875" bestFit="1" customWidth="1"/>
+    <col min="1014" max="1015" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="1016" max="1017" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="1018" max="1019" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="1020" max="1021" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="1022" max="1023" width="27.453125" bestFit="1" customWidth="1"/>
     <col min="1024" max="1025" width="27" bestFit="1" customWidth="1"/>
-    <col min="1026" max="1027" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="1028" max="1029" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1031" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1027" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="1028" max="1029" width="24.54296875" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1031" width="25.453125" bestFit="1" customWidth="1"/>
     <col min="1032" max="1033" width="18" bestFit="1" customWidth="1"/>
-    <col min="1034" max="1035" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="1036" max="1037" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="1038" max="1039" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="1040" max="1041" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="1042" max="1043" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="1044" max="1045" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="1046" max="1047" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="1048" max="1049" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="1050" max="1051" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1034" max="1035" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1037" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="1038" max="1039" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="1040" max="1041" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="1042" max="1043" width="30.1796875" bestFit="1" customWidth="1"/>
+    <col min="1044" max="1045" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="1046" max="1047" width="33.1796875" bestFit="1" customWidth="1"/>
+    <col min="1048" max="1049" width="36.453125" bestFit="1" customWidth="1"/>
+    <col min="1050" max="1051" width="29.26953125" bestFit="1" customWidth="1"/>
     <col min="1052" max="1053" width="23" bestFit="1" customWidth="1"/>
-    <col min="1054" max="1055" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="1056" max="1057" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="1058" max="1059" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="1060" max="1061" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="1062" max="1063" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="1064" max="1065" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="1066" max="1067" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="1068" max="1069" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="1070" max="1071" width="37.85546875" bestFit="1" customWidth="1"/>
+    <col min="1054" max="1055" width="22.81640625" bestFit="1" customWidth="1"/>
+    <col min="1056" max="1057" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="1058" max="1059" width="21.1796875" bestFit="1" customWidth="1"/>
+    <col min="1060" max="1061" width="41.453125" bestFit="1" customWidth="1"/>
+    <col min="1062" max="1063" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="1064" max="1065" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="1066" max="1067" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="1068" max="1069" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="1070" max="1071" width="37.81640625" bestFit="1" customWidth="1"/>
     <col min="1072" max="1073" width="24" bestFit="1" customWidth="1"/>
-    <col min="1074" max="1075" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1074" max="1075" width="22.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1075">
+    <row r="1" spans="1:1075" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>550</v>
       </c>
@@ -6446,7 +6451,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="2" spans="1:1075">
+    <row r="2" spans="1:1075" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>551</v>
       </c>
@@ -9673,7 +9678,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="3" spans="1:1075">
+    <row r="3" spans="1:1075" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -12900,7 +12905,7 @@
         <v>-0.50546538721438505</v>
       </c>
     </row>
-    <row r="4" spans="1:1075">
+    <row r="4" spans="1:1075" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -16127,7 +16132,7 @@
         <v>-0.289929417069623</v>
       </c>
     </row>
-    <row r="5" spans="1:1075">
+    <row r="5" spans="1:1075" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -19354,7 +19359,7 @@
         <v>1.95115435301996</v>
       </c>
     </row>
-    <row r="6" spans="1:1075">
+    <row r="6" spans="1:1075" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -22581,7 +22586,7 @@
         <v>0.375907311729611</v>
       </c>
     </row>
-    <row r="7" spans="1:1075">
+    <row r="7" spans="1:1075" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -25808,7 +25813,7 @@
         <v>-0.75831096044082702</v>
       </c>
     </row>
-    <row r="8" spans="1:1075">
+    <row r="8" spans="1:1075" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -29035,7 +29040,7 @@
         <v>-0.75831096044082702</v>
       </c>
     </row>
-    <row r="9" spans="1:1075">
+    <row r="9" spans="1:1075" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -32262,7 +32267,7 @@
         <v>-0.75831096044082702</v>
       </c>
     </row>
-    <row r="10" spans="1:1075">
+    <row r="10" spans="1:1075" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -35489,7 +35494,7 @@
         <v>-0.75831096044082702</v>
       </c>
     </row>
-    <row r="11" spans="1:1075">
+    <row r="11" spans="1:1075" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -38716,7 +38721,7 @@
         <v>-0.75831096044082702</v>
       </c>
     </row>
-    <row r="12" spans="1:1075">
+    <row r="12" spans="1:1075" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -41943,7 +41948,7 @@
         <v>0.95422891765020401</v>
       </c>
     </row>
-    <row r="13" spans="1:1075">
+    <row r="13" spans="1:1075" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -45170,7 +45175,7 @@
         <v>1.8697825120278699</v>
       </c>
     </row>
-    <row r="14" spans="1:1075">
+    <row r="14" spans="1:1075" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -48397,7 +48402,7 @@
         <v>-0.650301727617833</v>
       </c>
     </row>
-    <row r="15" spans="1:1075">
+    <row r="15" spans="1:1075" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -51630,7 +51635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -51640,18 +51645,18 @@
       <selection pane="bottomRight" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="24.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="32" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>550</v>
       </c>
@@ -51680,7 +51685,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>551</v>
       </c>
@@ -51709,7 +51714,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -51738,7 +51743,7 @@
         <v>-1.06309691893796</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -51767,7 +51772,7 @@
         <v>-0.72317968880037697</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -51796,7 +51801,7 @@
         <v>2.11328667232877</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -51825,7 +51830,7 @@
         <v>0.700759640057529</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -51854,7 +51859,7 @@
         <v>0.914707585432042</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -51883,7 +51888,7 @@
         <v>-1.06309691893796</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -51912,7 +51917,7 @@
         <v>3.8160323125591498E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -51941,7 +51946,7 @@
         <v>-1.0038716432205199</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -51970,7 +51975,7 @@
         <v>-0.80200111311260902</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -51999,7 +52004,7 @@
         <v>0.71238420353995702</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -52028,7 +52033,7 @@
         <v>-0.79062849889293296</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -52057,7 +52062,7 @@
         <v>0.19106690609149901</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -52086,12 +52091,12 @@
         <v>0.77550945132696603</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>552</v>
       </c>
@@ -52105,7 +52110,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>553</v>
       </c>
@@ -52125,7 +52130,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -52162,7 +52167,7 @@
         <v>-1.006954640813686</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -52199,7 +52204,7 @@
         <v>-0.66413619954650049</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -52236,7 +52241,7 @@
         <v>2.2499414321982232</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -52273,7 +52278,7 @@
         <v>0.62529199505642363</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -52310,7 +52315,7 @@
         <v>0.52025390135922811</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -52347,7 +52352,7 @@
         <v>-1.006954640813686</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -52384,7 +52389,7 @@
         <v>-0.12903835309752071</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -52421,7 +52426,7 @@
         <v>-0.96786852509825017</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -52458,7 +52463,7 @@
         <v>-0.83261418662225961</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -52495,7 +52500,7 @@
         <v>1.0349954991389538</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -52532,7 +52537,7 @@
         <v>-0.64643328003844047</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>11</v>
       </c>
@@ -52569,7 +52574,7 @@
         <v>4.1627388318272512E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -52606,7 +52611,7 @@
         <v>0.81935425944568763</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>555</v>
       </c>
@@ -52627,7 +52632,7 @@
         <v>4.5787725566652998E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>556</v>
       </c>
@@ -52655,7 +52660,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V59"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
@@ -52665,15 +52670,15 @@
       <selection pane="bottomRight" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>550</v>
       </c>
@@ -52684,7 +52689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>551</v>
       </c>
@@ -52695,7 +52700,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -52706,7 +52711,7 @@
         <v>1.67865891138622</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -52717,7 +52722,7 @@
         <v>0.318342770386637</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -52728,7 +52733,7 @@
         <v>-1.2721205520484899</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -52739,7 +52744,7 @@
         <v>-0.58346219982232606</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -52750,7 +52755,7 @@
         <v>0.75194369226602997</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -52761,7 +52766,7 @@
         <v>2.0837047852143201E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -52772,7 +52777,7 @@
         <v>0.44377047308142398</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -52783,7 +52788,7 @@
         <v>0.20505568648672901</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -52794,7 +52799,7 @@
         <v>0.33244028642537199</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -52805,7 +52810,7 @@
         <v>-0.987743164297326</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -52816,7 +52821,7 @@
         <v>-1.1524417709066199</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -52827,7 +52832,7 @@
         <v>1.5139396170824799</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -52838,7 +52843,7 @@
         <v>-1.26922079789228</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.35">
       <c r="E20" t="s">
         <v>558</v>
       </c>
@@ -52852,7 +52857,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>550</v>
       </c>
@@ -52893,7 +52898,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>551</v>
       </c>
@@ -52910,7 +52915,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -52959,7 +52964,7 @@
         <v>-1.9079786039820981</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>1</v>
       </c>
@@ -53008,7 +53013,7 @@
         <v>-0.92201226183314622</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -53057,7 +53062,7 @@
         <v>1.2941739196191917</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -53106,7 +53111,7 @@
         <v>-5.7610348876383978E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>4</v>
       </c>
@@ -53155,7 +53160,7 @@
         <v>0.31781096350036231</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -53204,7 +53209,7 @@
         <v>0.30856532180618218</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -53253,7 +53258,7 @@
         <v>0.35245875717036229</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>7</v>
       </c>
@@ -53302,7 +53307,7 @@
         <v>0.24874713397758708</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -53351,7 +53356,7 @@
         <v>9.1107407980986405E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:22">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -53400,7 +53405,7 @@
         <v>0.41751744776022082</v>
       </c>
     </row>
-    <row r="34" spans="1:22">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -53449,7 +53454,7 @@
         <v>0.94229134068601006</v>
       </c>
     </row>
-    <row r="35" spans="1:22">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -53498,7 +53503,7 @@
         <v>-1.9190825412062369</v>
       </c>
     </row>
-    <row r="36" spans="1:22">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -53547,7 +53552,7 @@
         <v>0.83401146339696586</v>
       </c>
     </row>
-    <row r="38" spans="1:22">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B38">
         <f>AVERAGE(B24:B36)</f>
         <v>3.5788836865084619</v>
@@ -53573,7 +53578,7 @@
         <v>0.95975755173806288</v>
       </c>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.35">
       <c r="B39">
         <f>_xlfn.STDEV.S(B24:B36)</f>
         <v>0.6632027787867012</v>
@@ -53599,13 +53604,13 @@
         <v>0.16178055046681883</v>
       </c>
     </row>
-    <row r="41" spans="1:22">
-      <c r="E41" s="1" t="s">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="E41" s="12" t="s">
         <v>560</v>
       </c>
-      <c r="F41" s="1"/>
+      <c r="F41" s="12"/>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>550</v>
       </c>
@@ -53616,7 +53621,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="43" spans="1:22">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>551</v>
       </c>
@@ -53627,7 +53632,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="44" spans="1:22">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -53646,7 +53651,7 @@
         <v>1.751339001380636</v>
       </c>
     </row>
-    <row r="45" spans="1:22">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>1</v>
       </c>
@@ -53665,7 +53670,7 @@
         <v>-0.89366995376574232</v>
       </c>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -53684,7 +53689,7 @@
         <v>-0.82698203412858595</v>
       </c>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -53703,7 +53708,7 @@
         <v>-0.80628094925307636</v>
       </c>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>4</v>
       </c>
@@ -53722,7 +53727,7 @@
         <v>0.77283386636168427</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -53741,7 +53746,7 @@
         <v>2.5361520813907069E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -53760,7 +53765,7 @@
         <v>-0.51560207155577686</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>7</v>
       </c>
@@ -53779,7 +53784,7 @@
         <v>-0.56910810396602163</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -53798,7 +53803,7 @@
         <v>-0.2554457378374001</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>9</v>
       </c>
@@ -53817,7 +53822,7 @@
         <v>1.6390466231624354E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -53836,7 +53841,7 @@
         <v>0.26400627934945514</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -53855,7 +53860,7 @@
         <v>2.0901169563456259</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -53874,7 +53879,7 @@
         <v>-1.0529592399763292</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B58">
         <f>AVERAGE(B44:B56)</f>
         <v>4.7864398836094398E-2</v>
@@ -53884,7 +53889,7 @@
         <v>1.3107121357053384E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B59">
         <f>_xlfn.STDEV.S(B44:B56)</f>
         <v>4.4808855322607088E-2</v>
@@ -53904,28 +53909,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF98"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="I55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
+      <selection pane="bottomRight" activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="9" max="9" width="16.7265625" customWidth="1"/>
+    <col min="10" max="10" width="15.54296875" customWidth="1"/>
+    <col min="12" max="12" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>550</v>
       </c>
@@ -53942,7 +53947,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>551</v>
       </c>
@@ -53953,7 +53958,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -53964,7 +53969,7 @@
         <v>1.67865891138622</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -53975,7 +53980,7 @@
         <v>0.318342770386637</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -53986,7 +53991,7 @@
         <v>-1.2721205520484899</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -53997,7 +54002,7 @@
         <v>-0.58346219982232606</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -54008,7 +54013,7 @@
         <v>0.75194369226602997</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -54019,7 +54024,7 @@
         <v>2.0837047852143201E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -54030,7 +54035,7 @@
         <v>0.44377047308142398</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -54041,7 +54046,7 @@
         <v>0.20505568648672901</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -54052,7 +54057,7 @@
         <v>0.33244028642537199</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -54063,7 +54068,7 @@
         <v>-0.987743164297326</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -54074,7 +54079,7 @@
         <v>-1.1524417709066199</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -54085,7 +54090,7 @@
         <v>1.5139396170824799</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -54096,1064 +54101,1070 @@
         <v>-1.26922079789228</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
       <c r="B17">
         <f>AVERAGE(B3:B15)</f>
         <v>3.9704761605673937</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15.75" thickBot="1">
+    <row r="18" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18">
         <f>STDEV(B3:B15)</f>
         <v>1.1448102964648721</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-      <c r="W19" s="3"/>
-      <c r="X19" s="4"/>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="3"/>
     </row>
-    <row r="20" spans="1:24" ht="15" customHeight="1">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6" t="s">
+    <row r="20" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="7" t="s">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="M20" s="7"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6" t="s">
+      <c r="M20" s="6"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="6" t="s">
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="T20" s="6"/>
-      <c r="X20" s="8"/>
+      <c r="V20" s="5"/>
+      <c r="Z20" s="7"/>
     </row>
-    <row r="21" spans="1:24">
-      <c r="A21" s="5" t="s">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A21" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>7</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>7</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5">
         <v>28</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="5">
         <v>28</v>
       </c>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="6"/>
-      <c r="T21" s="6"/>
-      <c r="X21" s="8"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="Z21" s="7"/>
     </row>
-    <row r="22" spans="1:24" ht="30">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:26" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="9" t="s">
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="J22" s="9" t="s">
+      <c r="J22" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6" t="s">
+      <c r="K22" s="5"/>
+      <c r="L22" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="M22" s="6" t="s">
+      <c r="M22" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6" t="s">
+      <c r="N22" s="5"/>
+      <c r="O22" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="Q22" s="6" t="s">
+      <c r="P22" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="R22" s="6"/>
-      <c r="S22" s="6" t="s">
+      <c r="Q22" s="5"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="T22" s="6" t="s">
+      <c r="V22" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="X22" s="8"/>
+      <c r="Z22" s="7"/>
     </row>
-    <row r="23" spans="1:24">
-      <c r="A23" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="6">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="5">
         <v>1.4323633996093601</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>0.24394860989301401</v>
       </c>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5">
         <f>B23/B3</f>
         <v>0.24309392265193441</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <f>STANDARDIZE(E23,$E$37,$E$38)</f>
         <v>-0.96878296439432199</v>
       </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6">
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5">
         <v>0.14023138177993699</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <v>-0.695015725653373</v>
       </c>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6">
+      <c r="K23" s="5"/>
+      <c r="L23" s="5">
         <f>I23/B3</f>
         <v>2.3799405014874639E-2</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="5">
         <f>STANDARDIZE(L23,$L$37,$L$38)</f>
         <v>-0.72891619279882403</v>
       </c>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6">
+      <c r="N23" s="5"/>
+      <c r="O23" s="5">
         <f>B23+I23</f>
         <v>1.5725947813892971</v>
       </c>
-      <c r="Q23" s="6">
-        <f>STANDARDIZE(P23,$P$37,$P$38)</f>
+      <c r="P23" s="5">
+        <f>STANDARDIZE(O23,$O$37,$O$38)</f>
         <v>-0.37385556631300465</v>
       </c>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6">
-        <f>P23/B3</f>
+      <c r="Q23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5">
+        <f>O23/B3</f>
         <v>0.26689332766680907</v>
       </c>
-      <c r="T23" s="6">
-        <f>STANDARDIZE(S23,$S$37,$S$38)</f>
+      <c r="V23" s="5">
+        <f t="shared" ref="V23:V35" si="0">STANDARDIZE(U23,$U$37,$U$38)</f>
         <v>-0.87455943062409036</v>
       </c>
-      <c r="X23" s="8"/>
+      <c r="Z23" s="7"/>
     </row>
-    <row r="24" spans="1:24">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>1.3058100429085</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>-0.212636475773854</v>
       </c>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6">
-        <f t="shared" ref="E24:E35" si="0">B24/B4</f>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5">
+        <f t="shared" ref="E24:E35" si="1">B24/B4</f>
         <v>0.30123060460139084</v>
       </c>
-      <c r="F24" s="6">
-        <f t="shared" ref="F24:F35" si="1">STANDARDIZE(E24,$E$37,$E$38)</f>
+      <c r="F24" s="5">
+        <f t="shared" ref="F24:F35" si="2">STANDARDIZE(E24,$E$37,$E$38)</f>
         <v>-0.52185913864462707</v>
       </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6">
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5">
         <v>0.43372376203177498</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="5">
         <v>0.138203132574856</v>
       </c>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6">
-        <f t="shared" ref="L24:L35" si="2">I24/B4</f>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5">
+        <f t="shared" ref="L24:L35" si="3">I24/B4</f>
         <v>0.1000535045478864</v>
       </c>
-      <c r="M24" s="6">
-        <f t="shared" ref="M24:M35" si="3">STANDARDIZE(L24,$L$37,$L$38)</f>
+      <c r="M24" s="5">
+        <f t="shared" ref="M24:M35" si="4">STANDARDIZE(L24,$L$37,$L$38)</f>
         <v>-0.19383788928152798</v>
       </c>
-      <c r="N24" s="6"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6">
+      <c r="N24" s="5"/>
+      <c r="O24" s="5">
         <f>B24+I24</f>
         <v>1.7395338049402751</v>
       </c>
-      <c r="Q24" s="6">
-        <f>STANDARDIZE(P24,$P$37,$P$38)</f>
+      <c r="P24" s="5">
+        <f>STANDARDIZE(O24,$O$37,$O$38)</f>
         <v>-2.163997519815887E-2</v>
       </c>
-      <c r="R24" s="6"/>
-      <c r="S24" s="6">
-        <f>P24/B4</f>
+      <c r="Q24" s="5"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5">
+        <f>O24/B4</f>
         <v>0.40128410914927726</v>
       </c>
-      <c r="T24" s="6">
-        <f>STANDARDIZE(S24,$S$37,$S$38)</f>
+      <c r="V24" s="5">
+        <f t="shared" si="0"/>
         <v>-0.36332321221738823</v>
       </c>
-      <c r="X24" s="8"/>
+      <c r="Z24" s="7"/>
     </row>
-    <row r="25" spans="1:24">
-      <c r="A25" s="5" t="s">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>1.4614209635470401</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>0.348783840388876</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6">
-        <f t="shared" si="0"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5">
+        <f t="shared" si="1"/>
         <v>0.58128078817733875</v>
       </c>
-      <c r="F25" s="6">
-        <f t="shared" si="1"/>
+      <c r="F25" s="5">
+        <f t="shared" si="2"/>
         <v>1.6310174144837588</v>
       </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6">
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5">
         <v>0.92886925649176399</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="5">
         <v>1.5439110531579801</v>
       </c>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6">
-        <f t="shared" si="2"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5">
+        <f t="shared" si="3"/>
         <v>0.36945812807881745</v>
       </c>
-      <c r="M25" s="6">
-        <f t="shared" si="3"/>
+      <c r="M25" s="5">
+        <f t="shared" si="4"/>
         <v>1.6965859672908019</v>
       </c>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6">
+      <c r="N25" s="5"/>
+      <c r="O25" s="5">
         <f>B25+I25</f>
         <v>2.3902902200388043</v>
       </c>
-      <c r="Q25" s="6">
-        <f>STANDARDIZE(P25,$P$37,$P$38)</f>
+      <c r="P25" s="5">
+        <f>STANDARDIZE(O25,$O$37,$O$38)</f>
         <v>1.3513556883694662</v>
       </c>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6">
-        <f>P25/B5</f>
+      <c r="Q25" s="5"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5">
+        <f>O25/B5</f>
         <v>0.95073891625615625</v>
       </c>
-      <c r="T25" s="6">
-        <f>STANDARDIZE(S25,$S$37,$S$38)</f>
+      <c r="V25" s="5">
+        <f t="shared" si="0"/>
         <v>1.7268588275927563</v>
       </c>
-      <c r="X25" s="8"/>
+      <c r="Z25" s="7"/>
     </row>
-    <row r="26" spans="1:24">
-      <c r="A26" s="5" t="s">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>1.4025290455099799</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="5">
         <v>0.13631083972720401</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6">
-        <f t="shared" si="0"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5">
+        <f t="shared" si="1"/>
         <v>0.42468415937803622</v>
       </c>
-      <c r="F26" s="6">
-        <f t="shared" si="1"/>
+      <c r="F26" s="5">
+        <f t="shared" si="2"/>
         <v>0.42718599350010039</v>
       </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6">
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5">
         <v>0.41080942294113898</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="5">
         <v>7.3149793071554906E-2</v>
       </c>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6">
-        <f t="shared" si="2"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5">
+        <f t="shared" si="3"/>
         <v>0.12439261418853256</v>
       </c>
-      <c r="M26" s="6">
-        <f t="shared" si="3"/>
+      <c r="M26" s="5">
+        <f t="shared" si="4"/>
         <v>-2.3049307744342846E-2</v>
       </c>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6">
+      <c r="N26" s="5"/>
+      <c r="O26" s="5">
         <f>B26+I26</f>
         <v>1.8133384684511189</v>
       </c>
-      <c r="Q26" s="6">
-        <f>STANDARDIZE(P26,$P$37,$P$38)</f>
+      <c r="P26" s="5">
+        <f>STANDARDIZE(O26,$O$37,$O$38)</f>
         <v>0.13407648122142732</v>
       </c>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6">
-        <f>P26/B6</f>
+      <c r="Q26" s="5"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5">
+        <f>O26/B6</f>
         <v>0.54907677356656881</v>
       </c>
-      <c r="T26" s="6">
-        <f>STANDARDIZE(S26,$S$37,$S$38)</f>
+      <c r="V26" s="5">
+        <f t="shared" si="0"/>
         <v>0.19889513365035719</v>
       </c>
-      <c r="X26" s="8"/>
+      <c r="Z26" s="7"/>
     </row>
-    <row r="27" spans="1:24">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>1.88933873144399</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <v>1.89264546371542</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6">
-        <f t="shared" si="0"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5">
+        <f t="shared" si="1"/>
         <v>0.39106145251396535</v>
       </c>
-      <c r="F27" s="6">
-        <f t="shared" si="1"/>
+      <c r="F27" s="5">
+        <f t="shared" si="2"/>
         <v>0.16871254300605171</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6">
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5">
         <v>0.13495276653171401</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="5">
         <v>-0.71000160626252695</v>
       </c>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6">
-        <f t="shared" si="2"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5">
+        <f t="shared" si="3"/>
         <v>2.7932960893854757E-2</v>
       </c>
-      <c r="M27" s="6">
-        <f t="shared" si="3"/>
+      <c r="M27" s="5">
+        <f t="shared" si="4"/>
         <v>-0.69991085301035649</v>
       </c>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6">
+      <c r="N27" s="5"/>
+      <c r="O27" s="5">
         <f>B27+I27</f>
         <v>2.0242914979757041</v>
       </c>
-      <c r="Q27" s="6">
-        <f>STANDARDIZE(P27,$P$37,$P$38)</f>
+      <c r="P27" s="5">
+        <f>STANDARDIZE(O27,$O$37,$O$38)</f>
         <v>0.57915483624594966</v>
       </c>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6">
-        <f>P27/B7</f>
+      <c r="Q27" s="5"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5">
+        <f>O27/B7</f>
         <v>0.41899441340782007</v>
       </c>
-      <c r="T27" s="6">
-        <f>STANDARDIZE(S27,$S$37,$S$38)</f>
+      <c r="V27" s="5">
+        <f t="shared" si="0"/>
         <v>-0.29595141129404373</v>
       </c>
-      <c r="X27" s="8"/>
+      <c r="Z27" s="7"/>
     </row>
-    <row r="28" spans="1:24">
-      <c r="A28" s="5" t="s">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>1.4946527509341601</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <v>0.46867902836777398</v>
       </c>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6">
-        <f t="shared" si="0"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5">
+        <f t="shared" si="1"/>
         <v>0.37419354838709701</v>
       </c>
-      <c r="F28" s="6">
-        <f t="shared" si="1"/>
+      <c r="F28" s="5">
+        <f t="shared" si="2"/>
         <v>3.9041086156946986E-2</v>
       </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6">
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5">
         <v>0.103079500064425</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="5">
         <v>-0.80048915715257196</v>
       </c>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6">
-        <f t="shared" si="2"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5">
+        <f t="shared" si="3"/>
         <v>2.5806451612903281E-2</v>
       </c>
-      <c r="M28" s="6">
-        <f t="shared" si="3"/>
+      <c r="M28" s="5">
+        <f t="shared" si="4"/>
         <v>-0.71483266030247083</v>
       </c>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6">
+      <c r="N28" s="5"/>
+      <c r="O28" s="5">
         <f>B28+I28</f>
         <v>1.597732250998585</v>
       </c>
-      <c r="Q28" s="6">
-        <f>STANDARDIZE(P28,$P$37,$P$38)</f>
+      <c r="P28" s="5">
+        <f>STANDARDIZE(O28,$O$37,$O$38)</f>
         <v>-0.32081938262607229</v>
       </c>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6">
-        <f>P28/B8</f>
+      <c r="Q28" s="5"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5">
+        <f>O28/B8</f>
         <v>0.40000000000000024</v>
       </c>
-      <c r="T28" s="6">
-        <f>STANDARDIZE(S28,$S$37,$S$38)</f>
+      <c r="V28" s="5">
+        <f t="shared" si="0"/>
         <v>-0.36820809418813166</v>
       </c>
-      <c r="X28" s="8"/>
+      <c r="Z28" s="7"/>
     </row>
-    <row r="29" spans="1:24">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>1.4277126540426801</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <v>0.22716943375472901</v>
       </c>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6">
-        <f t="shared" si="0"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5">
+        <f t="shared" si="1"/>
         <v>0.31879194630872493</v>
       </c>
-      <c r="F29" s="6">
-        <f t="shared" si="1"/>
+      <c r="F29" s="5">
+        <f t="shared" si="2"/>
         <v>-0.38685690325797528</v>
       </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6">
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5">
         <v>0.210399759543132</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="5">
         <v>-0.49580913789321202</v>
       </c>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6">
-        <f t="shared" si="2"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5">
+        <f t="shared" si="3"/>
         <v>4.6979865771812138E-2</v>
       </c>
-      <c r="M29" s="6">
-        <f t="shared" si="3"/>
+      <c r="M29" s="5">
+        <f t="shared" si="4"/>
         <v>-0.56625790042463198</v>
       </c>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6">
+      <c r="N29" s="5"/>
+      <c r="O29" s="5">
         <f>B29+I29</f>
         <v>1.6381124135858121</v>
       </c>
-      <c r="Q29" s="6">
-        <f>STANDARDIZE(P29,$P$37,$P$38)</f>
+      <c r="P29" s="5">
+        <f>STANDARDIZE(O29,$O$37,$O$38)</f>
         <v>-0.23562346777977122</v>
       </c>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6">
-        <f>P29/B9</f>
+      <c r="Q29" s="5"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5">
+        <f>O29/B9</f>
         <v>0.36577181208053705</v>
       </c>
-      <c r="T29" s="6">
-        <f>STANDARDIZE(S29,$S$37,$S$38)</f>
+      <c r="V29" s="5">
+        <f t="shared" si="0"/>
         <v>-0.49841560665164908</v>
       </c>
-      <c r="X29" s="8"/>
+      <c r="Z29" s="7"/>
     </row>
-    <row r="30" spans="1:24">
-      <c r="A30" s="5" t="s">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <v>1.3085260290801499</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>-0.20283761455688201</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6">
-        <f t="shared" si="0"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5">
+        <f t="shared" si="1"/>
         <v>0.31116663463386474</v>
       </c>
-      <c r="F30" s="6">
-        <f t="shared" si="1"/>
+      <c r="F30" s="5">
+        <f t="shared" si="2"/>
         <v>-0.44547623535582637</v>
       </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6">
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5">
         <v>8.4864257599392201E-2</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="5">
         <v>-0.85220185755059097</v>
       </c>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6">
-        <f t="shared" si="2"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5">
+        <f t="shared" si="3"/>
         <v>2.0180665000960996E-2</v>
       </c>
-      <c r="M30" s="6">
-        <f t="shared" si="3"/>
+      <c r="M30" s="5">
+        <f t="shared" si="4"/>
         <v>-0.75430904746989391</v>
       </c>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6">
+      <c r="N30" s="5"/>
+      <c r="O30" s="5">
         <f>B30+I30</f>
         <v>1.393390286679542</v>
       </c>
-      <c r="Q30" s="6">
-        <f>STANDARDIZE(P30,$P$37,$P$38)</f>
+      <c r="P30" s="5">
+        <f>STANDARDIZE(O30,$O$37,$O$38)</f>
         <v>-0.75194940975374558</v>
       </c>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6">
-        <f>P30/B10</f>
+      <c r="Q30" s="5"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5">
+        <f>O30/B10</f>
         <v>0.33134729963482568</v>
       </c>
-      <c r="T30" s="6">
-        <f>STANDARDIZE(S30,$S$37,$S$38)</f>
+      <c r="V30" s="5">
+        <f t="shared" si="0"/>
         <v>-0.6293699576056675</v>
       </c>
-      <c r="X30" s="8"/>
+      <c r="Z30" s="7"/>
     </row>
-    <row r="31" spans="1:24">
-      <c r="A31" s="5" t="s">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>1.14019281474921</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>-0.81015801355309602</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6">
-        <f t="shared" si="0"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5">
+        <f t="shared" si="1"/>
         <v>0.26204960224613977</v>
       </c>
-      <c r="F31" s="6">
-        <f t="shared" si="1"/>
+      <c r="F31" s="5">
+        <f t="shared" si="2"/>
         <v>-0.82306180247295624</v>
       </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6">
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5">
         <v>6.8207963025175899E-2</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="5">
         <v>-0.89948873680630703</v>
       </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6">
-        <f t="shared" si="2"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5">
+        <f t="shared" si="3"/>
         <v>1.5676181562938707E-2</v>
       </c>
-      <c r="M31" s="6">
-        <f t="shared" si="3"/>
+      <c r="M31" s="5">
+        <f t="shared" si="4"/>
         <v>-0.78591720192977688</v>
       </c>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6">
+      <c r="N31" s="5"/>
+      <c r="O31" s="5">
         <f>B31+I31</f>
         <v>1.2084007777743859</v>
       </c>
-      <c r="Q31" s="6">
-        <f>STANDARDIZE(P31,$P$37,$P$38)</f>
+      <c r="P31" s="5">
+        <f>STANDARDIZE(O31,$O$37,$O$38)</f>
         <v>-1.1422487408695641</v>
       </c>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6">
-        <f>P31/B11</f>
+      <c r="Q31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5">
+        <f>O31/B11</f>
         <v>0.27772578380907853</v>
       </c>
-      <c r="T31" s="6">
-        <f>STANDARDIZE(S31,$S$37,$S$38)</f>
+      <c r="V31" s="5">
+        <f t="shared" si="0"/>
         <v>-0.83335166433877605</v>
       </c>
-      <c r="X31" s="8"/>
+      <c r="Z31" s="7"/>
     </row>
-    <row r="32" spans="1:24">
-      <c r="A32" s="5" t="s">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>1.13878658654778</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>-0.81523146905482302</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6">
-        <f t="shared" si="0"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5">
+        <f t="shared" si="1"/>
         <v>0.40102389078498252</v>
       </c>
-      <c r="F32" s="6">
-        <f t="shared" si="1"/>
+      <c r="F32" s="5">
+        <f t="shared" si="2"/>
         <v>0.24529845875798773</v>
       </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6">
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5">
         <v>0.77049815855785997</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="5">
         <v>1.0942987487989699</v>
       </c>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6">
-        <f t="shared" si="2"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5">
+        <f t="shared" si="3"/>
         <v>0.27133105802047763</v>
       </c>
-      <c r="M32" s="6">
-        <f t="shared" si="3"/>
+      <c r="M32" s="5">
+        <f t="shared" si="4"/>
         <v>1.0080240867166474</v>
       </c>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6">
+      <c r="N32" s="5"/>
+      <c r="O32" s="5">
         <f>B32+I32</f>
         <v>1.9092847451056398</v>
       </c>
-      <c r="Q32" s="6">
-        <f>STANDARDIZE(P32,$P$37,$P$38)</f>
+      <c r="P32" s="5">
+        <f>STANDARDIZE(O32,$O$37,$O$38)</f>
         <v>0.33650832626466282</v>
       </c>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6">
-        <f>P32/B12</f>
+      <c r="Q32" s="5"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5">
+        <f>O32/B12</f>
         <v>0.6723549488054601</v>
       </c>
-      <c r="T32" s="6">
-        <f>STANDARDIZE(S32,$S$37,$S$38)</f>
+      <c r="V32" s="5">
+        <f t="shared" si="0"/>
         <v>0.66785786625736476</v>
       </c>
-      <c r="X32" s="8"/>
+      <c r="Z32" s="7"/>
     </row>
-    <row r="33" spans="1:32">
-      <c r="A33" s="5" t="s">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A33" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <v>1.75875659998513</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>1.4215251771185</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6">
-        <f t="shared" si="0"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5">
+        <f t="shared" si="1"/>
         <v>0.66339410939691668</v>
       </c>
-      <c r="F33" s="6">
-        <f t="shared" si="1"/>
+      <c r="F33" s="5">
+        <f t="shared" si="2"/>
         <v>2.2622608641249449</v>
       </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6">
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5">
         <v>1.1192087454450801</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="5">
         <v>2.08428096506282</v>
       </c>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6">
-        <f t="shared" si="2"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5">
+        <f t="shared" si="3"/>
         <v>0.42215988779803693</v>
       </c>
-      <c r="M33" s="6">
-        <f t="shared" si="3"/>
+      <c r="M33" s="5">
+        <f t="shared" si="4"/>
         <v>2.0663964870613225</v>
       </c>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6">
+      <c r="N33" s="5"/>
+      <c r="O33" s="5">
         <f>B33+I33</f>
         <v>2.8779653454302103</v>
       </c>
-      <c r="Q33" s="6">
-        <f>STANDARDIZE(P33,$P$37,$P$38)</f>
+      <c r="P33" s="5">
+        <f>STANDARDIZE(O33,$O$37,$O$38)</f>
         <v>2.380274984218159</v>
       </c>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6">
-        <f>P33/B13</f>
+      <c r="Q33" s="5"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5">
+        <f>O33/B13</f>
         <v>1.0855539971949537</v>
       </c>
-      <c r="T33" s="6">
-        <f>STANDARDIZE(S33,$S$37,$S$38)</f>
+      <c r="V33" s="5">
+        <f t="shared" si="0"/>
         <v>2.2397091243397504</v>
       </c>
-      <c r="X33" s="8"/>
+      <c r="Z33" s="7"/>
     </row>
-    <row r="34" spans="1:32">
-      <c r="A34" s="5" t="s">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <v>1.17453254032776</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>-0.68626555464250305</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6">
-        <f t="shared" si="0"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5">
+        <f t="shared" si="1"/>
         <v>0.20592648162040558</v>
       </c>
-      <c r="F34" s="6">
-        <f t="shared" si="1"/>
+      <c r="F34" s="5">
+        <f t="shared" si="2"/>
         <v>-1.2545064419326262</v>
       </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6">
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5">
         <v>0.1198065979205</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="5">
         <v>-0.75300126882936802</v>
       </c>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6">
-        <f t="shared" si="2"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5">
+        <f t="shared" si="3"/>
         <v>2.1005251312828235E-2</v>
       </c>
-      <c r="M34" s="6">
-        <f t="shared" si="3"/>
+      <c r="M34" s="5">
+        <f t="shared" si="4"/>
         <v>-0.74852288977398551</v>
       </c>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6">
+      <c r="N34" s="5"/>
+      <c r="O34" s="5">
         <f>B34+I34</f>
         <v>1.2943391382482601</v>
       </c>
-      <c r="Q34" s="6">
-        <f>STANDARDIZE(P34,$P$37,$P$38)</f>
+      <c r="P34" s="5">
+        <f>STANDARDIZE(O34,$O$37,$O$38)</f>
         <v>-0.96093205535233317</v>
       </c>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6">
-        <f>P34/B14</f>
+      <c r="Q34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5">
+        <f>O34/B14</f>
         <v>0.22693173293323382</v>
       </c>
-      <c r="T34" s="6">
-        <f>STANDARDIZE(S34,$S$37,$S$38)</f>
+      <c r="V34" s="5">
+        <f t="shared" si="0"/>
         <v>-1.0265774064683586</v>
       </c>
-      <c r="X34" s="8"/>
+      <c r="Z34" s="7"/>
     </row>
-    <row r="35" spans="1:32">
-      <c r="A35" s="5" t="s">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>0.80709237653159405</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>-2.01193326538435</v>
       </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6">
-        <f t="shared" si="0"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5">
+        <f t="shared" si="1"/>
         <v>0.32059800664451843</v>
       </c>
-      <c r="F35" s="6">
-        <f t="shared" si="1"/>
+      <c r="F35" s="5">
+        <f t="shared" si="2"/>
         <v>-0.37297287397145085</v>
       </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6">
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5">
         <v>0.48090996529084601</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="5">
         <v>0.272163797481766</v>
       </c>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6">
-        <f t="shared" si="2"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5">
+        <f t="shared" si="3"/>
         <v>0.19102990033222594</v>
       </c>
-      <c r="M35" s="6">
-        <f t="shared" si="3"/>
+      <c r="M35" s="5">
+        <f t="shared" si="4"/>
         <v>0.44454740166703616</v>
       </c>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6">
+      <c r="N35" s="5"/>
+      <c r="O35" s="5">
         <f>B35+I35</f>
         <v>1.28800234182244</v>
       </c>
-      <c r="Q35" s="6">
-        <f>STANDARDIZE(P35,$P$37,$P$38)</f>
+      <c r="P35" s="5">
+        <f>STANDARDIZE(O35,$O$37,$O$38)</f>
         <v>-0.97430171842702529</v>
       </c>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6">
-        <f>P35/B15</f>
+      <c r="Q35" s="5"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5">
+        <f>O35/B15</f>
         <v>0.51162790697674432</v>
       </c>
-      <c r="T35" s="6">
-        <f>STANDARDIZE(S35,$S$37,$S$38)</f>
+      <c r="V35" s="5">
+        <f t="shared" si="0"/>
         <v>5.6435831547879768E-2</v>
       </c>
-      <c r="X35" s="8"/>
+      <c r="Z35" s="7"/>
     </row>
-    <row r="36" spans="1:32">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="X36" s="8"/>
+    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="5"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="Z36" s="7"/>
     </row>
-    <row r="37" spans="1:32">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5">
         <f>AVERAGE(B23:B35)</f>
         <v>1.3647472719397948</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6">
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5">
         <f>AVERAGE(E23:E35)</f>
         <v>0.36911501133425495</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6">
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5">
         <f>AVERAGE(I23:I35)</f>
         <v>0.38504319517098001</v>
       </c>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6">
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5">
         <f>AVERAGE(L23:L35)</f>
         <v>0.12767737493355</v>
       </c>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6">
-        <f>AVERAGE(P23:P35)</f>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="5">
+        <f>AVERAGE(O23:O35)</f>
         <v>1.7497904671107753</v>
       </c>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6">
-        <f>AVERAGE(S23:S35)</f>
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5">
+        <f>AVERAGE(U23:U35)</f>
         <v>0.49679238626780492</v>
       </c>
-      <c r="T37" s="6"/>
-      <c r="X37" s="8"/>
+      <c r="V37" s="5"/>
+      <c r="Z37" s="7"/>
     </row>
-    <row r="38" spans="1:32">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5">
         <f>STDEV(B23:B35)</f>
         <v>0.27717365431684315</v>
       </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6">
-        <f t="shared" ref="E38:I38" si="4">STDEV(E23:E35)</f>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5">
+        <f t="shared" ref="E38:I38" si="5">STDEV(E23:E35)</f>
         <v>0.13008185869691491</v>
       </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6">
-        <f t="shared" si="4"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5">
+        <f t="shared" si="5"/>
         <v>0.35223924345150537</v>
       </c>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6">
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5">
         <f>STDEV(L23:L35)</f>
         <v>0.14251016913180989</v>
       </c>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6">
-        <f>STDEV(P23:P35)</f>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5">
+        <f>STDEV(O23:O35)</f>
         <v>0.47396829601601803</v>
       </c>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6">
-        <f>STDEV(S23:S35)</f>
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5">
+        <f>STDEV(U23:U35)</f>
         <v>0.26287414045371238</v>
       </c>
-      <c r="T38" s="6"/>
-      <c r="X38" s="8"/>
+      <c r="V38" s="5"/>
+      <c r="Z38" s="7"/>
     </row>
-    <row r="39" spans="1:32">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="X39" s="8"/>
+    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="Z39" s="7"/>
     </row>
-    <row r="40" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A40" s="10"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11"/>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11"/>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
-      <c r="R40" s="11"/>
-      <c r="S40" s="11"/>
-      <c r="T40" s="11"/>
-      <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
-      <c r="W40" s="11"/>
-      <c r="X40" s="12"/>
+    <row r="40" spans="1:34" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="11"/>
     </row>
-    <row r="43" spans="1:32">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
       <c r="E43" t="s">
         <v>564</v>
       </c>
       <c r="M43" t="s">
         <v>569</v>
       </c>
-      <c r="Q43" t="s">
+      <c r="P43" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="44" spans="1:32">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>550</v>
       </c>
@@ -55170,7 +55181,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:32">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>551</v>
       </c>
@@ -55198,26 +55209,26 @@
       <c r="N45" t="s">
         <v>554</v>
       </c>
-      <c r="W45">
+      <c r="Y45">
         <v>32</v>
       </c>
-      <c r="X45">
+      <c r="Z45">
         <v>32</v>
       </c>
-      <c r="AA45">
+      <c r="AC45">
         <v>53</v>
       </c>
-      <c r="AB45">
+      <c r="AD45">
         <v>53</v>
       </c>
-      <c r="AE45">
+      <c r="AG45">
         <v>85</v>
       </c>
-      <c r="AF45">
+      <c r="AH45">
         <v>85</v>
       </c>
     </row>
-    <row r="46" spans="1:32">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>0</v>
       </c>
@@ -55249,34 +55260,34 @@
         <f>STANDARDIZE(M46,$M$60,$M$61)</f>
         <v>-0.61220244803057255</v>
       </c>
-      <c r="Q46">
+      <c r="P46">
         <f>I46+B46</f>
         <v>0.71117343616967976</v>
       </c>
-      <c r="R46">
-        <f>STANDARDIZE(Q46,$Q$60,$Q$61)</f>
+      <c r="Q46">
+        <f>STANDARDIZE(P46,$P$60,$P$61)</f>
         <v>0.98216107820081133</v>
       </c>
-      <c r="W46" t="s">
+      <c r="Y46" t="s">
         <v>44</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Z46" t="s">
         <v>44</v>
       </c>
-      <c r="AA46" t="s">
+      <c r="AC46" t="s">
         <v>65</v>
       </c>
-      <c r="AB46" t="s">
+      <c r="AD46" t="s">
         <v>65</v>
       </c>
-      <c r="AE46" t="s">
+      <c r="AG46" t="s">
         <v>97</v>
       </c>
-      <c r="AF46" t="s">
+      <c r="AH46" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="47" spans="1:32">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>1</v>
       </c>
@@ -55287,11 +55298,11 @@
         <v>-0.214380627505111</v>
       </c>
       <c r="E47">
-        <f t="shared" ref="E47:E58" si="5">B47/B24</f>
+        <f t="shared" ref="E47:E58" si="6">B47/B24</f>
         <v>0.29484902309058647</v>
       </c>
       <c r="F47">
-        <f t="shared" ref="F47:F58" si="6">STANDARDIZE(E47,$E$60,$E$61)</f>
+        <f t="shared" ref="F47:F58" si="7">STANDARDIZE(E47,$E$60,$E$61)</f>
         <v>-6.1147383036993568E-2</v>
       </c>
       <c r="I47">
@@ -55301,41 +55312,41 @@
         <v>0.224395300697696</v>
       </c>
       <c r="M47">
-        <f t="shared" ref="M47:M58" si="7">I47/B4</f>
+        <f t="shared" ref="M47:M58" si="8">I47/B4</f>
         <v>3.2637774210807872E-2</v>
       </c>
       <c r="N47">
-        <f t="shared" ref="N47:N58" si="8">STANDARDIZE(M47,$M$60,$M$61)</f>
+        <f t="shared" ref="N47:N58" si="9">STANDARDIZE(M47,$M$60,$M$61)</f>
         <v>-0.12924099825448521</v>
       </c>
+      <c r="P47">
+        <f>I47+B47</f>
+        <v>0.52649889829525698</v>
+      </c>
       <c r="Q47">
-        <f t="shared" ref="Q47:Q58" si="9">I47+B47</f>
-        <v>0.52649889829525698</v>
-      </c>
-      <c r="R47">
-        <f t="shared" ref="R47:R58" si="10">STANDARDIZE(Q47,$Q$60,$Q$61)</f>
+        <f>STANDARDIZE(P47,$P$60,$P$61)</f>
         <v>-5.3868536135872301E-2</v>
       </c>
-      <c r="W47">
+      <c r="Y47">
         <v>0.202834677217409</v>
       </c>
-      <c r="X47">
+      <c r="Z47">
         <v>-0.69888054425045498</v>
       </c>
-      <c r="AA47">
+      <c r="AC47">
         <v>0.12520659087494401</v>
       </c>
-      <c r="AB47">
+      <c r="AD47">
         <v>-0.56309510667684304</v>
       </c>
-      <c r="AE47">
+      <c r="AG47">
         <v>6.2603295437471798E-2</v>
       </c>
-      <c r="AF47">
+      <c r="AH47">
         <v>-0.57072185077953097</v>
       </c>
     </row>
-    <row r="48" spans="1:32">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -55346,11 +55357,11 @@
         <v>-0.17065787271862801</v>
       </c>
       <c r="E48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.26836158192090437</v>
       </c>
       <c r="F48">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.41300375255656968</v>
       </c>
       <c r="I48">
@@ -55360,41 +55371,41 @@
         <v>1.8089184403101599</v>
       </c>
       <c r="M48">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.1280788177339901</v>
       </c>
       <c r="N48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9647153615129391</v>
       </c>
+      <c r="P48">
+        <f>I48+B48</f>
+        <v>0.71419725054700101</v>
+      </c>
       <c r="Q48">
-        <f t="shared" si="9"/>
-        <v>0.71419725054700101</v>
-      </c>
-      <c r="R48">
-        <f t="shared" si="10"/>
+        <f>STANDARDIZE(P48,$P$60,$P$61)</f>
         <v>0.9991247662068542</v>
       </c>
-      <c r="W48">
+      <c r="Y48">
         <v>0.419807491592253</v>
       </c>
-      <c r="X48">
+      <c r="Z48">
         <v>0.79885843728886397</v>
       </c>
-      <c r="AA48">
+      <c r="AC48">
         <v>0.14380146120839599</v>
       </c>
-      <c r="AB48">
+      <c r="AD48">
         <v>-0.38154081293761399</v>
       </c>
-      <c r="AE48">
+      <c r="AG48">
         <v>0.10437202829641699</v>
       </c>
-      <c r="AF48">
+      <c r="AH48">
         <v>-6.0592310210559899E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:32">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -55405,11 +55416,11 @@
         <v>-0.42887832779680701</v>
       </c>
       <c r="E49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.24942791762013725</v>
       </c>
       <c r="F49">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.66451654837150342</v>
       </c>
       <c r="I49">
@@ -55419,41 +55430,41 @@
         <v>5.3036527147425003E-2</v>
       </c>
       <c r="M49">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.6929057337220718E-2</v>
       </c>
       <c r="N49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-3.5091151790031902E-2</v>
       </c>
+      <c r="P49">
+        <f>I49+B49</f>
+        <v>0.47178894665896398</v>
+      </c>
       <c r="Q49">
-        <f t="shared" si="9"/>
-        <v>0.47178894665896398</v>
-      </c>
-      <c r="R49">
-        <f t="shared" si="10"/>
+        <f>STANDARDIZE(P49,$P$60,$P$61)</f>
         <v>-0.36079298141413785</v>
       </c>
-      <c r="W49">
+      <c r="Y49">
         <v>0.44172893530941698</v>
       </c>
-      <c r="X49">
+      <c r="Z49">
         <v>0.95017970249628203</v>
       </c>
-      <c r="AA49">
+      <c r="AC49">
         <v>0.16926062007183301</v>
       </c>
-      <c r="AB49">
+      <c r="AD49">
         <v>-0.13296582834465601</v>
       </c>
-      <c r="AE49">
+      <c r="AG49">
         <v>0.30962308549725498</v>
       </c>
-      <c r="AF49">
+      <c r="AH49">
         <v>2.4461781935715998</v>
       </c>
     </row>
-    <row r="50" spans="1:32">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>4</v>
       </c>
@@ -55464,11 +55475,11 @@
         <v>2.0455020822855898</v>
       </c>
       <c r="E50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.40000000000000102</v>
       </c>
       <c r="F50">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3356670827231745</v>
       </c>
       <c r="I50">
@@ -55478,41 +55489,41 @@
         <v>-1.01742984244992</v>
       </c>
       <c r="M50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.84530687887087197</v>
       </c>
+      <c r="P50">
+        <f>I50+B50</f>
+        <v>0.75573549257759798</v>
+      </c>
       <c r="Q50">
-        <f t="shared" si="9"/>
-        <v>0.75573549257759798</v>
-      </c>
-      <c r="R50">
-        <f t="shared" si="10"/>
+        <f>STANDARDIZE(P50,$P$60,$P$61)</f>
         <v>1.232155531392505</v>
       </c>
-      <c r="W50">
+      <c r="Y50">
         <v>0.33699210475640301</v>
       </c>
-      <c r="X50">
+      <c r="Z50">
         <v>0.22719311832855499</v>
       </c>
-      <c r="AA50">
+      <c r="AC50">
         <v>8.9864561268374096E-2</v>
       </c>
-      <c r="AB50">
+      <c r="AD50">
         <v>-0.90816324156930595</v>
       </c>
-      <c r="AE50">
+      <c r="AG50">
         <v>0.16047243083638199</v>
       </c>
-      <c r="AF50">
+      <c r="AH50">
         <v>0.62457265924382099</v>
       </c>
     </row>
-    <row r="51" spans="1:32">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -55523,11 +55534,11 @@
         <v>0.42332169224870803</v>
       </c>
       <c r="E51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.3275862068965511</v>
       </c>
       <c r="F51">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.37372990724072269</v>
       </c>
       <c r="I51">
@@ -55537,41 +55548,41 @@
         <v>-0.90433538519768897</v>
       </c>
       <c r="M51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.2258064516129041E-3</v>
       </c>
       <c r="N51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.77453336586864929</v>
       </c>
+      <c r="P51">
+        <f>I51+B51</f>
+        <v>0.50251256281407009</v>
+      </c>
       <c r="Q51">
-        <f t="shared" si="9"/>
-        <v>0.50251256281407009</v>
-      </c>
-      <c r="R51">
-        <f t="shared" si="10"/>
+        <f>STANDARDIZE(P51,$P$60,$P$61)</f>
         <v>-0.18843258694629073</v>
       </c>
-      <c r="W51">
+      <c r="Y51">
         <v>0.215924426450742</v>
       </c>
-      <c r="X51">
+      <c r="Z51">
         <v>-0.60852347467090795</v>
       </c>
-      <c r="AA51">
+      <c r="AC51">
         <v>0.107962213225371</v>
       </c>
-      <c r="AB51">
+      <c r="AD51">
         <v>-0.73146362708046997</v>
       </c>
-      <c r="AE51">
+      <c r="AG51">
         <v>5.3981106612685598E-2</v>
       </c>
-      <c r="AF51">
+      <c r="AH51">
         <v>-0.67602629558375504</v>
       </c>
     </row>
-    <row r="52" spans="1:32">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -55582,11 +55593,11 @@
         <v>0.82826886991536297</v>
       </c>
       <c r="E52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.38947368421052692</v>
       </c>
       <c r="F52">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1958366161116878</v>
       </c>
       <c r="I52">
@@ -55596,41 +55607,41 @@
         <v>-0.22597259922667301</v>
       </c>
       <c r="M52">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.0134228187919479E-2</v>
       </c>
       <c r="N52">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.40356616013216701</v>
       </c>
+      <c r="P52">
+        <f>I52+B52</f>
+        <v>0.64622783288247709</v>
+      </c>
       <c r="Q52">
-        <f t="shared" si="9"/>
-        <v>0.64622783288247709</v>
-      </c>
-      <c r="R52">
-        <f t="shared" si="10"/>
+        <f>STANDARDIZE(P52,$P$60,$P$61)</f>
         <v>0.61781432471247999</v>
       </c>
-      <c r="W52">
+      <c r="Y52">
         <v>0.38654812524159299</v>
       </c>
-      <c r="X52">
+      <c r="Z52">
         <v>0.56927276487083101</v>
       </c>
-      <c r="AA52">
+      <c r="AC52">
         <v>0.18038912511274299</v>
       </c>
-      <c r="AB52">
+      <c r="AD52">
         <v>-2.4310708042946001E-2</v>
       </c>
-      <c r="AE52">
+      <c r="AG52">
         <v>7.7309625048318495E-2</v>
       </c>
-      <c r="AF52">
+      <c r="AH52">
         <v>-0.39111062835695498</v>
       </c>
     </row>
-    <row r="53" spans="1:32">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -55641,11 +55652,11 @@
         <v>-0.29503336963458099</v>
       </c>
       <c r="E53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.2841260037059915</v>
       </c>
       <c r="F53">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.20359083942002126</v>
       </c>
       <c r="I53">
@@ -55655,41 +55666,41 @@
         <v>-0.75494982546753697</v>
       </c>
       <c r="M53">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.1112819527195887E-3</v>
       </c>
       <c r="N53">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.68928685309045812</v>
       </c>
+      <c r="P53">
+        <f>I53+B53</f>
+        <v>0.4016908193037893</v>
+      </c>
       <c r="Q53">
-        <f t="shared" si="9"/>
-        <v>0.4016908193037893</v>
-      </c>
-      <c r="R53">
-        <f t="shared" si="10"/>
+        <f>STANDARDIZE(P53,$P$60,$P$61)</f>
         <v>-0.75404554717330552</v>
       </c>
-      <c r="W53">
+      <c r="Y53">
         <v>0.300571085061617</v>
       </c>
-      <c r="X53">
+      <c r="Z53">
         <v>-2.4217092215389899E-2</v>
       </c>
-      <c r="AA53">
+      <c r="AC53">
         <v>0.48091373609858701</v>
       </c>
-      <c r="AB53">
+      <c r="AD53">
         <v>2.90991429704538</v>
       </c>
-      <c r="AE53">
+      <c r="AG53">
         <v>0.165314096783889</v>
       </c>
-      <c r="AF53">
+      <c r="AH53">
         <v>0.68370485350336696</v>
       </c>
     </row>
-    <row r="54" spans="1:32">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -55700,11 +55711,11 @@
         <v>-0.82999019416660003</v>
       </c>
       <c r="E54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.24910714285714261</v>
       </c>
       <c r="F54">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.66877768642624247</v>
       </c>
       <c r="I54">
@@ -55714,41 +55725,41 @@
         <v>-0.80297763398164901</v>
       </c>
       <c r="M54">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.6153486195601255E-3</v>
       </c>
       <c r="N54">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.72210731482395207</v>
       </c>
+      <c r="P54">
+        <f>I54+B54</f>
+        <v>0.30846287756161628</v>
+      </c>
       <c r="Q54">
-        <f t="shared" si="9"/>
-        <v>0.30846287756161628</v>
-      </c>
-      <c r="R54">
-        <f t="shared" si="10"/>
+        <f>STANDARDIZE(P54,$P$60,$P$61)</f>
         <v>-1.2770570550955544</v>
       </c>
-      <c r="W54">
+      <c r="Y54">
         <v>0.20933183541183401</v>
       </c>
-      <c r="X54">
+      <c r="Z54">
         <v>-0.65403139056704895</v>
       </c>
-      <c r="AA54">
+      <c r="AC54">
         <v>0.24085284537732299</v>
       </c>
-      <c r="AB54">
+      <c r="AD54">
         <v>0.56603748114197106</v>
       </c>
-      <c r="AE54">
+      <c r="AG54">
         <v>3.7178627138781402E-2</v>
       </c>
-      <c r="AF54">
+      <c r="AH54">
         <v>-0.88123819807044401</v>
       </c>
     </row>
-    <row r="55" spans="1:32">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>9</v>
       </c>
@@ -55759,11 +55770,11 @@
         <v>-0.93670379545828297</v>
       </c>
       <c r="E55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.23404255319148987</v>
       </c>
       <c r="F55">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.86889410364082076</v>
       </c>
       <c r="I55">
@@ -55773,41 +55784,41 @@
         <v>0.72645314805782601</v>
       </c>
       <c r="M55">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.996587030716736E-2</v>
       </c>
       <c r="N55">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.68972955501692734</v>
       </c>
+      <c r="P55">
+        <f>I55+B55</f>
+        <v>0.46520643535568995</v>
+      </c>
       <c r="Q55">
-        <f t="shared" si="9"/>
-        <v>0.46520643535568995</v>
-      </c>
-      <c r="R55">
-        <f t="shared" si="10"/>
+        <f>STANDARDIZE(P55,$P$60,$P$61)</f>
         <v>-0.39772106432903959</v>
       </c>
-      <c r="W55">
+      <c r="Y55">
         <v>0.182227244500097</v>
       </c>
-      <c r="X55">
+      <c r="Z55">
         <v>-0.84113133902903503</v>
       </c>
-      <c r="AA55">
+      <c r="AC55">
         <v>0.15677651202801601</v>
       </c>
-      <c r="AB55">
+      <c r="AD55">
         <v>-0.25485661748243998</v>
       </c>
-      <c r="AE55">
+      <c r="AG55">
         <v>1.8324527379897999E-2</v>
       </c>
-      <c r="AF55">
+      <c r="AH55">
         <v>-1.11150693234882</v>
       </c>
     </row>
-    <row r="56" spans="1:32">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -55818,11 +55829,11 @@
         <v>0.31723180893460901</v>
       </c>
       <c r="E56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.26849894291754728</v>
       </c>
       <c r="F56">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-0.41117906359236406</v>
       </c>
       <c r="I56">
@@ -55832,41 +55843,41 @@
         <v>2.05040133837297</v>
       </c>
       <c r="M56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13183730715287539</v>
       </c>
       <c r="N56">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0471758264373592</v>
       </c>
+      <c r="P56">
+        <f>I56+B56</f>
+        <v>0.82174462705436202</v>
+      </c>
       <c r="Q56">
-        <f t="shared" si="9"/>
-        <v>0.82174462705436202</v>
-      </c>
-      <c r="R56">
-        <f t="shared" si="10"/>
+        <f>STANDARDIZE(P56,$P$60,$P$61)</f>
         <v>1.6024687262800592</v>
       </c>
-      <c r="W56">
+      <c r="Y56">
         <v>0.27137042062415201</v>
       </c>
-      <c r="X56">
+      <c r="Z56">
         <v>-0.22578600093260501</v>
       </c>
-      <c r="AA56">
+      <c r="AC56">
         <v>0.15991471215351799</v>
       </c>
-      <c r="AB56">
+      <c r="AD56">
         <v>-0.22421624746744401</v>
       </c>
-      <c r="AE56">
+      <c r="AG56">
         <v>0.111455708470634</v>
       </c>
-      <c r="AF56">
+      <c r="AH56">
         <v>2.59220335454333E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:32">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -55877,11 +55888,11 @@
         <v>-0.46171069177451302</v>
       </c>
       <c r="E57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.29326047358834173</v>
       </c>
       <c r="F57">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-8.2249506759753774E-2</v>
       </c>
       <c r="I57">
@@ -55891,41 +55902,41 @@
         <v>-0.77331450558907799</v>
       </c>
       <c r="M57">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.8762190547636877E-3</v>
       </c>
       <c r="N57">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.73832366154193096</v>
       </c>
+      <c r="P57">
+        <f>I57+B57</f>
+        <v>0.3722562149672673</v>
+      </c>
       <c r="Q57">
-        <f t="shared" si="9"/>
-        <v>0.3722562149672673</v>
-      </c>
-      <c r="R57">
-        <f t="shared" si="10"/>
+        <f>STANDARDIZE(P57,$P$60,$P$61)</f>
         <v>-0.91917454725049119</v>
       </c>
-      <c r="W57">
+      <c r="Y57">
         <v>0.66185766341935004</v>
       </c>
-      <c r="X57">
+      <c r="Z57">
         <v>2.4697036022846302</v>
       </c>
-      <c r="AA57">
+      <c r="AC57">
         <v>0.263999405071763</v>
       </c>
-      <c r="AB57">
+      <c r="AD57">
         <v>0.79203299616618394</v>
       </c>
-      <c r="AE57">
+      <c r="AG57">
         <v>0.20078827991373499</v>
       </c>
-      <c r="AF57">
+      <c r="AH57">
         <v>1.1169578517018199</v>
       </c>
     </row>
-    <row r="58" spans="1:32">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -55936,11 +55947,11 @@
         <v>-1.66919697504579</v>
       </c>
       <c r="E58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.18134715025906767</v>
       </c>
       <c r="F58">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1.5688942677712781</v>
       </c>
       <c r="I58">
@@ -55950,41 +55961,41 @@
         <v>8.3719427070317196E-2</v>
       </c>
       <c r="M58">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>4.983388704318948E-2</v>
       </c>
       <c r="N58">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.24803808943589103</v>
       </c>
+      <c r="P58">
+        <f>I58+B58</f>
+        <v>0.27181867603395704</v>
+      </c>
       <c r="Q58">
-        <f t="shared" si="9"/>
-        <v>0.27181867603395704</v>
-      </c>
-      <c r="R58">
-        <f t="shared" si="10"/>
+        <f>STANDARDIZE(P58,$P$60,$P$61)</f>
         <v>-1.4826321084480207</v>
       </c>
-      <c r="W58">
+      <c r="Y58">
         <v>0.17329168627786601</v>
       </c>
-      <c r="X58">
+      <c r="Z58">
         <v>-0.90281249438395805</v>
       </c>
-      <c r="AA58">
+      <c r="AC58">
         <v>0.14975824740062499</v>
       </c>
-      <c r="AB58">
+      <c r="AD58">
         <v>-0.32338068110060803</v>
       </c>
-      <c r="AE58">
+      <c r="AG58">
         <v>3.2091053014419599E-2</v>
       </c>
-      <c r="AF58">
+      <c r="AH58">
         <v>-0.94337371602919595</v>
       </c>
     </row>
-    <row r="60" spans="1:32">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B60">
         <f>AVERAGE(B46:B58)</f>
         <v>0.42018452675423507</v>
@@ -56001,12 +56012,12 @@
         <f>AVERAGE(M46:M58)</f>
         <v>3.8528487110266713E-2</v>
       </c>
-      <c r="Q60">
-        <f>AVERAGE(Q46:Q58)</f>
+      <c r="P60">
+        <f>AVERAGE(P46:P58)</f>
         <v>0.5361010823247484</v>
       </c>
     </row>
-    <row r="61" spans="1:32">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.35">
       <c r="B61">
         <f>STDEV(B46:B58)</f>
         <v>0.16404332644258474</v>
@@ -56023,23 +56034,26 @@
         <f>STDEV(M46:M59)</f>
         <v>4.5579289691492358E-2</v>
       </c>
-      <c r="Q61">
-        <f>STDEV(Q46:Q58)</f>
+      <c r="P61">
+        <f>STDEV(P46:P58)</f>
         <v>0.17825218055437572</v>
       </c>
-      <c r="AB61">
+      <c r="AD61">
         <v>8.7818341487893595E-2</v>
       </c>
-      <c r="AC61">
+      <c r="AE61">
         <v>-0.262765660186775</v>
       </c>
     </row>
-    <row r="64" spans="1:32">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.35">
       <c r="E64" t="s">
         <v>565</v>
       </c>
+      <c r="I64" t="s">
+        <v>571</v>
+      </c>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>550</v>
       </c>
@@ -56049,20 +56063,26 @@
       <c r="C65">
         <v>59</v>
       </c>
-      <c r="O65">
+      <c r="M65">
+        <v>321</v>
+      </c>
+      <c r="N65">
+        <v>321</v>
+      </c>
+      <c r="T65">
         <v>67</v>
       </c>
-      <c r="S65">
+      <c r="U65">
         <v>67</v>
       </c>
-      <c r="V65">
+      <c r="X65">
         <v>81</v>
       </c>
-      <c r="W65">
+      <c r="Y65">
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>551</v>
       </c>
@@ -56078,20 +56098,32 @@
       <c r="F66" t="s">
         <v>554</v>
       </c>
-      <c r="O66" t="s">
+      <c r="I66" t="s">
+        <v>553</v>
+      </c>
+      <c r="J66" t="s">
+        <v>554</v>
+      </c>
+      <c r="M66" t="s">
+        <v>333</v>
+      </c>
+      <c r="N66" t="s">
+        <v>333</v>
+      </c>
+      <c r="T66" t="s">
         <v>79</v>
       </c>
-      <c r="S66" t="s">
+      <c r="U66" t="s">
         <v>79</v>
       </c>
-      <c r="V66" t="s">
+      <c r="X66" t="s">
         <v>93</v>
       </c>
-      <c r="W66" t="s">
+      <c r="Y66" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="67" spans="1:23">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -56109,20 +56141,34 @@
         <f>STANDARDIZE(E67,$E$81,$E$82)</f>
         <v>0.87936398934579163</v>
       </c>
-      <c r="O67">
+      <c r="I67">
+        <f>E67/B3</f>
+        <v>7.7322009034716213E-2</v>
+      </c>
+      <c r="J67">
+        <f>STANDARDIZE(I67,$I$81,$I$82)</f>
+        <v>-0.92759472910966378</v>
+      </c>
+      <c r="M67">
+        <v>2.5041318174988701E-2</v>
+      </c>
+      <c r="N67">
+        <v>-9.9928231016578301E-2</v>
+      </c>
+      <c r="T67">
         <v>8.7644613612460606E-2</v>
       </c>
-      <c r="S67">
+      <c r="U67">
         <v>-0.60028070313509097</v>
       </c>
-      <c r="V67">
+      <c r="X67">
         <v>6.0099163619973001E-2</v>
       </c>
-      <c r="W67">
+      <c r="Y67">
         <v>-0.77610519292684399</v>
       </c>
     </row>
-    <row r="68" spans="1:23">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -56133,27 +56179,41 @@
         <v>-0.57217731769117597</v>
       </c>
       <c r="E68">
-        <f t="shared" ref="E68:E79" si="11">B68/B47</f>
+        <f t="shared" ref="E68:E79" si="10">B68/B47</f>
         <v>0.26506024096385644</v>
       </c>
       <c r="F68">
-        <f t="shared" ref="F68:F79" si="12">STANDARDIZE(E68,$E$81,$E$82)</f>
+        <f t="shared" ref="F68:F79" si="11">STANDARDIZE(E68,$E$81,$E$82)</f>
         <v>-0.90594435724765543</v>
       </c>
-      <c r="O68">
+      <c r="I68">
+        <f t="shared" ref="I68:I79" si="12">E68/B4</f>
+        <v>6.1145384104637046E-2</v>
+      </c>
+      <c r="J68">
+        <f t="shared" ref="J68:J79" si="13">STANDARDIZE(I68,$I$81,$I$82)</f>
+        <v>-1.9128257804431179</v>
+      </c>
+      <c r="M68">
+        <v>3.7110054505392599E-2</v>
+      </c>
+      <c r="N68">
+        <v>0.32540248820872503</v>
+      </c>
+      <c r="T68">
         <v>0.21106343499942001</v>
       </c>
-      <c r="S68">
+      <c r="U68">
         <v>0.70731130438353595</v>
       </c>
-      <c r="V68">
+      <c r="X68">
         <v>8.5817001043720295E-2</v>
       </c>
-      <c r="W68">
+      <c r="Y68">
         <v>-0.38738730453743098</v>
       </c>
     </row>
-    <row r="69" spans="1:23">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -56164,27 +56224,41 @@
         <v>-0.48414175308164897</v>
       </c>
       <c r="E69">
+        <f t="shared" si="10"/>
+        <v>0.28421052631579025</v>
+      </c>
+      <c r="F69">
         <f t="shared" si="11"/>
-        <v>0.28421052631579025</v>
-      </c>
-      <c r="F69">
+        <v>-0.72650967353331908</v>
+      </c>
+      <c r="I69">
         <f t="shared" si="12"/>
-        <v>-0.72650967353331908</v>
-      </c>
-      <c r="O69">
+        <v>0.1130448535130933</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="13"/>
+        <v>1.2480912235645629</v>
+      </c>
+      <c r="M69">
+        <v>9.4951079552491394E-2</v>
+      </c>
+      <c r="N69">
+        <v>2.3638565657938502</v>
+      </c>
+      <c r="T69">
         <v>0.23531354497791401</v>
       </c>
-      <c r="S69">
+      <c r="U69">
         <v>0.96423524542415195</v>
       </c>
-      <c r="V69">
+      <c r="X69">
         <v>0.17751723568509301</v>
       </c>
-      <c r="W69">
+      <c r="Y69">
         <v>0.99863598300748702</v>
       </c>
     </row>
-    <row r="70" spans="1:23">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>3</v>
       </c>
@@ -56195,27 +56269,41 @@
         <v>-0.59612084931407405</v>
       </c>
       <c r="E70">
+        <f t="shared" si="10"/>
+        <v>0.28440366972477094</v>
+      </c>
+      <c r="F70">
         <f t="shared" si="11"/>
-        <v>0.28440366972477094</v>
-      </c>
-      <c r="F70">
+        <v>-0.72469995499048501</v>
+      </c>
+      <c r="I70">
         <f t="shared" si="12"/>
-        <v>-0.72469995499048501</v>
-      </c>
-      <c r="O70">
+        <v>8.611709952657344E-2</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="13"/>
+        <v>-0.39193316253942651</v>
+      </c>
+      <c r="M70">
+        <v>2.24661403170935E-2</v>
+      </c>
+      <c r="N70">
+        <v>-0.19068356947503301</v>
+      </c>
+      <c r="T70">
         <v>0.134796841902561</v>
       </c>
-      <c r="S70">
+      <c r="U70">
         <v>-0.10071446067749</v>
       </c>
-      <c r="V70">
+      <c r="X70">
         <v>6.4188972334552896E-2</v>
       </c>
-      <c r="W70">
+      <c r="Y70">
         <v>-0.71428888305390903</v>
       </c>
     </row>
-    <row r="71" spans="1:23">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>4</v>
       </c>
@@ -56226,27 +56314,41 @@
         <v>2.5126974222796301</v>
       </c>
       <c r="E71">
+        <f t="shared" si="10"/>
+        <v>0.57142857142857073</v>
+      </c>
+      <c r="F71">
         <f t="shared" si="11"/>
-        <v>0.57142857142857073</v>
-      </c>
-      <c r="F71">
+        <v>1.9646710652778412</v>
+      </c>
+      <c r="I71">
         <f t="shared" si="12"/>
-        <v>1.9646710652778412</v>
-      </c>
-      <c r="O71">
+        <v>0.11827613727055047</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="13"/>
+        <v>1.5667005267078686</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>-0.98244331612004498</v>
+      </c>
+      <c r="T71">
         <v>0.107962213225371</v>
       </c>
-      <c r="S71">
+      <c r="U71">
         <v>-0.38502074061682601</v>
       </c>
-      <c r="V71">
+      <c r="X71">
         <v>0.13495276653171401</v>
       </c>
-      <c r="W71">
+      <c r="Y71">
         <v>0.35528598832870201</v>
       </c>
     </row>
-    <row r="72" spans="1:23">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -56257,27 +56359,41 @@
         <v>0.40162118935699997</v>
       </c>
       <c r="E72">
+        <f t="shared" si="10"/>
+        <v>0.42105263157894685</v>
+      </c>
+      <c r="F72">
         <f t="shared" si="11"/>
-        <v>0.42105263157894685</v>
-      </c>
-      <c r="F72">
+        <v>0.55567591406780403</v>
+      </c>
+      <c r="I72">
         <f t="shared" si="12"/>
-        <v>0.55567591406780403</v>
-      </c>
-      <c r="O72">
+        <v>0.10541256366723238</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="13"/>
+        <v>0.78324957820149621</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>-0.98244331612004498</v>
+      </c>
+      <c r="T72">
         <v>0.25769875016106197</v>
       </c>
-      <c r="S72">
+      <c r="U72">
         <v>1.2014009795902201</v>
       </c>
-      <c r="V72">
+      <c r="X72">
         <v>0.14173431258858399</v>
       </c>
-      <c r="W72">
+      <c r="Y72">
         <v>0.45778715200772602</v>
       </c>
     </row>
-    <row r="73" spans="1:23">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -56288,27 +56404,41 @@
         <v>0.58186407404213003</v>
       </c>
       <c r="E73">
+        <f t="shared" si="10"/>
+        <v>0.40540540540540543</v>
+      </c>
+      <c r="F73">
         <f t="shared" si="11"/>
-        <v>0.40540540540540543</v>
-      </c>
-      <c r="F73">
+        <v>0.4090642564418997</v>
+      </c>
+      <c r="I73">
         <f t="shared" si="12"/>
-        <v>0.4090642564418997</v>
-      </c>
-      <c r="O73">
+        <v>9.0522401596227195E-2</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="13"/>
+        <v>-0.12362995292145029</v>
+      </c>
+      <c r="M73">
+        <v>1.50285542530809E-2</v>
+      </c>
+      <c r="N73">
+        <v>-0.45280163579960803</v>
+      </c>
+      <c r="T73">
         <v>0.165314096783889</v>
       </c>
-      <c r="S73">
+      <c r="U73">
         <v>0.22260833665437499</v>
       </c>
-      <c r="V73">
+      <c r="X73">
         <v>4.5085662759242598E-2</v>
       </c>
-      <c r="W73">
+      <c r="Y73">
         <v>-1.0030300410685</v>
       </c>
     </row>
-    <row r="74" spans="1:23">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -56319,27 +56449,41 @@
         <v>-0.27934965545468898</v>
       </c>
       <c r="E74">
+        <f t="shared" si="10"/>
+        <v>0.35869565217391303</v>
+      </c>
+      <c r="F74">
         <f t="shared" si="11"/>
-        <v>0.35869565217391303</v>
-      </c>
-      <c r="F74">
+        <v>-2.8597618743745348E-2</v>
+      </c>
+      <c r="I74">
         <f t="shared" si="12"/>
-        <v>-2.8597618743745348E-2</v>
-      </c>
-      <c r="O74">
+        <v>8.5297591690412775E-2</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="13"/>
+        <v>-0.44184496864771244</v>
+      </c>
+      <c r="M74">
+        <v>1.29316963960979E-2</v>
+      </c>
+      <c r="N74">
+        <v>-0.52669984983026996</v>
+      </c>
+      <c r="T74">
         <v>7.6781947351831095E-2</v>
       </c>
-      <c r="S74">
+      <c r="U74">
         <v>-0.71536797607385305</v>
       </c>
-      <c r="V74">
+      <c r="X74">
         <v>6.3850250955733198E-2</v>
       </c>
-      <c r="W74">
+      <c r="Y74">
         <v>-0.71940856154622101</v>
       </c>
     </row>
-    <row r="75" spans="1:23">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -56350,27 +56494,41 @@
         <v>-0.498332962291413</v>
       </c>
       <c r="E75">
+        <f t="shared" si="10"/>
+        <v>0.38709677419354838</v>
+      </c>
+      <c r="F75">
         <f t="shared" si="11"/>
-        <v>0.38709677419354838</v>
-      </c>
-      <c r="F75">
+        <v>0.23751571863328394</v>
+      </c>
+      <c r="I75">
         <f t="shared" si="12"/>
-        <v>0.23751571863328394</v>
-      </c>
-      <c r="O75">
+        <v>8.8966141863027759E-2</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="13"/>
+        <v>-0.21841334684418356</v>
+      </c>
+      <c r="M75">
+        <v>8.1442343910657806E-3</v>
+      </c>
+      <c r="N75">
+        <v>-0.69542129689132903</v>
+      </c>
+      <c r="T75">
         <v>5.5991611438577199E-2</v>
       </c>
-      <c r="S75">
+      <c r="U75">
         <v>-0.93563646323241401</v>
       </c>
-      <c r="V75">
+      <c r="X75">
         <v>5.8027670036343598E-2</v>
       </c>
-      <c r="W75">
+      <c r="Y75">
         <v>-0.80741523655038305</v>
       </c>
     </row>
-    <row r="76" spans="1:23">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>9</v>
       </c>
@@ -56381,27 +56539,41 @@
         <v>-0.98282999620262401</v>
       </c>
       <c r="E76">
+        <f t="shared" si="10"/>
+        <v>0.21818181818181767</v>
+      </c>
+      <c r="F76">
         <f t="shared" si="11"/>
-        <v>0.21818181818181767</v>
-      </c>
-      <c r="F76">
+        <v>-1.3451866353828299</v>
+      </c>
+      <c r="I76">
         <f t="shared" si="12"/>
-        <v>-1.3451866353828299</v>
-      </c>
-      <c r="O76">
+        <v>7.6832764505119236E-2</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="13"/>
+        <v>-0.95739197694952027</v>
+      </c>
+      <c r="M76">
+        <v>4.8459003682884298E-2</v>
+      </c>
+      <c r="N76">
+        <v>0.72536621133303802</v>
+      </c>
+      <c r="T76">
         <v>8.2380306260903299E-2</v>
       </c>
-      <c r="S76">
+      <c r="U76">
         <v>-0.656054742626487</v>
       </c>
-      <c r="V76">
+      <c r="X76">
         <v>0.188990114363249</v>
       </c>
-      <c r="W76">
+      <c r="Y76">
         <v>1.1720453214382001</v>
       </c>
     </row>
-    <row r="77" spans="1:23">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -56412,27 +56584,41 @@
         <v>-0.23988529398087099</v>
       </c>
       <c r="E77">
+        <f t="shared" si="10"/>
+        <v>0.291338582677166</v>
+      </c>
+      <c r="F77">
         <f t="shared" si="11"/>
-        <v>0.291338582677166</v>
-      </c>
-      <c r="F77">
+        <v>-0.65972108447596256</v>
+      </c>
+      <c r="I77">
         <f t="shared" si="12"/>
-        <v>-0.65972108447596256</v>
-      </c>
-      <c r="O77">
+        <v>0.10989144239158086</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="13"/>
+        <v>1.0560339453644982</v>
+      </c>
+      <c r="M77">
+        <v>7.0647728117795794E-2</v>
+      </c>
+      <c r="N77">
+        <v>1.5073491683073901</v>
+      </c>
+      <c r="T77">
         <v>0.35323864058897902</v>
       </c>
-      <c r="S77">
+      <c r="U77">
         <v>2.2136225817643398</v>
       </c>
-      <c r="V77">
+      <c r="X77">
         <v>0.263999405071763</v>
       </c>
-      <c r="W77">
+      <c r="Y77">
         <v>2.3057896800084898</v>
       </c>
     </row>
-    <row r="78" spans="1:23">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>11</v>
       </c>
@@ -56443,27 +56629,41 @@
         <v>9.4184216633547493E-2</v>
       </c>
       <c r="E78">
+        <f t="shared" si="10"/>
+        <v>0.50310559006211242</v>
+      </c>
+      <c r="F78">
         <f t="shared" si="11"/>
-        <v>0.50310559006211242</v>
-      </c>
-      <c r="F78">
+        <v>1.3244971813585098</v>
+      </c>
+      <c r="I78">
         <f t="shared" si="12"/>
-        <v>1.3244971813585098</v>
-      </c>
-      <c r="O78">
+        <v>8.8207657504438278E-2</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="13"/>
+        <v>-0.26460854177904181</v>
+      </c>
+      <c r="M78">
+        <v>1.9254631808651699E-2</v>
+      </c>
+      <c r="N78">
+        <v>-0.30386470015004702</v>
+      </c>
+      <c r="T78">
         <v>4.9206281288776701E-2</v>
       </c>
-      <c r="S78">
+      <c r="U78">
         <v>-1.0075253645567599</v>
       </c>
-      <c r="V78">
+      <c r="X78">
         <v>6.4182106028839198E-2</v>
       </c>
-      <c r="W78">
+      <c r="Y78">
         <v>-0.71439266533599199</v>
       </c>
     </row>
-    <row r="79" spans="1:23">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>12</v>
       </c>
@@ -56474,27 +56674,41 @@
         <v>-1.1747190128162299</v>
       </c>
       <c r="E79">
+        <f t="shared" si="10"/>
+        <v>0.25714285714285645</v>
+      </c>
+      <c r="F79">
         <f t="shared" si="11"/>
-        <v>0.25714285714285645</v>
-      </c>
-      <c r="F79">
+        <v>-0.98012880075113973</v>
+      </c>
+      <c r="I79">
         <f t="shared" si="12"/>
-        <v>-0.98012880075113973</v>
-      </c>
-      <c r="O79">
+        <v>0.10214380635975294</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="13"/>
+        <v>0.58416718539571078</v>
+      </c>
+      <c r="M79">
+        <v>8.36365157027558E-3</v>
+      </c>
+      <c r="N79">
+        <v>-0.68768851824004795</v>
+      </c>
+      <c r="T79">
         <v>5.8545560991929098E-2</v>
       </c>
-      <c r="S79">
+      <c r="U79">
         <v>-0.90857799689770402</v>
       </c>
-      <c r="V79">
+      <c r="X79">
         <v>0.100363818843307</v>
       </c>
-      <c r="W79">
+      <c r="Y79">
         <v>-0.16751623977132701</v>
       </c>
     </row>
-    <row r="81" spans="1:10">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B81">
         <f>AVERAGE(B67:B79)</f>
         <v>0.16322268845863341</v>
@@ -56503,8 +56717,16 @@
         <f>AVERAGE(E67:E79)</f>
         <v>0.36174775195747777</v>
       </c>
+      <c r="I81">
+        <f>AVERAGE(I67:I79)</f>
+        <v>9.255229638672012E-2</v>
+      </c>
+      <c r="M81">
+        <f>AVERAGE(M67:M79)</f>
+        <v>2.7876776366909089E-2</v>
+      </c>
     </row>
-    <row r="82" spans="1:10">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B82">
         <f>STDEV(B67:B79)</f>
         <v>0.10690748597940644</v>
@@ -56513,8 +56735,16 @@
         <f>STDEV(E67:E79)</f>
         <v>0.10672566170329392</v>
       </c>
+      <c r="I82">
+        <f>_xlfn.STDEV.S(I67:I79)</f>
+        <v>1.6419118041585298E-2</v>
+      </c>
+      <c r="M82">
+        <f>_xlfn.STDEV.S(M67:M79)</f>
+        <v>2.8374946329730862E-2</v>
+      </c>
     </row>
-    <row r="84" spans="1:10">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>550</v>
       </c>
@@ -56525,7 +56755,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="85" spans="1:10">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>551</v>
       </c>
@@ -56536,7 +56766,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="86" spans="1:10">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>0</v>
       </c>
@@ -56547,7 +56777,7 @@
         <v>-0.19215574377137901</v>
       </c>
     </row>
-    <row r="87" spans="1:10">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>1</v>
       </c>
@@ -56558,7 +56788,7 @@
         <v>-0.19840263952690901</v>
       </c>
     </row>
-    <row r="88" spans="1:10">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>2</v>
       </c>
@@ -56569,7 +56799,7 @@
         <v>-0.22851779432469899</v>
       </c>
     </row>
-    <row r="89" spans="1:10">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>3</v>
       </c>
@@ -56580,7 +56810,7 @@
         <v>-0.87447744530157301</v>
       </c>
     </row>
-    <row r="90" spans="1:10">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -56591,7 +56821,7 @@
         <v>0.40820938272351398</v>
       </c>
     </row>
-    <row r="91" spans="1:10">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -56602,7 +56832,7 @@
         <v>2.9441685119327299</v>
       </c>
     </row>
-    <row r="92" spans="1:10">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>6</v>
       </c>
@@ -56613,7 +56843,7 @@
         <v>-0.92762074627900504</v>
       </c>
     </row>
-    <row r="93" spans="1:10">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>7</v>
       </c>
@@ -56624,7 +56854,7 @@
         <v>-0.16784060032501899</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>8</v>
       </c>
@@ -56635,7 +56865,7 @@
         <v>-0.48964750117146699</v>
       </c>
     </row>
-    <row r="95" spans="1:10">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>9</v>
       </c>
@@ -56646,7 +56876,7 @@
         <v>9.31675513602922E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -56657,7 +56887,7 @@
         <v>0.68867244416726403</v>
       </c>
     </row>
-    <row r="97" spans="1:10">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>11</v>
       </c>
@@ -56668,7 +56898,7 @@
         <v>-0.75533463676217305</v>
       </c>
     </row>
-    <row r="98" spans="1:10">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>12</v>
       </c>
